--- a/results/cifar100/rehearsal_0.1_cifar100.xlsx
+++ b/results/cifar100/rehearsal_0.1_cifar100.xlsx
@@ -405,7 +405,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K232"/>
+  <dimension ref="A1:K222"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -464,13 +464,13 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>3.457888052526828</v>
+        <v>3.498154019887469</v>
       </c>
       <c r="D3">
-        <v>3.383503198623657</v>
+        <v>3.166165113449097</v>
       </c>
       <c r="E3">
-        <v>7.36</v>
+        <v>9.76</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -479,10 +479,10 @@
         <v>1</v>
       </c>
       <c r="I3">
-        <v>0.01682334141731262</v>
+        <v>0.01569218826293945</v>
       </c>
       <c r="J3">
-        <v>14.72</v>
+        <v>19.52</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -493,13 +493,13 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>2.883009838846932</v>
+        <v>2.966701670030577</v>
       </c>
       <c r="D4">
-        <v>2.986592054367065</v>
+        <v>3.19616174697876</v>
       </c>
       <c r="E4">
-        <v>11.06</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -508,7 +508,7 @@
         <v>1</v>
       </c>
       <c r="I4">
-        <v>0.05075035285949707</v>
+        <v>0.0486047721862793</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -522,13 +522,13 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>2.530500690493963</v>
+        <v>2.656497716903687</v>
       </c>
       <c r="D5">
-        <v>2.698365926742554</v>
+        <v>2.725539922714233</v>
       </c>
       <c r="E5">
-        <v>14.4</v>
+        <v>13.7</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -537,10 +537,10 @@
         <v>2</v>
       </c>
       <c r="I5">
-        <v>0.01470047974586487</v>
+        <v>0.01583893547058106</v>
       </c>
       <c r="J5">
-        <v>22.12</v>
+        <v>19.6</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -551,13 +551,13 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>2.24421248604766</v>
+        <v>2.386473864580678</v>
       </c>
       <c r="D6">
-        <v>2.440870046615601</v>
+        <v>2.466387510299683</v>
       </c>
       <c r="E6">
-        <v>17.32</v>
+        <v>17.04</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -566,7 +566,7 @@
         <v>2</v>
       </c>
       <c r="I6">
-        <v>0.05619765644073486</v>
+        <v>0.0522880485534668</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -580,13 +580,13 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>2.048681698014251</v>
+        <v>2.140018541201026</v>
       </c>
       <c r="D7">
-        <v>2.349306583404541</v>
+        <v>2.287815809249878</v>
       </c>
       <c r="E7">
-        <v>18.17</v>
+        <v>18.54</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -595,10 +595,10 @@
         <v>3</v>
       </c>
       <c r="I7">
-        <v>0.01328812470436096</v>
+        <v>0.01342927851676941</v>
       </c>
       <c r="J7">
-        <v>28.8</v>
+        <v>27.4</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -609,13 +609,13 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.891346850226411</v>
+        <v>1.95899522093545</v>
       </c>
       <c r="D8">
-        <v>2.194552183151245</v>
+        <v>2.243060111999512</v>
       </c>
       <c r="E8">
-        <v>19.85</v>
+        <v>20.26</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -624,7 +624,7 @@
         <v>3</v>
       </c>
       <c r="I8">
-        <v>0.05931069374084472</v>
+        <v>0.05732873382568359</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -638,13 +638,13 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.745475104424806</v>
+        <v>1.793825595779756</v>
       </c>
       <c r="D9">
-        <v>2.632646322250366</v>
+        <v>2.195460796356201</v>
       </c>
       <c r="E9">
-        <v>15.4</v>
+        <v>19.21</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -653,10 +653,10 @@
         <v>4</v>
       </c>
       <c r="I9">
-        <v>0.01213127226829529</v>
+        <v>0.01221227159500122</v>
       </c>
       <c r="J9">
-        <v>34.64</v>
+        <v>34.08</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -667,13 +667,13 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.620047359339959</v>
+        <v>1.654698617690432</v>
       </c>
       <c r="D10">
-        <v>2.030559539794922</v>
+        <v>2.158763408660889</v>
       </c>
       <c r="E10">
-        <v>21.89</v>
+        <v>21.08</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -682,7 +682,7 @@
         <v>4</v>
       </c>
       <c r="I10">
-        <v>0.06149328994750976</v>
+        <v>0.05901492614746093</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -696,13 +696,13 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.49874269645826</v>
+        <v>1.528501877742531</v>
       </c>
       <c r="D11">
-        <v>1.959231615066528</v>
+        <v>1.929570078849792</v>
       </c>
       <c r="E11">
-        <v>22.7</v>
+        <v>23.46</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -711,10 +711,10 @@
         <v>5</v>
       </c>
       <c r="I11">
-        <v>0.01160779509544373</v>
+        <v>0.01144507336616516</v>
       </c>
       <c r="J11">
-        <v>36.34</v>
+        <v>37.08</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -725,13 +725,13 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.39242014315276</v>
+        <v>1.42587389777192</v>
       </c>
       <c r="D12">
-        <v>2.056881427764893</v>
+        <v>1.993679285049438</v>
       </c>
       <c r="E12">
-        <v>21.97</v>
+        <v>22.5</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -740,7 +740,7 @@
         <v>5</v>
       </c>
       <c r="I12">
-        <v>0.06364865226745606</v>
+        <v>0.06218448181152344</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -754,13 +754,13 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.300234938089826</v>
+        <v>1.312245163242374</v>
       </c>
       <c r="D13">
-        <v>2.55715537071228</v>
+        <v>1.882010579109192</v>
       </c>
       <c r="E13">
-        <v>18.16</v>
+        <v>24.36</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -769,10 +769,10 @@
         <v>6</v>
       </c>
       <c r="I13">
-        <v>0.0110165878534317</v>
+        <v>0.01091852436065674</v>
       </c>
       <c r="J13">
-        <v>39.7</v>
+        <v>40.52</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -783,13 +783,13 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.203949267885326</v>
+        <v>1.223487562837854</v>
       </c>
       <c r="D14">
-        <v>2.008854389190674</v>
+        <v>2.074419021606445</v>
       </c>
       <c r="E14">
-        <v>23.44</v>
+        <v>22.75</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -798,7 +798,7 @@
         <v>6</v>
       </c>
       <c r="I14">
-        <v>0.06493068752288818</v>
+        <v>0.0649618537902832</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -812,13 +812,13 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.116946976796716</v>
+        <v>1.132229396727233</v>
       </c>
       <c r="D15">
-        <v>2.090482711791992</v>
+        <v>1.943802833557129</v>
       </c>
       <c r="E15">
-        <v>22.65</v>
+        <v>23.84</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -827,10 +827,10 @@
         <v>7</v>
       </c>
       <c r="I15">
-        <v>0.01311311492919922</v>
+        <v>0.0109248482465744</v>
       </c>
       <c r="J15">
-        <v>30.8</v>
+        <v>38.42</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -841,13 +841,13 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.028130369903767</v>
+        <v>1.040645127802823</v>
       </c>
       <c r="D16">
-        <v>1.911127209663391</v>
+        <v>1.934527516365051</v>
       </c>
       <c r="E16">
-        <v>24.78</v>
+        <v>24.7</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -856,7 +856,7 @@
         <v>7</v>
       </c>
       <c r="I16">
-        <v>0.06645306549072266</v>
+        <v>0.0642710807800293</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -870,13 +870,13 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9456286588601307</v>
+        <v>0.9545370277050322</v>
       </c>
       <c r="D17">
-        <v>2.149004459381104</v>
+        <v>2.19168758392334</v>
       </c>
       <c r="E17">
-        <v>22.92</v>
+        <v>23.41</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -885,10 +885,10 @@
         <v>8</v>
       </c>
       <c r="I17">
-        <v>0.009949185180664063</v>
+        <v>0.01038070929050446</v>
       </c>
       <c r="J17">
-        <v>43.78</v>
+        <v>42.16</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -899,13 +899,13 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.86239987875508</v>
+        <v>0.8740274732091785</v>
       </c>
       <c r="D18">
-        <v>2.346421003341675</v>
+        <v>2.199416399002075</v>
       </c>
       <c r="E18">
-        <v>22.16</v>
+        <v>23.39</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -914,7 +914,7 @@
         <v>8</v>
       </c>
       <c r="I18">
-        <v>0.07046984958648682</v>
+        <v>0.06798480739593506</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -928,13 +928,13 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.7837776140829104</v>
+        <v>0.7813306614360979</v>
       </c>
       <c r="D19">
-        <v>2.192557096481323</v>
+        <v>2.246252536773682</v>
       </c>
       <c r="E19">
-        <v>22.98</v>
+        <v>23.12</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -943,10 +943,10 @@
         <v>9</v>
       </c>
       <c r="I19">
-        <v>0.009613395929336547</v>
+        <v>0.009433945345878601</v>
       </c>
       <c r="J19">
-        <v>45.4</v>
+        <v>46.92</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -957,13 +957,13 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.7026488126906674</v>
+        <v>0.7012698006840934</v>
       </c>
       <c r="D20">
-        <v>2.146146774291992</v>
+        <v>1.981917500495911</v>
       </c>
       <c r="E20">
-        <v>23.51</v>
+        <v>24.75</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -972,7 +972,7 @@
         <v>9</v>
       </c>
       <c r="I20">
-        <v>0.06619658889770508</v>
+        <v>0.06880639972686768</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -986,13 +986,13 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.6479986288906199</v>
+        <v>0.6323306365350706</v>
       </c>
       <c r="D21">
-        <v>2.891490459442139</v>
+        <v>2.896394014358521</v>
       </c>
       <c r="E21">
-        <v>19.52</v>
+        <v>21.04</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1001,10 +1001,10 @@
         <v>10</v>
       </c>
       <c r="I21">
-        <v>0.01023806266784668</v>
+        <v>0.009784614157676697</v>
       </c>
       <c r="J21">
-        <v>43.94</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1015,13 +1015,13 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.5708886100127634</v>
+        <v>0.5650847804757346</v>
       </c>
       <c r="D22">
-        <v>2.907901048660278</v>
+        <v>2.316571950912476</v>
       </c>
       <c r="E22">
-        <v>19.63</v>
+        <v>23.38</v>
       </c>
       <c r="G22">
         <v>2</v>
@@ -1030,7 +1030,7 @@
         <v>10</v>
       </c>
       <c r="I22">
-        <v>0.07116726455688477</v>
+        <v>0.06942141475677491</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1044,13 +1044,13 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.5441648501210508</v>
+        <v>0.4919511968583132</v>
       </c>
       <c r="D23">
-        <v>2.286794424057007</v>
+        <v>2.56260085105896</v>
       </c>
       <c r="E23">
-        <v>23.86</v>
+        <v>23.18</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1059,10 +1059,10 @@
         <v>11</v>
       </c>
       <c r="I23">
-        <v>0.01282514567375183</v>
+        <v>0.009257357621192933</v>
       </c>
       <c r="J23">
-        <v>36.32</v>
+        <v>48.72</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1073,13 +1073,13 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.4805410037525987</v>
+        <v>1.031204955767741</v>
       </c>
       <c r="D24">
-        <v>2.467906951904297</v>
+        <v>1.631082773208618</v>
       </c>
       <c r="E24">
-        <v>23.16</v>
+        <v>27.66</v>
       </c>
       <c r="G24">
         <v>2</v>
@@ -1088,7 +1088,7 @@
         <v>11</v>
       </c>
       <c r="I24">
-        <v>0.07536953792572021</v>
+        <v>0.07075272846221924</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1102,13 +1102,13 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.4185875466967051</v>
+        <v>0.9452357867122752</v>
       </c>
       <c r="D25">
-        <v>2.759388446807861</v>
+        <v>1.640047907829285</v>
       </c>
       <c r="E25">
-        <v>22.16</v>
+        <v>27.45</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1117,10 +1117,10 @@
         <v>12</v>
       </c>
       <c r="I25">
-        <v>0.01003186330795288</v>
+        <v>0.009901757860183717</v>
       </c>
       <c r="J25">
-        <v>46.88</v>
+        <v>45.5</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1131,13 +1131,13 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>0.3713639267777974</v>
+        <v>0.8947532493456275</v>
       </c>
       <c r="D26">
-        <v>2.475873947143555</v>
+        <v>1.702470302581787</v>
       </c>
       <c r="E26">
-        <v>23.55</v>
+        <v>26.79</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -1146,7 +1146,7 @@
         <v>12</v>
       </c>
       <c r="I26">
-        <v>0.07319794826507568</v>
+        <v>0.07257920379638672</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -1160,13 +1160,13 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>0.7387961259985392</v>
+        <v>0.8543193076564147</v>
       </c>
       <c r="D27">
-        <v>1.638505220413208</v>
+        <v>1.675562024116516</v>
       </c>
       <c r="E27">
-        <v>27.03</v>
+        <v>26.9</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -1175,10 +1175,10 @@
         <v>13</v>
       </c>
       <c r="I27">
-        <v>0.01032342958450317</v>
+        <v>0.009380229735374451</v>
       </c>
       <c r="J27">
-        <v>45.3</v>
+        <v>47.68</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1189,13 +1189,13 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>0.6362177344550074</v>
+        <v>0.8130496323636148</v>
       </c>
       <c r="D28">
-        <v>1.716533184051514</v>
+        <v>1.71838116645813</v>
       </c>
       <c r="E28">
-        <v>26.96</v>
+        <v>26.93</v>
       </c>
       <c r="G28">
         <v>2</v>
@@ -1204,7 +1204,7 @@
         <v>13</v>
       </c>
       <c r="I28">
-        <v>0.07513934345245361</v>
+        <v>0.07467743587493897</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -1218,13 +1218,13 @@
         <v>27</v>
       </c>
       <c r="C29">
-        <v>0.5915946796932051</v>
+        <v>0.775474066755413</v>
       </c>
       <c r="D29">
-        <v>1.711747169494629</v>
+        <v>1.709142923355103</v>
       </c>
       <c r="E29">
-        <v>26.66</v>
+        <v>26.7</v>
       </c>
       <c r="G29">
         <v>1</v>
@@ -1233,10 +1233,10 @@
         <v>14</v>
       </c>
       <c r="I29">
-        <v>0.009434862518310548</v>
+        <v>0.009253469204902649</v>
       </c>
       <c r="J29">
-        <v>49.56</v>
+        <v>49.4</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1247,13 +1247,13 @@
         <v>28</v>
       </c>
       <c r="C30">
-        <v>0.5497236726558314</v>
+        <v>0.7341805654289448</v>
       </c>
       <c r="D30">
-        <v>1.735208034515381</v>
+        <v>1.71663510799408</v>
       </c>
       <c r="E30">
-        <v>26.77</v>
+        <v>26.72</v>
       </c>
       <c r="G30">
         <v>2</v>
@@ -1262,7 +1262,7 @@
         <v>14</v>
       </c>
       <c r="I30">
-        <v>0.07516781024932861</v>
+        <v>0.07430350914001464</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -1276,13 +1276,13 @@
         <v>29</v>
       </c>
       <c r="C31">
-        <v>0.5122445800663096</v>
+        <v>0.6962417585659871</v>
       </c>
       <c r="D31">
-        <v>1.796677112579346</v>
+        <v>1.766285538673401</v>
       </c>
       <c r="E31">
-        <v>26.26</v>
+        <v>26.39</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -1291,10 +1291,10 @@
         <v>15</v>
       </c>
       <c r="I31">
-        <v>0.01073052170276642</v>
+        <v>0.01065845670700073</v>
       </c>
       <c r="J31">
-        <v>45.84</v>
+        <v>46.82</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1305,13 +1305,13 @@
         <v>30</v>
       </c>
       <c r="C32">
-        <v>0.4796855439127019</v>
+        <v>0.6553460159132966</v>
       </c>
       <c r="D32">
-        <v>1.803205013275146</v>
+        <v>1.794659018516541</v>
       </c>
       <c r="E32">
-        <v>26.24</v>
+        <v>26.31</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -1320,7 +1320,7 @@
         <v>15</v>
       </c>
       <c r="I32">
-        <v>0.080261940574646</v>
+        <v>0.07709303874969482</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -1334,13 +1334,13 @@
         <v>31</v>
       </c>
       <c r="C33">
-        <v>0.4478991836045695</v>
+        <v>0.6194695141990628</v>
       </c>
       <c r="D33">
-        <v>1.810827612876892</v>
+        <v>1.824398517608643</v>
       </c>
       <c r="E33">
-        <v>26.06</v>
+        <v>26.39</v>
       </c>
       <c r="G33">
         <v>1</v>
@@ -1349,10 +1349,10 @@
         <v>16</v>
       </c>
       <c r="I33">
-        <v>0.01139791550636291</v>
+        <v>0.01066936373710632</v>
       </c>
       <c r="J33">
-        <v>44.32</v>
+        <v>46.78</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -1363,13 +1363,13 @@
         <v>32</v>
       </c>
       <c r="C34">
-        <v>0.4107594666755305</v>
+        <v>0.5824533988416722</v>
       </c>
       <c r="D34">
-        <v>1.865927934646606</v>
+        <v>1.865094900131226</v>
       </c>
       <c r="E34">
-        <v>26.14</v>
+        <v>26.28</v>
       </c>
       <c r="G34">
         <v>2</v>
@@ -1378,7 +1378,7 @@
         <v>16</v>
       </c>
       <c r="I34">
-        <v>0.07902708358764648</v>
+        <v>0.08003942470550537</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -1392,13 +1392,13 @@
         <v>33</v>
       </c>
       <c r="C35">
-        <v>0.380876538764059</v>
+        <v>0.9249327050901093</v>
       </c>
       <c r="D35">
-        <v>1.935495615005493</v>
+        <v>1.610869407653809</v>
       </c>
       <c r="E35">
-        <v>25.76</v>
+        <v>27.61</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -1407,10 +1407,10 @@
         <v>17</v>
       </c>
       <c r="I35">
-        <v>0.01076104295253754</v>
+        <v>0.01079768223762512</v>
       </c>
       <c r="J35">
-        <v>45.96</v>
+        <v>46.24</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -1421,13 +1421,13 @@
         <v>34</v>
       </c>
       <c r="C36">
-        <v>0.3518608099063941</v>
+        <v>0.9077030167115473</v>
       </c>
       <c r="D36">
-        <v>1.933144450187683</v>
+        <v>1.635644555091858</v>
       </c>
       <c r="E36">
-        <v>25.67</v>
+        <v>27.35</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -1436,7 +1436,7 @@
         <v>17</v>
       </c>
       <c r="I36">
-        <v>0.07684572582244872</v>
+        <v>0.08421959037780762</v>
       </c>
       <c r="J36">
         <v>0</v>
@@ -1450,13 +1450,13 @@
         <v>35</v>
       </c>
       <c r="C37">
-        <v>0.3243762688562933</v>
+        <v>0.8945428449495704</v>
       </c>
       <c r="D37">
-        <v>2.009886264801025</v>
+        <v>1.618037462234497</v>
       </c>
       <c r="E37">
-        <v>25.56</v>
+        <v>27.44</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -1465,10 +1465,10 @@
         <v>18</v>
       </c>
       <c r="I37">
-        <v>0.01061234893798828</v>
+        <v>0.009634297490119934</v>
       </c>
       <c r="J37">
-        <v>47.02</v>
+        <v>49.5</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -1479,13 +1479,13 @@
         <v>36</v>
       </c>
       <c r="C38">
-        <v>0.6244356307835706</v>
+        <v>0.8814666181539013</v>
       </c>
       <c r="D38">
-        <v>1.656440258026123</v>
+        <v>1.652540564537048</v>
       </c>
       <c r="E38">
-        <v>27.19</v>
+        <v>27.48</v>
       </c>
       <c r="G38">
         <v>2</v>
@@ -1494,7 +1494,7 @@
         <v>18</v>
       </c>
       <c r="I38">
-        <v>0.07789122390747071</v>
+        <v>0.07604172306060791</v>
       </c>
       <c r="J38">
         <v>0</v>
@@ -1508,13 +1508,13 @@
         <v>37</v>
       </c>
       <c r="C39">
-        <v>0.606802937203804</v>
+        <v>0.8720575982490472</v>
       </c>
       <c r="D39">
-        <v>1.662966966629028</v>
+        <v>1.626568198204041</v>
       </c>
       <c r="E39">
-        <v>27.29</v>
+        <v>27.67</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -1523,10 +1523,10 @@
         <v>19</v>
       </c>
       <c r="I39">
-        <v>0.01434540348052979</v>
+        <v>0.01395147185325623</v>
       </c>
       <c r="J39">
-        <v>39.04</v>
+        <v>42.08</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -1537,13 +1537,13 @@
         <v>38</v>
       </c>
       <c r="C40">
-        <v>0.5897925596321578</v>
+        <v>0.8616341225868833</v>
       </c>
       <c r="D40">
-        <v>1.645442128181458</v>
+        <v>1.638673424720764</v>
       </c>
       <c r="E40">
-        <v>27.23</v>
+        <v>27.52</v>
       </c>
       <c r="G40">
         <v>2</v>
@@ -1552,7 +1552,7 @@
         <v>19</v>
       </c>
       <c r="I40">
-        <v>0.07910404815673829</v>
+        <v>0.08793489151000977</v>
       </c>
       <c r="J40">
         <v>0</v>
@@ -1566,13 +1566,13 @@
         <v>39</v>
       </c>
       <c r="C41">
-        <v>0.5785195917154835</v>
+        <v>0.8485629674607673</v>
       </c>
       <c r="D41">
-        <v>1.645972847938538</v>
+        <v>1.63758111000061</v>
       </c>
       <c r="E41">
-        <v>27.11</v>
+        <v>27.58</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -1581,10 +1581,10 @@
         <v>20</v>
       </c>
       <c r="I41">
-        <v>0.01444490976333618</v>
+        <v>0.01122129962444305</v>
       </c>
       <c r="J41">
-        <v>39.26</v>
+        <v>46.76</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -1595,13 +1595,13 @@
         <v>40</v>
       </c>
       <c r="C42">
-        <v>0.5683244321726065</v>
+        <v>0.8389259481852034</v>
       </c>
       <c r="D42">
-        <v>1.648593783378601</v>
+        <v>1.660925984382629</v>
       </c>
       <c r="E42">
-        <v>27.16</v>
+        <v>27.37</v>
       </c>
       <c r="G42">
         <v>2</v>
@@ -1610,7 +1610,7 @@
         <v>20</v>
       </c>
       <c r="I42">
-        <v>0.08794922561645507</v>
+        <v>0.08483846664428711</v>
       </c>
       <c r="J42">
         <v>0</v>
@@ -1624,13 +1624,13 @@
         <v>41</v>
       </c>
       <c r="C43">
-        <v>0.5536041655371674</v>
+        <v>0.8287700641471728</v>
       </c>
       <c r="D43">
-        <v>1.683587074279785</v>
+        <v>1.66426420211792</v>
       </c>
       <c r="E43">
-        <v>26.98</v>
+        <v>27.37</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -1639,10 +1639,10 @@
         <v>21</v>
       </c>
       <c r="I43">
-        <v>0.0115460066318512</v>
+        <v>0.01218174571990967</v>
       </c>
       <c r="J43">
-        <v>47.72</v>
+        <v>46.36</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -1653,13 +1653,13 @@
         <v>42</v>
       </c>
       <c r="C44">
-        <v>0.5449303145957204</v>
+        <v>0.8188977114922178</v>
       </c>
       <c r="D44">
-        <v>1.69086480140686</v>
+        <v>1.649368166923523</v>
       </c>
       <c r="E44">
-        <v>26.98</v>
+        <v>27.5</v>
       </c>
       <c r="G44">
         <v>2</v>
@@ -1668,7 +1668,7 @@
         <v>21</v>
       </c>
       <c r="I44">
-        <v>0.08489946441650391</v>
+        <v>0.08663098335266113</v>
       </c>
       <c r="J44">
         <v>0</v>
@@ -1682,13 +1682,13 @@
         <v>43</v>
       </c>
       <c r="C45">
-        <v>0.5321790544332656</v>
+        <v>0.8071617753104826</v>
       </c>
       <c r="D45">
-        <v>1.695001125335693</v>
+        <v>1.651541709899902</v>
       </c>
       <c r="E45">
-        <v>27.04</v>
+        <v>27.42</v>
       </c>
       <c r="G45">
         <v>1</v>
@@ -1697,10 +1697,10 @@
         <v>22</v>
       </c>
       <c r="I45">
-        <v>0.0122902419090271</v>
+        <v>0.007935063219070435</v>
       </c>
       <c r="J45">
-        <v>46.32</v>
+        <v>55.32</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -1711,13 +1711,13 @@
         <v>44</v>
       </c>
       <c r="C46">
-        <v>0.5223193073694685</v>
+        <v>0.9050476756771054</v>
       </c>
       <c r="D46">
-        <v>1.69804847240448</v>
+        <v>1.612860083580017</v>
       </c>
       <c r="E46">
-        <v>27.05</v>
+        <v>27.55</v>
       </c>
       <c r="G46">
         <v>2</v>
@@ -1726,7 +1726,7 @@
         <v>22</v>
       </c>
       <c r="I46">
-        <v>0.08686826133728028</v>
+        <v>0.07045899391174316</v>
       </c>
       <c r="J46">
         <v>0</v>
@@ -1740,13 +1740,13 @@
         <v>45</v>
       </c>
       <c r="C47">
-        <v>0.5109232482129493</v>
+        <v>0.9025198748681398</v>
       </c>
       <c r="D47">
-        <v>1.71369993686676</v>
+        <v>1.625388026237488</v>
       </c>
       <c r="E47">
-        <v>26.84</v>
+        <v>27.59</v>
       </c>
       <c r="G47">
         <v>1</v>
@@ -1755,10 +1755,10 @@
         <v>23</v>
       </c>
       <c r="I47">
-        <v>0.01362861747741699</v>
+        <v>0.00800155782699585</v>
       </c>
       <c r="J47">
-        <v>44.32</v>
+        <v>54.9</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -1769,13 +1769,13 @@
         <v>46</v>
       </c>
       <c r="C48">
-        <v>0.6262624717391698</v>
+        <v>0.8998890471669425</v>
       </c>
       <c r="D48">
-        <v>1.648797512054443</v>
+        <v>1.611149430274963</v>
       </c>
       <c r="E48">
-        <v>27.52</v>
+        <v>27.48</v>
       </c>
       <c r="G48">
         <v>2</v>
@@ -1784,7 +1784,7 @@
         <v>23</v>
       </c>
       <c r="I48">
-        <v>0.08913364028930663</v>
+        <v>0.07156747646331788</v>
       </c>
       <c r="J48">
         <v>0</v>
@@ -1798,13 +1798,13 @@
         <v>47</v>
       </c>
       <c r="C49">
-        <v>0.6169376808457669</v>
+        <v>0.8923424777731431</v>
       </c>
       <c r="D49">
-        <v>1.633519768714905</v>
+        <v>1.63576602935791</v>
       </c>
       <c r="E49">
-        <v>27.22</v>
+        <v>27.54</v>
       </c>
       <c r="G49">
         <v>1</v>
@@ -1813,10 +1813,10 @@
         <v>24</v>
       </c>
       <c r="I49">
-        <v>0.0121355553150177</v>
+        <v>0.008123533535003662</v>
       </c>
       <c r="J49">
-        <v>47.1</v>
+        <v>53.58</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -1827,13 +1827,13 @@
         <v>48</v>
       </c>
       <c r="C50">
-        <v>0.6103563823003685</v>
+        <v>0.8905784039370781</v>
       </c>
       <c r="D50">
-        <v>1.65729033946991</v>
+        <v>1.637405633926392</v>
       </c>
       <c r="E50">
-        <v>27.35</v>
+        <v>27.53</v>
       </c>
       <c r="G50">
         <v>2</v>
@@ -1842,7 +1842,7 @@
         <v>24</v>
       </c>
       <c r="I50">
-        <v>0.0865289234161377</v>
+        <v>0.0728040901184082</v>
       </c>
       <c r="J50">
         <v>0</v>
@@ -1856,13 +1856,13 @@
         <v>49</v>
       </c>
       <c r="C51">
-        <v>0.6069527592806689</v>
+        <v>0.889048983565474</v>
       </c>
       <c r="D51">
-        <v>1.677552103996277</v>
+        <v>1.632415533065796</v>
       </c>
       <c r="E51">
-        <v>27.38</v>
+        <v>27.55</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -1871,10 +1871,10 @@
         <v>25</v>
       </c>
       <c r="I51">
-        <v>0.008209934830665589</v>
+        <v>0.008099292087554931</v>
       </c>
       <c r="J51">
-        <v>54.06</v>
+        <v>53.8</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -1885,13 +1885,13 @@
         <v>50</v>
       </c>
       <c r="C52">
-        <v>0.6020191517551389</v>
+        <v>0.8859333005626645</v>
       </c>
       <c r="D52">
-        <v>1.633024454116821</v>
+        <v>1.626920461654663</v>
       </c>
       <c r="E52">
-        <v>27.3</v>
+        <v>27.49</v>
       </c>
       <c r="G52">
         <v>2</v>
@@ -1900,7 +1900,7 @@
         <v>25</v>
       </c>
       <c r="I52">
-        <v>0.07380678081512451</v>
+        <v>0.07308206424713135</v>
       </c>
       <c r="J52">
         <v>0</v>
@@ -1914,13 +1914,13 @@
         <v>51</v>
       </c>
       <c r="C53">
-        <v>0.5995474623895325</v>
+        <v>0.8859241203924196</v>
       </c>
       <c r="D53">
-        <v>1.627085208892822</v>
+        <v>1.64238965511322</v>
       </c>
       <c r="E53">
-        <v>27.36</v>
+        <v>27.62</v>
       </c>
       <c r="G53">
         <v>1</v>
@@ -1929,10 +1929,10 @@
         <v>26</v>
       </c>
       <c r="I53">
-        <v>0.008394418072700501</v>
+        <v>0.008220654106140137</v>
       </c>
       <c r="J53">
-        <v>53.92</v>
+        <v>53.86</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -1943,13 +1943,13 @@
         <v>52</v>
       </c>
       <c r="C54">
-        <v>0.594974585075294</v>
+        <v>0.8792525719752354</v>
       </c>
       <c r="D54">
-        <v>1.651591777801514</v>
+        <v>1.630452990531921</v>
       </c>
       <c r="E54">
-        <v>27.19</v>
+        <v>27.46</v>
       </c>
       <c r="G54">
         <v>2</v>
@@ -1958,7 +1958,7 @@
         <v>26</v>
       </c>
       <c r="I54">
-        <v>0.07532624912261963</v>
+        <v>0.07286972637176514</v>
       </c>
       <c r="J54">
         <v>0</v>
@@ -1972,13 +1972,13 @@
         <v>53</v>
       </c>
       <c r="C55">
-        <v>0.5923963315718996</v>
+        <v>0.8770228460826704</v>
       </c>
       <c r="D55">
-        <v>1.634067893028259</v>
+        <v>1.627946019172668</v>
       </c>
       <c r="E55">
-        <v>27.29</v>
+        <v>27.44</v>
       </c>
       <c r="G55">
         <v>1</v>
@@ -1987,10 +1987,10 @@
         <v>27</v>
       </c>
       <c r="I55">
-        <v>0.008471743130683898</v>
+        <v>0.008283590793609619</v>
       </c>
       <c r="J55">
-        <v>53.32</v>
+        <v>53.4</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -2001,13 +2001,13 @@
         <v>54</v>
       </c>
       <c r="C56">
-        <v>0.5898855473615426</v>
+        <v>0.9046018714398409</v>
       </c>
       <c r="D56">
-        <v>1.66307806968689</v>
+        <v>1.62943708896637</v>
       </c>
       <c r="E56">
-        <v>27.34</v>
+        <v>27.53</v>
       </c>
       <c r="G56">
         <v>2</v>
@@ -2016,7 +2016,7 @@
         <v>27</v>
       </c>
       <c r="I56">
-        <v>0.07425442886352539</v>
+        <v>0.07348143768310547</v>
       </c>
       <c r="J56">
         <v>0</v>
@@ -2030,13 +2030,13 @@
         <v>55</v>
       </c>
       <c r="C57">
-        <v>0.5851481261506545</v>
+        <v>0.9013681506688616</v>
       </c>
       <c r="D57">
-        <v>1.621738195419312</v>
+        <v>1.618278861045837</v>
       </c>
       <c r="E57">
-        <v>27.26</v>
+        <v>27.56</v>
       </c>
       <c r="G57">
         <v>1</v>
@@ -2045,10 +2045,10 @@
         <v>28</v>
       </c>
       <c r="I57">
-        <v>0.008603712153434754</v>
+        <v>0.008304288768768311</v>
       </c>
       <c r="J57">
-        <v>53.54</v>
+        <v>53.44</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -2059,13 +2059,13 @@
         <v>56</v>
       </c>
       <c r="C58">
-        <v>0.5828770507225948</v>
+        <v>0.9057464499389176</v>
       </c>
       <c r="D58">
-        <v>1.635994553565979</v>
+        <v>1.611679196357727</v>
       </c>
       <c r="E58">
-        <v>27.32</v>
+        <v>27.58</v>
       </c>
       <c r="G58">
         <v>2</v>
@@ -2074,7 +2074,7 @@
         <v>28</v>
       </c>
       <c r="I58">
-        <v>0.07524644165039063</v>
+        <v>0.07409799633026123</v>
       </c>
       <c r="J58">
         <v>0</v>
@@ -2088,13 +2088,13 @@
         <v>57</v>
       </c>
       <c r="C59">
-        <v>0.5785161101185115</v>
+        <v>0.9016252582052112</v>
       </c>
       <c r="D59">
-        <v>1.648818135261536</v>
+        <v>1.611908912658691</v>
       </c>
       <c r="E59">
-        <v>27.31</v>
+        <v>27.55</v>
       </c>
       <c r="G59">
         <v>1</v>
@@ -2103,10 +2103,10 @@
         <v>29</v>
       </c>
       <c r="I59">
-        <v>0.008800524830818177</v>
+        <v>0.008409759497642517</v>
       </c>
       <c r="J59">
-        <v>52.52</v>
+        <v>52.78</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -2117,13 +2117,13 @@
         <v>58</v>
       </c>
       <c r="C60">
-        <v>0.5739013188708145</v>
+        <v>0.9017312400108946</v>
       </c>
       <c r="D60">
-        <v>1.650252819061279</v>
+        <v>1.609692573547363</v>
       </c>
       <c r="E60">
-        <v>27.29</v>
+        <v>27.54</v>
       </c>
       <c r="G60">
         <v>2</v>
@@ -2132,7 +2132,7 @@
         <v>29</v>
       </c>
       <c r="I60">
-        <v>0.0751556884765625</v>
+        <v>0.07463430366516113</v>
       </c>
       <c r="J60">
         <v>0</v>
@@ -2146,13 +2146,13 @@
         <v>59</v>
       </c>
       <c r="C61">
-        <v>0.5742839978332013</v>
+        <v>0.9011029922856694</v>
       </c>
       <c r="D61">
-        <v>1.64051365852356</v>
+        <v>1.641710758209229</v>
       </c>
       <c r="E61">
-        <v>27.14</v>
+        <v>27.6</v>
       </c>
       <c r="G61">
         <v>1</v>
@@ -2161,10 +2161,10 @@
         <v>30</v>
       </c>
       <c r="I61">
-        <v>0.008906874585151672</v>
+        <v>0.008598275327682495</v>
       </c>
       <c r="J61">
-        <v>52.48</v>
+        <v>52.62</v>
       </c>
     </row>
     <row r="62" spans="1:10">
@@ -2175,13 +2175,13 @@
         <v>60</v>
       </c>
       <c r="C62">
-        <v>0.5689371808440284</v>
+        <v>0.900256992441363</v>
       </c>
       <c r="D62">
-        <v>1.656902194023132</v>
+        <v>1.616337299346924</v>
       </c>
       <c r="E62">
-        <v>27.2</v>
+        <v>27.54</v>
       </c>
       <c r="G62">
         <v>2</v>
@@ -2190,7 +2190,7 @@
         <v>30</v>
       </c>
       <c r="I62">
-        <v>0.07606561279296875</v>
+        <v>0.07435768451690673</v>
       </c>
       <c r="J62">
         <v>0</v>
@@ -2204,13 +2204,13 @@
         <v>61</v>
       </c>
       <c r="C63">
-        <v>0.5695986296750802</v>
+        <v>0.8999287670692512</v>
       </c>
       <c r="D63">
-        <v>1.659016251564026</v>
+        <v>1.629810810089111</v>
       </c>
       <c r="E63">
-        <v>27.17</v>
+        <v>27.56</v>
       </c>
       <c r="G63">
         <v>1</v>
@@ -2219,10 +2219,10 @@
         <v>31</v>
       </c>
       <c r="I63">
-        <v>0.009100548672676087</v>
+        <v>0.00860752444267273</v>
       </c>
       <c r="J63">
-        <v>52.12</v>
+        <v>52.78</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -2233,13 +2233,13 @@
         <v>62</v>
       </c>
       <c r="C64">
-        <v>0.5660559648433617</v>
+        <v>0.8960875673631651</v>
       </c>
       <c r="D64">
-        <v>1.658276081085205</v>
+        <v>1.605682849884033</v>
       </c>
       <c r="E64">
-        <v>27.26</v>
+        <v>27.51</v>
       </c>
       <c r="G64">
         <v>2</v>
@@ -2248,7 +2248,7 @@
         <v>31</v>
       </c>
       <c r="I64">
-        <v>0.07651470832824707</v>
+        <v>0.07533848991394043</v>
       </c>
       <c r="J64">
         <v>0</v>
@@ -2262,13 +2262,13 @@
         <v>63</v>
       </c>
       <c r="C65">
-        <v>0.56405475471927</v>
+        <v>0.8969306228435145</v>
       </c>
       <c r="D65">
-        <v>1.659635066986084</v>
+        <v>1.631949067115784</v>
       </c>
       <c r="E65">
-        <v>27.15</v>
+        <v>27.52</v>
       </c>
       <c r="G65">
         <v>1</v>
@@ -2277,10 +2277,10 @@
         <v>32</v>
       </c>
       <c r="I65">
-        <v>0.009218067145347595</v>
+        <v>0.008733461570739747</v>
       </c>
       <c r="J65">
-        <v>52.28</v>
+        <v>52.56</v>
       </c>
     </row>
     <row r="66" spans="1:10">
@@ -2291,13 +2291,13 @@
         <v>64</v>
       </c>
       <c r="C66">
-        <v>0.5594927067250277</v>
+        <v>0.896049483160002</v>
       </c>
       <c r="D66">
-        <v>1.64686119556427</v>
+        <v>1.631329655647278</v>
       </c>
       <c r="E66">
-        <v>27.16</v>
+        <v>27.54</v>
       </c>
       <c r="G66">
         <v>2</v>
@@ -2306,7 +2306,7 @@
         <v>32</v>
       </c>
       <c r="I66">
-        <v>0.07612639694213867</v>
+        <v>0.0759324857711792</v>
       </c>
       <c r="J66">
         <v>0</v>
@@ -2320,13 +2320,13 @@
         <v>65</v>
       </c>
       <c r="C67">
-        <v>0.5543379794179866</v>
+        <v>0.8949210849483457</v>
       </c>
       <c r="D67">
-        <v>1.643770456314087</v>
+        <v>1.628704190254211</v>
       </c>
       <c r="E67">
-        <v>27.07</v>
+        <v>27.6</v>
       </c>
       <c r="G67">
         <v>1</v>
@@ -2335,10 +2335,10 @@
         <v>33</v>
       </c>
       <c r="I67">
-        <v>0.009504750084877014</v>
+        <v>0.007844466209411621</v>
       </c>
       <c r="J67">
-        <v>51.52</v>
+        <v>55.22</v>
       </c>
     </row>
     <row r="68" spans="1:10">
@@ -2349,13 +2349,13 @@
         <v>66</v>
       </c>
       <c r="C68">
-        <v>0.582364834251657</v>
+        <v>0.8949420921570432</v>
       </c>
       <c r="D68">
-        <v>1.662348628044128</v>
+        <v>1.607338190078735</v>
       </c>
       <c r="E68">
-        <v>27.22</v>
+        <v>27.63</v>
       </c>
       <c r="G68">
         <v>2</v>
@@ -2364,7 +2364,7 @@
         <v>33</v>
       </c>
       <c r="I68">
-        <v>0.07714605522155761</v>
+        <v>0.07114094352722168</v>
       </c>
       <c r="J68">
         <v>0</v>
@@ -2378,13 +2378,13 @@
         <v>67</v>
       </c>
       <c r="C69">
-        <v>0.5822081265196336</v>
+        <v>0.8949106161573291</v>
       </c>
       <c r="D69">
-        <v>1.644945383071899</v>
+        <v>1.628588676452637</v>
       </c>
       <c r="E69">
-        <v>27.35</v>
+        <v>27.55</v>
       </c>
       <c r="G69">
         <v>1</v>
@@ -2393,10 +2393,10 @@
         <v>34</v>
       </c>
       <c r="I69">
-        <v>0.009549832606315613</v>
+        <v>0.007845311498641969</v>
       </c>
       <c r="J69">
-        <v>51.34</v>
+        <v>54.7</v>
       </c>
     </row>
     <row r="70" spans="1:10">
@@ -2407,13 +2407,13 @@
         <v>68</v>
       </c>
       <c r="C70">
-        <v>0.5798778143604245</v>
+        <v>0.8924493784398104</v>
       </c>
       <c r="D70">
-        <v>1.648467659950256</v>
+        <v>1.61405873298645</v>
       </c>
       <c r="E70">
-        <v>27.24</v>
+        <v>27.61</v>
       </c>
       <c r="G70">
         <v>2</v>
@@ -2422,7 +2422,7 @@
         <v>34</v>
       </c>
       <c r="I70">
-        <v>0.0780268892288208</v>
+        <v>0.07135226879119873</v>
       </c>
       <c r="J70">
         <v>0</v>
@@ -2436,13 +2436,13 @@
         <v>69</v>
       </c>
       <c r="C71">
-        <v>0.5806941727621365</v>
+        <v>0.8937351856611472</v>
       </c>
       <c r="D71">
-        <v>1.657102346420288</v>
+        <v>1.638053417205811</v>
       </c>
       <c r="E71">
-        <v>27.22</v>
+        <v>27.61</v>
       </c>
       <c r="G71">
         <v>1</v>
@@ -2451,10 +2451,10 @@
         <v>35</v>
       </c>
       <c r="I71">
-        <v>0.009845512104034424</v>
+        <v>0.007846818041801453</v>
       </c>
       <c r="J71">
-        <v>51.12</v>
+        <v>54.88</v>
       </c>
     </row>
     <row r="72" spans="1:10">
@@ -2465,13 +2465,13 @@
         <v>70</v>
       </c>
       <c r="C72">
-        <v>0.5788102387327009</v>
+        <v>0.8940823468486819</v>
       </c>
       <c r="D72">
-        <v>1.655526757240295</v>
+        <v>1.61585533618927</v>
       </c>
       <c r="E72">
-        <v>27.28</v>
+        <v>27.61</v>
       </c>
       <c r="G72">
         <v>2</v>
@@ -2480,7 +2480,7 @@
         <v>35</v>
       </c>
       <c r="I72">
-        <v>0.07818389835357666</v>
+        <v>0.07115158882141114</v>
       </c>
       <c r="J72">
         <v>0</v>
@@ -2494,13 +2494,13 @@
         <v>71</v>
       </c>
       <c r="C73">
-        <v>0.5776365992769731</v>
+        <v>0.8910688800094402</v>
       </c>
       <c r="D73">
-        <v>1.651551842689514</v>
+        <v>1.609817862510681</v>
       </c>
       <c r="E73">
-        <v>27.29</v>
+        <v>27.55</v>
       </c>
       <c r="G73">
         <v>1</v>
@@ -2509,10 +2509,10 @@
         <v>36</v>
       </c>
       <c r="I73">
-        <v>0.008118508172035218</v>
+        <v>0.007877777814865112</v>
       </c>
       <c r="J73">
-        <v>54.38</v>
+        <v>54.96</v>
       </c>
     </row>
     <row r="74" spans="1:10">
@@ -2523,13 +2523,13 @@
         <v>72</v>
       </c>
       <c r="C74">
-        <v>0.5784104268635268</v>
+        <v>0.8891506959906722</v>
       </c>
       <c r="D74">
-        <v>1.674662590026855</v>
+        <v>1.625990986824036</v>
       </c>
       <c r="E74">
-        <v>27.17</v>
+        <v>27.59</v>
       </c>
       <c r="G74">
         <v>2</v>
@@ -2538,7 +2538,7 @@
         <v>36</v>
       </c>
       <c r="I74">
-        <v>0.07360624732971191</v>
+        <v>0.07152360897064208</v>
       </c>
       <c r="J74">
         <v>0</v>
@@ -2552,13 +2552,13 @@
         <v>73</v>
       </c>
       <c r="C75">
-        <v>0.5771484744232313</v>
+        <v>0.8956045751023082</v>
       </c>
       <c r="D75">
-        <v>1.657497763633728</v>
+        <v>1.626558423042297</v>
       </c>
       <c r="E75">
-        <v>27.26</v>
+        <v>27.61</v>
       </c>
       <c r="G75">
         <v>1</v>
@@ -2567,10 +2567,10 @@
         <v>37</v>
       </c>
       <c r="I75">
-        <v>0.008161728978157043</v>
+        <v>0.007855617904663086</v>
       </c>
       <c r="J75">
-        <v>54.58</v>
+        <v>55.34</v>
       </c>
     </row>
     <row r="76" spans="1:10">
@@ -2581,13 +2581,13 @@
         <v>74</v>
       </c>
       <c r="C76">
-        <v>0.5757990294853143</v>
+        <v>0.8960552357994349</v>
       </c>
       <c r="D76">
-        <v>1.642207384109497</v>
+        <v>1.623268604278564</v>
       </c>
       <c r="E76">
-        <v>27.26</v>
+        <v>27.63</v>
       </c>
       <c r="G76">
         <v>2</v>
@@ -2596,7 +2596,7 @@
         <v>37</v>
       </c>
       <c r="I76">
-        <v>0.07397868556976318</v>
+        <v>0.07151697635650635</v>
       </c>
       <c r="J76">
         <v>0</v>
@@ -2610,13 +2610,13 @@
         <v>75</v>
       </c>
       <c r="C77">
-        <v>0.5775431608204293</v>
+        <v>0.8961231186326626</v>
       </c>
       <c r="D77">
-        <v>1.652419924736023</v>
+        <v>1.623701691627502</v>
       </c>
       <c r="E77">
-        <v>27.2</v>
+        <v>27.55</v>
       </c>
       <c r="G77">
         <v>1</v>
@@ -2625,10 +2625,10 @@
         <v>38</v>
       </c>
       <c r="I77">
-        <v>0.008192191743850708</v>
+        <v>0.007876300120353699</v>
       </c>
       <c r="J77">
-        <v>54.46</v>
+        <v>55.04</v>
       </c>
     </row>
     <row r="78" spans="1:10">
@@ -2639,13 +2639,13 @@
         <v>76</v>
       </c>
       <c r="C78">
-        <v>0.5830856192428454</v>
+        <v>0.8953619878903954</v>
       </c>
       <c r="D78">
-        <v>1.650384187698364</v>
+        <v>1.617063045501709</v>
       </c>
       <c r="E78">
-        <v>27.21</v>
+        <v>27.56</v>
       </c>
       <c r="G78">
         <v>2</v>
@@ -2654,7 +2654,7 @@
         <v>38</v>
       </c>
       <c r="I78">
-        <v>0.07384976444244384</v>
+        <v>0.07191074066162109</v>
       </c>
       <c r="J78">
         <v>0</v>
@@ -2668,13 +2668,13 @@
         <v>77</v>
       </c>
       <c r="C79">
-        <v>0.5828890497178103</v>
+        <v>0.8953216123369943</v>
       </c>
       <c r="D79">
-        <v>1.671165943145752</v>
+        <v>1.609092593193054</v>
       </c>
       <c r="E79">
-        <v>27.34</v>
+        <v>27.59</v>
       </c>
       <c r="G79">
         <v>1</v>
@@ -2683,10 +2683,10 @@
         <v>39</v>
       </c>
       <c r="I79">
-        <v>0.00821338872909546</v>
+        <v>0.007898691892623901</v>
       </c>
       <c r="J79">
-        <v>54.22</v>
+        <v>55.16</v>
       </c>
     </row>
     <row r="80" spans="1:10">
@@ -2697,13 +2697,13 @@
         <v>78</v>
       </c>
       <c r="C80">
-        <v>0.5810247947156957</v>
+        <v>0.8969603360226724</v>
       </c>
       <c r="D80">
-        <v>1.644838929176331</v>
+        <v>1.613306641578674</v>
       </c>
       <c r="E80">
-        <v>27.22</v>
+        <v>27.54</v>
       </c>
       <c r="G80">
         <v>2</v>
@@ -2712,7 +2712,7 @@
         <v>39</v>
       </c>
       <c r="I80">
-        <v>0.07396009998321533</v>
+        <v>0.07168737106323242</v>
       </c>
       <c r="J80">
         <v>0</v>
@@ -2726,13 +2726,13 @@
         <v>79</v>
       </c>
       <c r="C81">
-        <v>0.5814143915091996</v>
+        <v>0.8945578674299527</v>
       </c>
       <c r="D81">
-        <v>1.639337182044983</v>
+        <v>1.61748743057251</v>
       </c>
       <c r="E81">
-        <v>27.22</v>
+        <v>27.61</v>
       </c>
       <c r="G81">
         <v>1</v>
@@ -2741,10 +2741,10 @@
         <v>40</v>
       </c>
       <c r="I81">
-        <v>0.008270321249961852</v>
+        <v>0.007894428515434265</v>
       </c>
       <c r="J81">
-        <v>54.32</v>
+        <v>54.74</v>
       </c>
     </row>
     <row r="82" spans="1:10">
@@ -2755,13 +2755,13 @@
         <v>80</v>
       </c>
       <c r="C82">
-        <v>0.5803029872147383</v>
+        <v>0.8966949102097908</v>
       </c>
       <c r="D82">
-        <v>1.66618275642395</v>
+        <v>1.599840760231018</v>
       </c>
       <c r="E82">
-        <v>27.24</v>
+        <v>27.66</v>
       </c>
       <c r="G82">
         <v>2</v>
@@ -2770,7 +2770,7 @@
         <v>40</v>
       </c>
       <c r="I82">
-        <v>0.07401526527404785</v>
+        <v>0.07205735149383545</v>
       </c>
       <c r="J82">
         <v>0</v>
@@ -2784,13 +2784,13 @@
         <v>81</v>
       </c>
       <c r="C83">
-        <v>0.5821464209429985</v>
+        <v>0.8982089446709219</v>
       </c>
       <c r="D83">
-        <v>1.642875194549561</v>
+        <v>1.628471493721008</v>
       </c>
       <c r="E83">
-        <v>27.26</v>
+        <v>27.65</v>
       </c>
       <c r="G83">
         <v>1</v>
@@ -2799,10 +2799,10 @@
         <v>41</v>
       </c>
       <c r="I83">
-        <v>0.008292874622344971</v>
+        <v>0.007916358709335327</v>
       </c>
       <c r="J83">
-        <v>53.96</v>
+        <v>54.74</v>
       </c>
     </row>
     <row r="84" spans="1:10">
@@ -2813,13 +2813,13 @@
         <v>82</v>
       </c>
       <c r="C84">
-        <v>0.5793984780269387</v>
+        <v>0.8934261767210159</v>
       </c>
       <c r="D84">
-        <v>1.646440386772156</v>
+        <v>1.608364462852478</v>
       </c>
       <c r="E84">
-        <v>27.32</v>
+        <v>27.62</v>
       </c>
       <c r="G84">
         <v>2</v>
@@ -2828,7 +2828,7 @@
         <v>41</v>
       </c>
       <c r="I84">
-        <v>0.07436908206939698</v>
+        <v>0.07193821811676025</v>
       </c>
       <c r="J84">
         <v>0</v>
@@ -2842,13 +2842,13 @@
         <v>83</v>
       </c>
       <c r="C85">
-        <v>0.5800842255090191</v>
+        <v>0.8955856482539557</v>
       </c>
       <c r="D85">
-        <v>1.649249792098999</v>
+        <v>1.628312587738037</v>
       </c>
       <c r="E85">
-        <v>27.31</v>
+        <v>27.58</v>
       </c>
       <c r="G85">
         <v>1</v>
@@ -2857,10 +2857,10 @@
         <v>42</v>
       </c>
       <c r="I85">
-        <v>0.008326986217498779</v>
+        <v>0.00795133728981018</v>
       </c>
       <c r="J85">
-        <v>53.96</v>
+        <v>55</v>
       </c>
     </row>
     <row r="86" spans="1:10">
@@ -2871,13 +2871,13 @@
         <v>84</v>
       </c>
       <c r="C86">
-        <v>0.5795246687083118</v>
+        <v>0.8963578617678279</v>
       </c>
       <c r="D86">
-        <v>1.671625971794128</v>
+        <v>1.633875489234924</v>
       </c>
       <c r="E86">
-        <v>27.26</v>
+        <v>27.57</v>
       </c>
       <c r="G86">
         <v>2</v>
@@ -2886,7 +2886,7 @@
         <v>42</v>
       </c>
       <c r="I86">
-        <v>0.0745309232711792</v>
+        <v>0.07228776473999024</v>
       </c>
       <c r="J86">
         <v>0</v>
@@ -2900,13 +2900,13 @@
         <v>85</v>
       </c>
       <c r="C87">
-        <v>0.582322161809533</v>
+        <v>0.892895653712011</v>
       </c>
       <c r="D87">
-        <v>1.629197120666504</v>
+        <v>1.610869288444519</v>
       </c>
       <c r="E87">
-        <v>27.25</v>
+        <v>27.62</v>
       </c>
       <c r="G87">
         <v>1</v>
@@ -2915,10 +2915,10 @@
         <v>43</v>
       </c>
       <c r="I87">
-        <v>0.008383383035659791</v>
+        <v>0.007943210482597352</v>
       </c>
       <c r="J87">
-        <v>54.08</v>
+        <v>54.84</v>
       </c>
     </row>
     <row r="88" spans="1:10">
@@ -2929,13 +2929,13 @@
         <v>86</v>
       </c>
       <c r="C88">
-        <v>0.5819284857901852</v>
+        <v>0.8960219247151265</v>
       </c>
       <c r="D88">
-        <v>1.664900064468384</v>
+        <v>1.61098313331604</v>
       </c>
       <c r="E88">
-        <v>27.29</v>
+        <v>27.51</v>
       </c>
       <c r="G88">
         <v>2</v>
@@ -2944,7 +2944,7 @@
         <v>43</v>
       </c>
       <c r="I88">
-        <v>0.07473048267364502</v>
+        <v>0.07237014122009278</v>
       </c>
       <c r="J88">
         <v>0</v>
@@ -2958,13 +2958,13 @@
         <v>87</v>
       </c>
       <c r="C89">
-        <v>0.5818525850772858</v>
+        <v>0.8943434584457263</v>
       </c>
       <c r="D89">
-        <v>1.635080099105835</v>
+        <v>1.612922787666321</v>
       </c>
       <c r="E89">
-        <v>27.32</v>
+        <v>27.49</v>
       </c>
       <c r="G89">
         <v>1</v>
@@ -2973,10 +2973,10 @@
         <v>44</v>
       </c>
       <c r="I89">
-        <v>0.008416657423973083</v>
+        <v>0.007824596261978149</v>
       </c>
       <c r="J89">
-        <v>54.1</v>
+        <v>55.1</v>
       </c>
     </row>
     <row r="90" spans="1:10">
@@ -2987,13 +2987,13 @@
         <v>88</v>
       </c>
       <c r="C90">
-        <v>0.5825159375646473</v>
+        <v>0.8930793525898351</v>
       </c>
       <c r="D90">
-        <v>1.64195728302002</v>
+        <v>1.613432765007019</v>
       </c>
       <c r="E90">
-        <v>27.27</v>
+        <v>27.62</v>
       </c>
       <c r="G90">
         <v>2</v>
@@ -3002,7 +3002,7 @@
         <v>44</v>
       </c>
       <c r="I90">
-        <v>0.07459235725402832</v>
+        <v>0.07117905158996582</v>
       </c>
       <c r="J90">
         <v>0</v>
@@ -3016,13 +3016,13 @@
         <v>89</v>
       </c>
       <c r="C91">
-        <v>0.5818453053985022</v>
+        <v>0.8945000256057334</v>
       </c>
       <c r="D91">
-        <v>1.648840188980103</v>
+        <v>1.633129954338074</v>
       </c>
       <c r="E91">
-        <v>27.33</v>
+        <v>27.61</v>
       </c>
       <c r="G91">
         <v>1</v>
@@ -3031,10 +3031,10 @@
         <v>45</v>
       </c>
       <c r="I91">
-        <v>0.008439264702796935</v>
+        <v>0.007824244904518128</v>
       </c>
       <c r="J91">
-        <v>53.68</v>
+        <v>55.18</v>
       </c>
     </row>
     <row r="92" spans="1:10">
@@ -3045,13 +3045,13 @@
         <v>90</v>
       </c>
       <c r="C92">
-        <v>0.5819058378713321</v>
+        <v>0.8938699238068235</v>
       </c>
       <c r="D92">
-        <v>1.655909419059753</v>
+        <v>1.623096227645874</v>
       </c>
       <c r="E92">
-        <v>27.26</v>
+        <v>27.59</v>
       </c>
       <c r="G92">
         <v>2</v>
@@ -3060,7 +3060,7 @@
         <v>45</v>
       </c>
       <c r="I92">
-        <v>0.07491401538848877</v>
+        <v>0.07129085655212403</v>
       </c>
       <c r="J92">
         <v>0</v>
@@ -3074,13 +3074,13 @@
         <v>91</v>
       </c>
       <c r="C93">
-        <v>0.5824037521286348</v>
+        <v>0.8951014222296994</v>
       </c>
       <c r="D93">
-        <v>1.65910267829895</v>
+        <v>1.6212477684021</v>
       </c>
       <c r="E93">
-        <v>27.25</v>
+        <v>27.53</v>
       </c>
       <c r="G93">
         <v>1</v>
@@ -3089,10 +3089,10 @@
         <v>46</v>
       </c>
       <c r="I93">
-        <v>0.008104342341423034</v>
+        <v>0.007830148792266846</v>
       </c>
       <c r="J93">
-        <v>55.04</v>
+        <v>54.96</v>
       </c>
     </row>
     <row r="94" spans="1:10">
@@ -3103,13 +3103,13 @@
         <v>92</v>
       </c>
       <c r="C94">
-        <v>0.5815926194190979</v>
+        <v>0.8962554778672952</v>
       </c>
       <c r="D94">
-        <v>1.654660224914551</v>
+        <v>1.622889041900635</v>
       </c>
       <c r="E94">
-        <v>27.35</v>
+        <v>27.65</v>
       </c>
       <c r="G94">
         <v>2</v>
@@ -3118,7 +3118,7 @@
         <v>46</v>
       </c>
       <c r="I94">
-        <v>0.07373618202209473</v>
+        <v>0.07132952327728272</v>
       </c>
       <c r="J94">
         <v>0</v>
@@ -3132,13 +3132,13 @@
         <v>93</v>
       </c>
       <c r="C95">
-        <v>0.5823034396213768</v>
+        <v>0.8951594660767411</v>
       </c>
       <c r="D95">
-        <v>1.640993237495422</v>
+        <v>1.624858736991882</v>
       </c>
       <c r="E95">
-        <v>27.19</v>
+        <v>27.59</v>
       </c>
       <c r="G95">
         <v>1</v>
@@ -3147,10 +3147,10 @@
         <v>47</v>
       </c>
       <c r="I95">
-        <v>0.008098738169670106</v>
+        <v>0.007834119057655334</v>
       </c>
       <c r="J95">
-        <v>54.44</v>
+        <v>55.08</v>
       </c>
     </row>
     <row r="96" spans="1:10">
@@ -3161,13 +3161,13 @@
         <v>94</v>
       </c>
       <c r="C96">
-        <v>0.5817058257824552</v>
+        <v>0.893880684291367</v>
       </c>
       <c r="D96">
-        <v>1.664497971534729</v>
+        <v>1.626314997673035</v>
       </c>
       <c r="E96">
-        <v>27.28</v>
+        <v>27.49</v>
       </c>
       <c r="G96">
         <v>2</v>
@@ -3176,7 +3176,7 @@
         <v>47</v>
       </c>
       <c r="I96">
-        <v>0.07359136867523193</v>
+        <v>0.07143945713043214</v>
       </c>
       <c r="J96">
         <v>0</v>
@@ -3190,13 +3190,13 @@
         <v>95</v>
       </c>
       <c r="C97">
-        <v>0.5812398480103079</v>
+        <v>0.8937510710901919</v>
       </c>
       <c r="D97">
-        <v>1.646802663803101</v>
+        <v>1.624696850776672</v>
       </c>
       <c r="E97">
-        <v>27.29</v>
+        <v>27.48</v>
       </c>
       <c r="G97">
         <v>1</v>
@@ -3205,10 +3205,10 @@
         <v>48</v>
       </c>
       <c r="I97">
-        <v>0.008109163045883178</v>
+        <v>0.007834548354148865</v>
       </c>
       <c r="J97">
-        <v>54.7</v>
+        <v>55.06</v>
       </c>
     </row>
     <row r="98" spans="1:10">
@@ -3219,13 +3219,13 @@
         <v>96</v>
       </c>
       <c r="C98">
-        <v>0.5790573039413554</v>
+        <v>0.893947114986656</v>
       </c>
       <c r="D98">
-        <v>1.634180307388306</v>
+        <v>1.643265962600708</v>
       </c>
       <c r="E98">
-        <v>27.38</v>
+        <v>27.52</v>
       </c>
       <c r="G98">
         <v>2</v>
@@ -3234,7 +3234,7 @@
         <v>48</v>
       </c>
       <c r="I98">
-        <v>0.07367113418579102</v>
+        <v>0.07143351402282715</v>
       </c>
       <c r="J98">
         <v>0</v>
@@ -3248,13 +3248,13 @@
         <v>97</v>
       </c>
       <c r="C99">
-        <v>0.5798313741662861</v>
+        <v>0.8955231963005741</v>
       </c>
       <c r="D99">
-        <v>1.6379714012146</v>
+        <v>1.616920113563538</v>
       </c>
       <c r="E99">
-        <v>27.16</v>
+        <v>27.47</v>
       </c>
       <c r="G99">
         <v>1</v>
@@ -3263,10 +3263,10 @@
         <v>49</v>
       </c>
       <c r="I99">
-        <v>0.008114616751670838</v>
+        <v>0.007837020087242127</v>
       </c>
       <c r="J99">
-        <v>54.76</v>
+        <v>55.1</v>
       </c>
     </row>
     <row r="100" spans="1:10">
@@ -3277,13 +3277,13 @@
         <v>98</v>
       </c>
       <c r="C100">
-        <v>0.5815456375084093</v>
+        <v>0.8946174346240221</v>
       </c>
       <c r="D100">
-        <v>1.648853540420532</v>
+        <v>1.618078589439392</v>
       </c>
       <c r="E100">
-        <v>27.21</v>
+        <v>27.54</v>
       </c>
       <c r="G100">
         <v>2</v>
@@ -3292,7 +3292,7 @@
         <v>49</v>
       </c>
       <c r="I100">
-        <v>0.07378377532958984</v>
+        <v>0.07136621894836426</v>
       </c>
       <c r="J100">
         <v>0</v>
@@ -3306,13 +3306,13 @@
         <v>99</v>
       </c>
       <c r="C101">
-        <v>0.5818503037490675</v>
+        <v>0.8950626612764544</v>
       </c>
       <c r="D101">
-        <v>1.642537713050842</v>
+        <v>1.620321393013</v>
       </c>
       <c r="E101">
-        <v>27.15</v>
+        <v>27.59</v>
       </c>
       <c r="G101">
         <v>1</v>
@@ -3321,10 +3321,10 @@
         <v>50</v>
       </c>
       <c r="I101">
-        <v>0.008112346744537353</v>
+        <v>0.007838463735580444</v>
       </c>
       <c r="J101">
-        <v>54.6</v>
+        <v>54.98</v>
       </c>
     </row>
     <row r="102" spans="1:10">
@@ -3335,13 +3335,13 @@
         <v>100</v>
       </c>
       <c r="C102">
-        <v>0.5814958328166894</v>
+        <v>0.8959109878118059</v>
       </c>
       <c r="D102">
-        <v>1.647322297096252</v>
+        <v>1.605781197547913</v>
       </c>
       <c r="E102">
-        <v>27.29</v>
+        <v>27.51</v>
       </c>
       <c r="G102">
         <v>2</v>
@@ -3350,7 +3350,7 @@
         <v>50</v>
       </c>
       <c r="I102">
-        <v>0.07379089088439941</v>
+        <v>0.07137966747283936</v>
       </c>
       <c r="J102">
         <v>0</v>
@@ -3364,13 +3364,13 @@
         <v>101</v>
       </c>
       <c r="C103">
-        <v>0.5804088458550715</v>
+        <v>0.8946432107317764</v>
       </c>
       <c r="D103">
-        <v>1.640053868293762</v>
+        <v>1.615301251411438</v>
       </c>
       <c r="E103">
-        <v>27.27</v>
+        <v>27.62</v>
       </c>
       <c r="G103">
         <v>1</v>
@@ -3379,10 +3379,10 @@
         <v>51</v>
       </c>
       <c r="I103">
-        <v>0.00813432755470276</v>
+        <v>0.007843239951133727</v>
       </c>
       <c r="J103">
-        <v>54.72</v>
+        <v>55.24</v>
       </c>
     </row>
     <row r="104" spans="1:10">
@@ -3393,13 +3393,13 @@
         <v>102</v>
       </c>
       <c r="C104">
-        <v>0.5820230823175042</v>
+        <v>0.895883268487137</v>
       </c>
       <c r="D104">
-        <v>1.656730532646179</v>
+        <v>1.625513195991516</v>
       </c>
       <c r="E104">
-        <v>27.23</v>
+        <v>27.59</v>
       </c>
       <c r="G104">
         <v>2</v>
@@ -3408,7 +3408,7 @@
         <v>51</v>
       </c>
       <c r="I104">
-        <v>0.0738328031539917</v>
+        <v>0.07150642757415772</v>
       </c>
       <c r="J104">
         <v>0</v>
@@ -3422,13 +3422,13 @@
         <v>103</v>
       </c>
       <c r="C105">
-        <v>0.5821437925364064</v>
+        <v>0.8963983950361741</v>
       </c>
       <c r="D105">
-        <v>1.646835088729858</v>
+        <v>1.61432945728302</v>
       </c>
       <c r="E105">
-        <v>27.31</v>
+        <v>27.65</v>
       </c>
       <c r="G105">
         <v>1</v>
@@ -3437,10 +3437,10 @@
         <v>52</v>
       </c>
       <c r="I105">
-        <v>0.008133869814872742</v>
+        <v>0.00784708480834961</v>
       </c>
       <c r="J105">
-        <v>54.38</v>
+        <v>54.92</v>
       </c>
     </row>
     <row r="106" spans="1:10">
@@ -3451,13 +3451,13 @@
         <v>104</v>
       </c>
       <c r="C106">
-        <v>0.5842940836353639</v>
+        <v>0.8974716710833321</v>
       </c>
       <c r="D106">
-        <v>1.642636179924011</v>
+        <v>1.601679921150208</v>
       </c>
       <c r="E106">
-        <v>27.28</v>
+        <v>27.57</v>
       </c>
       <c r="G106">
         <v>2</v>
@@ -3466,7 +3466,7 @@
         <v>52</v>
       </c>
       <c r="I106">
-        <v>0.07366456050872802</v>
+        <v>0.07159571990966797</v>
       </c>
       <c r="J106">
         <v>0</v>
@@ -3480,13 +3480,13 @@
         <v>105</v>
       </c>
       <c r="C107">
-        <v>0.581854461041172</v>
+        <v>0.8946069378768449</v>
       </c>
       <c r="D107">
-        <v>1.614806652069092</v>
+        <v>1.637309789657593</v>
       </c>
       <c r="E107">
-        <v>27.19</v>
+        <v>27.54</v>
       </c>
       <c r="G107">
         <v>1</v>
@@ -3495,10 +3495,10 @@
         <v>53</v>
       </c>
       <c r="I107">
-        <v>0.008135993719100952</v>
+        <v>0.007853338122367859</v>
       </c>
       <c r="J107">
-        <v>54.58</v>
+        <v>54.88</v>
       </c>
     </row>
     <row r="108" spans="1:10">
@@ -3509,13 +3509,13 @@
         <v>106</v>
       </c>
       <c r="C108">
-        <v>0.5810420979968215</v>
+        <v>0.8927468103645122</v>
       </c>
       <c r="D108">
-        <v>1.661606073379517</v>
+        <v>1.619009494781494</v>
       </c>
       <c r="E108">
-        <v>27.24</v>
+        <v>27.68</v>
       </c>
       <c r="G108">
         <v>2</v>
@@ -3524,7 +3524,7 @@
         <v>53</v>
       </c>
       <c r="I108">
-        <v>0.07384903354644776</v>
+        <v>0.07146783065795899</v>
       </c>
       <c r="J108">
         <v>0</v>
@@ -3538,13 +3538,13 @@
         <v>107</v>
       </c>
       <c r="C109">
-        <v>0.5823411949440441</v>
+        <v>0.8936437832570709</v>
       </c>
       <c r="D109">
-        <v>1.632880210876465</v>
+        <v>1.630551218986511</v>
       </c>
       <c r="E109">
-        <v>27.21</v>
+        <v>27.61</v>
       </c>
       <c r="G109">
         <v>1</v>
@@ -3553,10 +3553,10 @@
         <v>54</v>
       </c>
       <c r="I109">
-        <v>0.008143614792823791</v>
+        <v>0.007835799431800843</v>
       </c>
       <c r="J109">
-        <v>54.68</v>
+        <v>55.06</v>
       </c>
     </row>
     <row r="110" spans="1:10">
@@ -3567,13 +3567,13 @@
         <v>108</v>
       </c>
       <c r="C110">
-        <v>0.5798699367890315</v>
+        <v>0.8956558583057033</v>
       </c>
       <c r="D110">
-        <v>1.632774472236633</v>
+        <v>1.623914003372192</v>
       </c>
       <c r="E110">
-        <v>27.3</v>
+        <v>27.53</v>
       </c>
       <c r="G110">
         <v>2</v>
@@ -3582,7 +3582,7 @@
         <v>54</v>
       </c>
       <c r="I110">
-        <v>0.07386328048706055</v>
+        <v>0.07114137592315674</v>
       </c>
       <c r="J110">
         <v>0</v>
@@ -3596,13 +3596,13 @@
         <v>109</v>
       </c>
       <c r="C111">
-        <v>0.581453471848395</v>
+        <v>0.8954849021624675</v>
       </c>
       <c r="D111">
-        <v>1.659891605377197</v>
+        <v>1.61401104927063</v>
       </c>
       <c r="E111">
-        <v>27.26</v>
+        <v>27.6</v>
       </c>
       <c r="G111">
         <v>1</v>
@@ -3611,10 +3611,10 @@
         <v>55</v>
       </c>
       <c r="I111">
-        <v>0.00815055844783783</v>
+        <v>0.00783003442287445</v>
       </c>
       <c r="J111">
-        <v>54.52</v>
+        <v>55.12</v>
       </c>
     </row>
     <row r="112" spans="1:10">
@@ -3625,13 +3625,13 @@
         <v>110</v>
       </c>
       <c r="C112">
-        <v>0.5823149886806455</v>
+        <v>0.8964300129265912</v>
       </c>
       <c r="D112">
-        <v>1.632006645202637</v>
+        <v>1.623640179634094</v>
       </c>
       <c r="E112">
-        <v>27.31</v>
+        <v>27.58</v>
       </c>
       <c r="G112">
         <v>2</v>
@@ -3640,28 +3640,13 @@
         <v>55</v>
       </c>
       <c r="I112">
-        <v>0.07385327434539794</v>
+        <v>0.07116430644989014</v>
       </c>
       <c r="J112">
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:10">
-      <c r="A113">
-        <v>1</v>
-      </c>
-      <c r="B113">
-        <v>111</v>
-      </c>
-      <c r="C113">
-        <v>0.5808678359056996</v>
-      </c>
-      <c r="D113">
-        <v>1.64310610294342</v>
-      </c>
-      <c r="E113">
-        <v>27.23</v>
-      </c>
+    <row r="113" spans="7:10">
       <c r="G113">
         <v>1</v>
       </c>
@@ -3669,28 +3654,13 @@
         <v>56</v>
       </c>
       <c r="I113">
-        <v>0.008155843639373779</v>
+        <v>0.007834261274337768</v>
       </c>
       <c r="J113">
-        <v>54.64</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10">
-      <c r="A114">
-        <v>1</v>
-      </c>
-      <c r="B114">
-        <v>112</v>
-      </c>
-      <c r="C114">
-        <v>0.5803658804007336</v>
-      </c>
-      <c r="D114">
-        <v>1.63113796710968</v>
-      </c>
-      <c r="E114">
-        <v>27.3</v>
-      </c>
+        <v>55.16</v>
+      </c>
+    </row>
+    <row r="114" spans="7:10">
       <c r="G114">
         <v>2</v>
       </c>
@@ -3698,28 +3668,13 @@
         <v>56</v>
       </c>
       <c r="I114">
-        <v>0.07403243732452393</v>
+        <v>0.07136000652313232</v>
       </c>
       <c r="J114">
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:10">
-      <c r="A115">
-        <v>1</v>
-      </c>
-      <c r="B115">
-        <v>113</v>
-      </c>
-      <c r="C115">
-        <v>0.5817539989948273</v>
-      </c>
-      <c r="D115">
-        <v>1.64082932472229</v>
-      </c>
-      <c r="E115">
-        <v>27.27</v>
-      </c>
+    <row r="115" spans="7:10">
       <c r="G115">
         <v>1</v>
       </c>
@@ -3727,28 +3682,13 @@
         <v>57</v>
       </c>
       <c r="I115">
-        <v>0.008171759390830993</v>
+        <v>0.007829916644096374</v>
       </c>
       <c r="J115">
-        <v>54.62</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10">
-      <c r="A116">
-        <v>1</v>
-      </c>
-      <c r="B116">
-        <v>114</v>
-      </c>
-      <c r="C116">
-        <v>0.5809110809216457</v>
-      </c>
-      <c r="D116">
-        <v>1.661254167556763</v>
-      </c>
-      <c r="E116">
-        <v>27.28</v>
-      </c>
+        <v>55.1</v>
+      </c>
+    </row>
+    <row r="116" spans="7:10">
       <c r="G116">
         <v>2</v>
       </c>
@@ -3756,28 +3696,13 @@
         <v>57</v>
       </c>
       <c r="I116">
-        <v>0.07393849964141845</v>
+        <v>0.07117362422943115</v>
       </c>
       <c r="J116">
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:10">
-      <c r="A117">
-        <v>1</v>
-      </c>
-      <c r="B117">
-        <v>115</v>
-      </c>
-      <c r="C117">
-        <v>0.5813965051047569</v>
-      </c>
-      <c r="D117">
-        <v>1.648042917251587</v>
-      </c>
-      <c r="E117">
-        <v>27.19</v>
-      </c>
+    <row r="117" spans="7:10">
       <c r="G117">
         <v>1</v>
       </c>
@@ -3785,13 +3710,13 @@
         <v>58</v>
       </c>
       <c r="I117">
-        <v>0.008170967793464661</v>
+        <v>0.007826860833168029</v>
       </c>
       <c r="J117">
-        <v>54.58</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10">
+        <v>55.08</v>
+      </c>
+    </row>
+    <row r="118" spans="7:10">
       <c r="G118">
         <v>2</v>
       </c>
@@ -3799,13 +3724,13 @@
         <v>58</v>
       </c>
       <c r="I118">
-        <v>0.07388786182403564</v>
+        <v>0.07128607330322266</v>
       </c>
       <c r="J118">
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:10">
+    <row r="119" spans="7:10">
       <c r="G119">
         <v>1</v>
       </c>
@@ -3813,13 +3738,13 @@
         <v>59</v>
       </c>
       <c r="I119">
-        <v>0.008179140448570252</v>
+        <v>0.007825535917282104</v>
       </c>
       <c r="J119">
-        <v>54.28</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10">
+        <v>55.2</v>
+      </c>
+    </row>
+    <row r="120" spans="7:10">
       <c r="G120">
         <v>2</v>
       </c>
@@ -3827,13 +3752,13 @@
         <v>59</v>
       </c>
       <c r="I120">
-        <v>0.07397429389953614</v>
+        <v>0.07121390647888183</v>
       </c>
       <c r="J120">
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:10">
+    <row r="121" spans="7:10">
       <c r="G121">
         <v>1</v>
       </c>
@@ -3841,13 +3766,13 @@
         <v>60</v>
       </c>
       <c r="I121">
-        <v>0.008195806694030762</v>
+        <v>0.007823431086540222</v>
       </c>
       <c r="J121">
-        <v>54.4</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10">
+        <v>55.08</v>
+      </c>
+    </row>
+    <row r="122" spans="7:10">
       <c r="G122">
         <v>2</v>
       </c>
@@ -3855,13 +3780,13 @@
         <v>60</v>
       </c>
       <c r="I122">
-        <v>0.07413206405639648</v>
+        <v>0.07134256057739258</v>
       </c>
       <c r="J122">
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:10">
+    <row r="123" spans="7:10">
       <c r="G123">
         <v>1</v>
       </c>
@@ -3869,13 +3794,13 @@
         <v>61</v>
       </c>
       <c r="I123">
-        <v>0.008205139708518982</v>
+        <v>0.007827130436897279</v>
       </c>
       <c r="J123">
-        <v>54.34</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10">
+        <v>55.12</v>
+      </c>
+    </row>
+    <row r="124" spans="7:10">
       <c r="G124">
         <v>2</v>
       </c>
@@ -3883,13 +3808,13 @@
         <v>61</v>
       </c>
       <c r="I124">
-        <v>0.07399125442504882</v>
+        <v>0.07118665065765381</v>
       </c>
       <c r="J124">
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:10">
+    <row r="125" spans="7:10">
       <c r="G125">
         <v>1</v>
       </c>
@@ -3897,13 +3822,13 @@
         <v>62</v>
       </c>
       <c r="I125">
-        <v>0.00821449089050293</v>
+        <v>0.007829438781738281</v>
       </c>
       <c r="J125">
-        <v>54.52</v>
-      </c>
-    </row>
-    <row r="126" spans="1:10">
+        <v>55.02</v>
+      </c>
+    </row>
+    <row r="126" spans="7:10">
       <c r="G126">
         <v>2</v>
       </c>
@@ -3911,13 +3836,13 @@
         <v>62</v>
       </c>
       <c r="I126">
-        <v>0.0741490550994873</v>
+        <v>0.07138735122680664</v>
       </c>
       <c r="J126">
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:10">
+    <row r="127" spans="7:10">
       <c r="G127">
         <v>1</v>
       </c>
@@ -3925,13 +3850,13 @@
         <v>63</v>
       </c>
       <c r="I127">
-        <v>0.008216756057739258</v>
+        <v>0.007830079317092896</v>
       </c>
       <c r="J127">
-        <v>54.3</v>
-      </c>
-    </row>
-    <row r="128" spans="1:10">
+        <v>55.04</v>
+      </c>
+    </row>
+    <row r="128" spans="7:10">
       <c r="G128">
         <v>2</v>
       </c>
@@ -3939,7 +3864,7 @@
         <v>63</v>
       </c>
       <c r="I128">
-        <v>0.07412924957275391</v>
+        <v>0.0713698076248169</v>
       </c>
       <c r="J128">
         <v>0</v>
@@ -3953,10 +3878,10 @@
         <v>64</v>
       </c>
       <c r="I129">
-        <v>0.008236232686042786</v>
+        <v>0.007832339191436768</v>
       </c>
       <c r="J129">
-        <v>54.32</v>
+        <v>55.08</v>
       </c>
     </row>
     <row r="130" spans="7:10">
@@ -3967,7 +3892,7 @@
         <v>64</v>
       </c>
       <c r="I130">
-        <v>0.0744154052734375</v>
+        <v>0.07138150253295898</v>
       </c>
       <c r="J130">
         <v>0</v>
@@ -3981,10 +3906,10 @@
         <v>65</v>
       </c>
       <c r="I131">
-        <v>0.008236550641059876</v>
+        <v>0.007826758313179015</v>
       </c>
       <c r="J131">
-        <v>54.14</v>
+        <v>55.2</v>
       </c>
     </row>
     <row r="132" spans="7:10">
@@ -3995,7 +3920,7 @@
         <v>65</v>
       </c>
       <c r="I132">
-        <v>0.0743830400466919</v>
+        <v>0.07111378402709961</v>
       </c>
       <c r="J132">
         <v>0</v>
@@ -4009,10 +3934,10 @@
         <v>66</v>
       </c>
       <c r="I133">
-        <v>0.008154836463928223</v>
+        <v>0.007836040949821472</v>
       </c>
       <c r="J133">
-        <v>54.44</v>
+        <v>55.26</v>
       </c>
     </row>
     <row r="134" spans="7:10">
@@ -4023,7 +3948,7 @@
         <v>66</v>
       </c>
       <c r="I134">
-        <v>0.07394195022583008</v>
+        <v>0.07140512351989746</v>
       </c>
       <c r="J134">
         <v>0</v>
@@ -4037,10 +3962,10 @@
         <v>67</v>
       </c>
       <c r="I135">
-        <v>0.008160038471221924</v>
+        <v>0.00783420729637146</v>
       </c>
       <c r="J135">
-        <v>54.7</v>
+        <v>55.1</v>
       </c>
     </row>
     <row r="136" spans="7:10">
@@ -4051,7 +3976,7 @@
         <v>67</v>
       </c>
       <c r="I136">
-        <v>0.07393297138214111</v>
+        <v>0.071488698387146</v>
       </c>
       <c r="J136">
         <v>0</v>
@@ -4065,10 +3990,10 @@
         <v>68</v>
       </c>
       <c r="I137">
-        <v>0.008155378818511963</v>
+        <v>0.007829052948951721</v>
       </c>
       <c r="J137">
-        <v>54.48</v>
+        <v>55.22</v>
       </c>
     </row>
     <row r="138" spans="7:10">
@@ -4079,7 +4004,7 @@
         <v>68</v>
       </c>
       <c r="I138">
-        <v>0.0738279432296753</v>
+        <v>0.07140300788879395</v>
       </c>
       <c r="J138">
         <v>0</v>
@@ -4093,10 +4018,10 @@
         <v>69</v>
       </c>
       <c r="I139">
-        <v>0.008161462378501893</v>
+        <v>0.007838412189483642</v>
       </c>
       <c r="J139">
-        <v>54.44</v>
+        <v>55.22</v>
       </c>
     </row>
     <row r="140" spans="7:10">
@@ -4107,7 +4032,7 @@
         <v>69</v>
       </c>
       <c r="I140">
-        <v>0.0740246862411499</v>
+        <v>0.07144581146240235</v>
       </c>
       <c r="J140">
         <v>0</v>
@@ -4121,10 +4046,10 @@
         <v>70</v>
       </c>
       <c r="I141">
-        <v>0.008159211373329162</v>
+        <v>0.007836074948310852</v>
       </c>
       <c r="J141">
-        <v>54.56</v>
+        <v>55.22</v>
       </c>
     </row>
     <row r="142" spans="7:10">
@@ -4135,7 +4060,7 @@
         <v>70</v>
       </c>
       <c r="I142">
-        <v>0.07386829700469971</v>
+        <v>0.07133607673645019</v>
       </c>
       <c r="J142">
         <v>0</v>
@@ -4149,10 +4074,10 @@
         <v>71</v>
       </c>
       <c r="I143">
-        <v>0.008157458639144898</v>
+        <v>0.007831809902191162</v>
       </c>
       <c r="J143">
-        <v>54.58</v>
+        <v>55.1</v>
       </c>
     </row>
     <row r="144" spans="7:10">
@@ -4163,7 +4088,7 @@
         <v>71</v>
       </c>
       <c r="I144">
-        <v>0.07383505592346191</v>
+        <v>0.07156577510833741</v>
       </c>
       <c r="J144">
         <v>0</v>
@@ -4177,10 +4102,10 @@
         <v>72</v>
       </c>
       <c r="I145">
-        <v>0.008156243085861206</v>
+        <v>0.007839907288551331</v>
       </c>
       <c r="J145">
-        <v>54.34</v>
+        <v>55.18</v>
       </c>
     </row>
     <row r="146" spans="7:10">
@@ -4191,7 +4116,7 @@
         <v>72</v>
       </c>
       <c r="I146">
-        <v>0.07390277271270752</v>
+        <v>0.07157773933410645</v>
       </c>
       <c r="J146">
         <v>0</v>
@@ -4205,10 +4130,10 @@
         <v>73</v>
       </c>
       <c r="I147">
-        <v>0.008168978428840637</v>
+        <v>0.007827974152565002</v>
       </c>
       <c r="J147">
-        <v>54.52</v>
+        <v>55.22</v>
       </c>
     </row>
     <row r="148" spans="7:10">
@@ -4219,7 +4144,7 @@
         <v>73</v>
       </c>
       <c r="I148">
-        <v>0.07405728187561035</v>
+        <v>0.07121450519561767</v>
       </c>
       <c r="J148">
         <v>0</v>
@@ -4233,10 +4158,10 @@
         <v>74</v>
       </c>
       <c r="I149">
-        <v>0.008174927997589111</v>
+        <v>0.007826808214187622</v>
       </c>
       <c r="J149">
-        <v>54.52</v>
+        <v>55.26</v>
       </c>
     </row>
     <row r="150" spans="7:10">
@@ -4247,7 +4172,7 @@
         <v>74</v>
       </c>
       <c r="I150">
-        <v>0.07406007938385009</v>
+        <v>0.07126679763793946</v>
       </c>
       <c r="J150">
         <v>0</v>
@@ -4261,10 +4186,10 @@
         <v>75</v>
       </c>
       <c r="I151">
-        <v>0.008165934681892395</v>
+        <v>0.007830400371551513</v>
       </c>
       <c r="J151">
-        <v>54.4</v>
+        <v>55.1</v>
       </c>
     </row>
     <row r="152" spans="7:10">
@@ -4275,7 +4200,7 @@
         <v>75</v>
       </c>
       <c r="I152">
-        <v>0.07410293674468994</v>
+        <v>0.07124813537597656</v>
       </c>
       <c r="J152">
         <v>0</v>
@@ -4289,10 +4214,10 @@
         <v>76</v>
       </c>
       <c r="I153">
-        <v>0.008155719065666199</v>
+        <v>0.007832631611824036</v>
       </c>
       <c r="J153">
-        <v>54.42</v>
+        <v>55.12</v>
       </c>
     </row>
     <row r="154" spans="7:10">
@@ -4303,7 +4228,7 @@
         <v>76</v>
       </c>
       <c r="I154">
-        <v>0.07392052345275879</v>
+        <v>0.07142666702270507</v>
       </c>
       <c r="J154">
         <v>0</v>
@@ -4317,10 +4242,10 @@
         <v>77</v>
       </c>
       <c r="I155">
-        <v>0.008157478308677673</v>
+        <v>0.007828638362884522</v>
       </c>
       <c r="J155">
-        <v>54.68</v>
+        <v>55.18</v>
       </c>
     </row>
     <row r="156" spans="7:10">
@@ -4331,7 +4256,7 @@
         <v>77</v>
       </c>
       <c r="I156">
-        <v>0.0739777868270874</v>
+        <v>0.07145759544372558</v>
       </c>
       <c r="J156">
         <v>0</v>
@@ -4345,10 +4270,10 @@
         <v>78</v>
       </c>
       <c r="I157">
-        <v>0.008154945492744446</v>
+        <v>0.00782972002029419</v>
       </c>
       <c r="J157">
-        <v>54.44</v>
+        <v>55.08</v>
       </c>
     </row>
     <row r="158" spans="7:10">
@@ -4359,7 +4284,7 @@
         <v>78</v>
       </c>
       <c r="I158">
-        <v>0.07396473274230957</v>
+        <v>0.0713266767501831</v>
       </c>
       <c r="J158">
         <v>0</v>
@@ -4373,10 +4298,10 @@
         <v>79</v>
       </c>
       <c r="I159">
-        <v>0.008150441694259644</v>
+        <v>0.007828748106956482</v>
       </c>
       <c r="J159">
-        <v>54.44</v>
+        <v>55.22</v>
       </c>
     </row>
     <row r="160" spans="7:10">
@@ -4387,7 +4312,7 @@
         <v>79</v>
       </c>
       <c r="I160">
-        <v>0.07379829158782959</v>
+        <v>0.07133349876403809</v>
       </c>
       <c r="J160">
         <v>0</v>
@@ -4401,10 +4326,10 @@
         <v>80</v>
       </c>
       <c r="I161">
-        <v>0.008156659245491029</v>
+        <v>0.007825047063827514</v>
       </c>
       <c r="J161">
-        <v>54.48</v>
+        <v>55.32</v>
       </c>
     </row>
     <row r="162" spans="7:10">
@@ -4415,7 +4340,7 @@
         <v>80</v>
       </c>
       <c r="I162">
-        <v>0.07405761508941651</v>
+        <v>0.07124399299621582</v>
       </c>
       <c r="J162">
         <v>0</v>
@@ -4429,10 +4354,10 @@
         <v>81</v>
       </c>
       <c r="I163">
-        <v>0.008160695934295654</v>
+        <v>0.007826086926460266</v>
       </c>
       <c r="J163">
-        <v>54.52</v>
+        <v>55.3</v>
       </c>
     </row>
     <row r="164" spans="7:10">
@@ -4443,7 +4368,7 @@
         <v>81</v>
       </c>
       <c r="I164">
-        <v>0.0739708734512329</v>
+        <v>0.07134944038391114</v>
       </c>
       <c r="J164">
         <v>0</v>
@@ -4457,10 +4382,10 @@
         <v>82</v>
       </c>
       <c r="I165">
-        <v>0.00815653862953186</v>
+        <v>0.00783055453300476</v>
       </c>
       <c r="J165">
-        <v>54.64</v>
+        <v>55.24</v>
       </c>
     </row>
     <row r="166" spans="7:10">
@@ -4471,7 +4396,7 @@
         <v>82</v>
       </c>
       <c r="I166">
-        <v>0.07382510967254639</v>
+        <v>0.07152214031219482</v>
       </c>
       <c r="J166">
         <v>0</v>
@@ -4485,10 +4410,10 @@
         <v>83</v>
       </c>
       <c r="I167">
-        <v>0.008157212686538696</v>
+        <v>0.007828342723846436</v>
       </c>
       <c r="J167">
-        <v>54.62</v>
+        <v>55.16</v>
       </c>
     </row>
     <row r="168" spans="7:10">
@@ -4499,7 +4424,7 @@
         <v>83</v>
       </c>
       <c r="I168">
-        <v>0.07383743629455566</v>
+        <v>0.07135846557617187</v>
       </c>
       <c r="J168">
         <v>0</v>
@@ -4513,10 +4438,10 @@
         <v>84</v>
       </c>
       <c r="I169">
-        <v>0.008163862466812133</v>
+        <v>0.007829631400108337</v>
       </c>
       <c r="J169">
-        <v>54.52</v>
+        <v>55.14</v>
       </c>
     </row>
     <row r="170" spans="7:10">
@@ -4527,7 +4452,7 @@
         <v>84</v>
       </c>
       <c r="I170">
-        <v>0.07412724552154541</v>
+        <v>0.07135882511138916</v>
       </c>
       <c r="J170">
         <v>0</v>
@@ -4541,10 +4466,10 @@
         <v>85</v>
       </c>
       <c r="I171">
-        <v>0.008166744804382325</v>
+        <v>0.007827138876914977</v>
       </c>
       <c r="J171">
-        <v>54.5</v>
+        <v>55.24</v>
       </c>
     </row>
     <row r="172" spans="7:10">
@@ -4555,7 +4480,7 @@
         <v>85</v>
       </c>
       <c r="I172">
-        <v>0.07404522323608398</v>
+        <v>0.07130334606170655</v>
       </c>
       <c r="J172">
         <v>0</v>
@@ -4569,10 +4494,10 @@
         <v>86</v>
       </c>
       <c r="I173">
-        <v>0.008154517555236817</v>
+        <v>0.007831509494781494</v>
       </c>
       <c r="J173">
-        <v>54.58</v>
+        <v>55.02</v>
       </c>
     </row>
     <row r="174" spans="7:10">
@@ -4583,7 +4508,7 @@
         <v>86</v>
       </c>
       <c r="I174">
-        <v>0.07379663772583007</v>
+        <v>0.07143917770385742</v>
       </c>
       <c r="J174">
         <v>0</v>
@@ -4597,10 +4522,10 @@
         <v>87</v>
       </c>
       <c r="I175">
-        <v>0.00815263843536377</v>
+        <v>0.007831173920631408</v>
       </c>
       <c r="J175">
-        <v>54.64</v>
+        <v>54.98</v>
       </c>
     </row>
     <row r="176" spans="7:10">
@@ -4611,7 +4536,7 @@
         <v>87</v>
       </c>
       <c r="I176">
-        <v>0.07387420501708984</v>
+        <v>0.07133596611022949</v>
       </c>
       <c r="J176">
         <v>0</v>
@@ -4625,10 +4550,10 @@
         <v>88</v>
       </c>
       <c r="I177">
-        <v>0.008164080500602721</v>
+        <v>0.007832464861869812</v>
       </c>
       <c r="J177">
-        <v>54.54</v>
+        <v>55.24</v>
       </c>
     </row>
     <row r="178" spans="7:10">
@@ -4639,7 +4564,7 @@
         <v>88</v>
       </c>
       <c r="I178">
-        <v>0.07396957416534423</v>
+        <v>0.0713911111831665</v>
       </c>
       <c r="J178">
         <v>0</v>
@@ -4653,10 +4578,10 @@
         <v>89</v>
       </c>
       <c r="I179">
-        <v>0.00815843255519867</v>
+        <v>0.007828643345832824</v>
       </c>
       <c r="J179">
-        <v>54.66</v>
+        <v>55.22</v>
       </c>
     </row>
     <row r="180" spans="7:10">
@@ -4667,7 +4592,7 @@
         <v>89</v>
       </c>
       <c r="I180">
-        <v>0.0739129846572876</v>
+        <v>0.07120461463928222</v>
       </c>
       <c r="J180">
         <v>0</v>
@@ -4681,10 +4606,10 @@
         <v>90</v>
       </c>
       <c r="I181">
-        <v>0.008149279284477234</v>
+        <v>0.007829567790031433</v>
       </c>
       <c r="J181">
-        <v>54.52</v>
+        <v>55.18</v>
       </c>
     </row>
     <row r="182" spans="7:10">
@@ -4695,7 +4620,7 @@
         <v>90</v>
       </c>
       <c r="I182">
-        <v>0.07384679889678955</v>
+        <v>0.07140897598266602</v>
       </c>
       <c r="J182">
         <v>0</v>
@@ -4709,10 +4634,10 @@
         <v>91</v>
       </c>
       <c r="I183">
-        <v>0.008155652904510499</v>
+        <v>0.007826842141151428</v>
       </c>
       <c r="J183">
-        <v>54.5</v>
+        <v>55.06</v>
       </c>
     </row>
     <row r="184" spans="7:10">
@@ -4723,7 +4648,7 @@
         <v>91</v>
       </c>
       <c r="I184">
-        <v>0.07396674041748047</v>
+        <v>0.07120151882171631</v>
       </c>
       <c r="J184">
         <v>0</v>
@@ -4737,10 +4662,10 @@
         <v>92</v>
       </c>
       <c r="I185">
-        <v>0.008153413724899292</v>
+        <v>0.007832108092308044</v>
       </c>
       <c r="J185">
-        <v>54.7</v>
+        <v>55.3</v>
       </c>
     </row>
     <row r="186" spans="7:10">
@@ -4751,7 +4676,7 @@
         <v>92</v>
       </c>
       <c r="I186">
-        <v>0.07392787914276124</v>
+        <v>0.07143362274169922</v>
       </c>
       <c r="J186">
         <v>0</v>
@@ -4765,10 +4690,10 @@
         <v>93</v>
       </c>
       <c r="I187">
-        <v>0.008151629400253296</v>
+        <v>0.007827010965347291</v>
       </c>
       <c r="J187">
-        <v>54.38</v>
+        <v>55.18</v>
       </c>
     </row>
     <row r="188" spans="7:10">
@@ -4779,7 +4704,7 @@
         <v>93</v>
       </c>
       <c r="I188">
-        <v>0.07365655574798584</v>
+        <v>0.07132621402740479</v>
       </c>
       <c r="J188">
         <v>0</v>
@@ -4793,10 +4718,10 @@
         <v>94</v>
       </c>
       <c r="I189">
-        <v>0.008169092750549316</v>
+        <v>0.007829716706275939</v>
       </c>
       <c r="J189">
-        <v>54.56</v>
+        <v>54.98</v>
       </c>
     </row>
     <row r="190" spans="7:10">
@@ -4807,7 +4732,7 @@
         <v>94</v>
       </c>
       <c r="I190">
-        <v>0.07385077857971191</v>
+        <v>0.0714767391204834</v>
       </c>
       <c r="J190">
         <v>0</v>
@@ -4821,10 +4746,10 @@
         <v>95</v>
       </c>
       <c r="I191">
-        <v>0.008162199211120606</v>
+        <v>0.007827502274513244</v>
       </c>
       <c r="J191">
-        <v>54.58</v>
+        <v>54.96</v>
       </c>
     </row>
     <row r="192" spans="7:10">
@@ -4835,7 +4760,7 @@
         <v>95</v>
       </c>
       <c r="I192">
-        <v>0.07388954410552978</v>
+        <v>0.07126046810150147</v>
       </c>
       <c r="J192">
         <v>0</v>
@@ -4849,10 +4774,10 @@
         <v>96</v>
       </c>
       <c r="I193">
-        <v>0.008150079965591431</v>
+        <v>0.007829839301109314</v>
       </c>
       <c r="J193">
-        <v>54.76</v>
+        <v>55.04</v>
       </c>
     </row>
     <row r="194" spans="7:10">
@@ -4863,7 +4788,7 @@
         <v>96</v>
       </c>
       <c r="I194">
-        <v>0.07385597438812255</v>
+        <v>0.07136278018951416</v>
       </c>
       <c r="J194">
         <v>0</v>
@@ -4877,10 +4802,10 @@
         <v>97</v>
       </c>
       <c r="I195">
-        <v>0.008157583475112916</v>
+        <v>0.007828039383888244</v>
       </c>
       <c r="J195">
-        <v>54.32</v>
+        <v>54.94</v>
       </c>
     </row>
     <row r="196" spans="7:10">
@@ -4891,7 +4816,7 @@
         <v>97</v>
       </c>
       <c r="I196">
-        <v>0.0739395580291748</v>
+        <v>0.07134683399200439</v>
       </c>
       <c r="J196">
         <v>0</v>
@@ -4905,10 +4830,10 @@
         <v>98</v>
       </c>
       <c r="I197">
-        <v>0.008159346914291382</v>
+        <v>0.007830159235000611</v>
       </c>
       <c r="J197">
-        <v>54.42</v>
+        <v>55.08</v>
       </c>
     </row>
     <row r="198" spans="7:10">
@@ -4919,7 +4844,7 @@
         <v>98</v>
       </c>
       <c r="I198">
-        <v>0.07382392635345458</v>
+        <v>0.07133013153076172</v>
       </c>
       <c r="J198">
         <v>0</v>
@@ -4933,10 +4858,10 @@
         <v>99</v>
       </c>
       <c r="I199">
-        <v>0.00816233308315277</v>
+        <v>0.007829543471336365</v>
       </c>
       <c r="J199">
-        <v>54.3</v>
+        <v>55.18</v>
       </c>
     </row>
     <row r="200" spans="7:10">
@@ -4947,7 +4872,7 @@
         <v>99</v>
       </c>
       <c r="I200">
-        <v>0.07402616786956787</v>
+        <v>0.07118788394927979</v>
       </c>
       <c r="J200">
         <v>0</v>
@@ -4961,10 +4886,10 @@
         <v>100</v>
       </c>
       <c r="I201">
-        <v>0.008164237856864929</v>
+        <v>0.007828317761421203</v>
       </c>
       <c r="J201">
-        <v>54.58</v>
+        <v>55.02</v>
       </c>
     </row>
     <row r="202" spans="7:10">
@@ -4975,7 +4900,7 @@
         <v>100</v>
       </c>
       <c r="I202">
-        <v>0.07410174770355224</v>
+        <v>0.07149160842895508</v>
       </c>
       <c r="J202">
         <v>0</v>
@@ -4989,10 +4914,10 @@
         <v>101</v>
       </c>
       <c r="I203">
-        <v>0.008152777171134948</v>
+        <v>0.007829150438308716</v>
       </c>
       <c r="J203">
-        <v>54.54</v>
+        <v>55.24</v>
       </c>
     </row>
     <row r="204" spans="7:10">
@@ -5003,7 +4928,7 @@
         <v>101</v>
       </c>
       <c r="I204">
-        <v>0.0739607084274292</v>
+        <v>0.07126334400177002</v>
       </c>
       <c r="J204">
         <v>0</v>
@@ -5017,10 +4942,10 @@
         <v>102</v>
       </c>
       <c r="I205">
-        <v>0.008167798638343811</v>
+        <v>0.007824933028221131</v>
       </c>
       <c r="J205">
-        <v>54.46</v>
+        <v>55.18</v>
       </c>
     </row>
     <row r="206" spans="7:10">
@@ -5031,7 +4956,7 @@
         <v>102</v>
       </c>
       <c r="I206">
-        <v>0.0739192180633545</v>
+        <v>0.07132464485168458</v>
       </c>
       <c r="J206">
         <v>0</v>
@@ -5045,10 +4970,10 @@
         <v>103</v>
       </c>
       <c r="I207">
-        <v>0.008171786761283875</v>
+        <v>0.007826271891593933</v>
       </c>
       <c r="J207">
-        <v>54.62</v>
+        <v>55.3</v>
       </c>
     </row>
     <row r="208" spans="7:10">
@@ -5059,7 +4984,7 @@
         <v>103</v>
       </c>
       <c r="I208">
-        <v>0.07396380767822265</v>
+        <v>0.07138618659973145</v>
       </c>
       <c r="J208">
         <v>0</v>
@@ -5073,10 +4998,10 @@
         <v>104</v>
       </c>
       <c r="I209">
-        <v>0.008148892211914062</v>
+        <v>0.007836061859130859</v>
       </c>
       <c r="J209">
-        <v>54.56</v>
+        <v>55.14</v>
       </c>
     </row>
     <row r="210" spans="7:10">
@@ -5087,7 +5012,7 @@
         <v>104</v>
       </c>
       <c r="I210">
-        <v>0.0739310848236084</v>
+        <v>0.07153850879669189</v>
       </c>
       <c r="J210">
         <v>0</v>
@@ -5101,10 +5026,10 @@
         <v>105</v>
       </c>
       <c r="I211">
-        <v>0.008143428134918213</v>
+        <v>0.007829825568199158</v>
       </c>
       <c r="J211">
-        <v>54.38</v>
+        <v>55.08</v>
       </c>
     </row>
     <row r="212" spans="7:10">
@@ -5115,7 +5040,7 @@
         <v>105</v>
       </c>
       <c r="I212">
-        <v>0.07376458969116211</v>
+        <v>0.07133975334167481</v>
       </c>
       <c r="J212">
         <v>0</v>
@@ -5129,10 +5054,10 @@
         <v>106</v>
       </c>
       <c r="I213">
-        <v>0.008158670401573181</v>
+        <v>0.007829623818397522</v>
       </c>
       <c r="J213">
-        <v>54.48</v>
+        <v>55.36</v>
       </c>
     </row>
     <row r="214" spans="7:10">
@@ -5143,7 +5068,7 @@
         <v>106</v>
       </c>
       <c r="I214">
-        <v>0.07378849544525147</v>
+        <v>0.07134676990509033</v>
       </c>
       <c r="J214">
         <v>0</v>
@@ -5157,10 +5082,10 @@
         <v>107</v>
       </c>
       <c r="I215">
-        <v>0.008148200106620788</v>
+        <v>0.007827756738662719</v>
       </c>
       <c r="J215">
-        <v>54.42</v>
+        <v>55.22</v>
       </c>
     </row>
     <row r="216" spans="7:10">
@@ -5171,7 +5096,7 @@
         <v>107</v>
       </c>
       <c r="I216">
-        <v>0.07394338226318359</v>
+        <v>0.07118252582550048</v>
       </c>
       <c r="J216">
         <v>0</v>
@@ -5185,10 +5110,10 @@
         <v>108</v>
       </c>
       <c r="I217">
-        <v>0.008165323519706726</v>
+        <v>0.007830784583091735</v>
       </c>
       <c r="J217">
-        <v>54.6</v>
+        <v>55.06</v>
       </c>
     </row>
     <row r="218" spans="7:10">
@@ -5199,7 +5124,7 @@
         <v>108</v>
       </c>
       <c r="I218">
-        <v>0.07402943840026856</v>
+        <v>0.07137657222747802</v>
       </c>
       <c r="J218">
         <v>0</v>
@@ -5213,10 +5138,10 @@
         <v>109</v>
       </c>
       <c r="I219">
-        <v>0.008154334902763367</v>
+        <v>0.007828211379051209</v>
       </c>
       <c r="J219">
-        <v>54.52</v>
+        <v>55.2</v>
       </c>
     </row>
     <row r="220" spans="7:10">
@@ -5227,7 +5152,7 @@
         <v>109</v>
       </c>
       <c r="I220">
-        <v>0.074017506980896</v>
+        <v>0.07128592357635498</v>
       </c>
       <c r="J220">
         <v>0</v>
@@ -5241,10 +5166,10 @@
         <v>110</v>
       </c>
       <c r="I221">
-        <v>0.008147647571563721</v>
+        <v>0.00782623872756958</v>
       </c>
       <c r="J221">
-        <v>54.62</v>
+        <v>55.16</v>
       </c>
     </row>
     <row r="222" spans="7:10">
@@ -5255,149 +5180,9 @@
         <v>110</v>
       </c>
       <c r="I222">
-        <v>0.07390864582061768</v>
+        <v>0.07130611419677735</v>
       </c>
       <c r="J222">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="223" spans="7:10">
-      <c r="G223">
-        <v>1</v>
-      </c>
-      <c r="H223">
-        <v>111</v>
-      </c>
-      <c r="I223">
-        <v>0.008160463023185729</v>
-      </c>
-      <c r="J223">
-        <v>54.46</v>
-      </c>
-    </row>
-    <row r="224" spans="7:10">
-      <c r="G224">
-        <v>2</v>
-      </c>
-      <c r="H224">
-        <v>111</v>
-      </c>
-      <c r="I224">
-        <v>0.07395132122039795</v>
-      </c>
-      <c r="J224">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="225" spans="7:10">
-      <c r="G225">
-        <v>1</v>
-      </c>
-      <c r="H225">
-        <v>112</v>
-      </c>
-      <c r="I225">
-        <v>0.008153396439552306</v>
-      </c>
-      <c r="J225">
-        <v>54.6</v>
-      </c>
-    </row>
-    <row r="226" spans="7:10">
-      <c r="G226">
-        <v>2</v>
-      </c>
-      <c r="H226">
-        <v>112</v>
-      </c>
-      <c r="I226">
-        <v>0.07387301692962646</v>
-      </c>
-      <c r="J226">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="227" spans="7:10">
-      <c r="G227">
-        <v>1</v>
-      </c>
-      <c r="H227">
-        <v>113</v>
-      </c>
-      <c r="I227">
-        <v>0.008146929979324341</v>
-      </c>
-      <c r="J227">
-        <v>54.54</v>
-      </c>
-    </row>
-    <row r="228" spans="7:10">
-      <c r="G228">
-        <v>2</v>
-      </c>
-      <c r="H228">
-        <v>113</v>
-      </c>
-      <c r="I228">
-        <v>0.07386699619293213</v>
-      </c>
-      <c r="J228">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="229" spans="7:10">
-      <c r="G229">
-        <v>1</v>
-      </c>
-      <c r="H229">
-        <v>114</v>
-      </c>
-      <c r="I229">
-        <v>0.008163784861564636</v>
-      </c>
-      <c r="J229">
-        <v>54.56</v>
-      </c>
-    </row>
-    <row r="230" spans="7:10">
-      <c r="G230">
-        <v>2</v>
-      </c>
-      <c r="H230">
-        <v>114</v>
-      </c>
-      <c r="I230">
-        <v>0.07417919025421142</v>
-      </c>
-      <c r="J230">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="231" spans="7:10">
-      <c r="G231">
-        <v>1</v>
-      </c>
-      <c r="H231">
-        <v>115</v>
-      </c>
-      <c r="I231">
-        <v>0.008155464506149292</v>
-      </c>
-      <c r="J231">
-        <v>54.38</v>
-      </c>
-    </row>
-    <row r="232" spans="7:10">
-      <c r="G232">
-        <v>2</v>
-      </c>
-      <c r="H232">
-        <v>115</v>
-      </c>
-      <c r="I232">
-        <v>0.07387921962738037</v>
-      </c>
-      <c r="J232">
         <v>0</v>
       </c>
     </row>
@@ -5412,7 +5197,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K190"/>
+  <dimension ref="A1:K228"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5471,13 +5256,13 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>4.59818995575751</v>
+        <v>4.577729079031175</v>
       </c>
       <c r="D3">
-        <v>2.978882551193237</v>
+        <v>2.948244333267212</v>
       </c>
       <c r="E3">
-        <v>16.66</v>
+        <v>15.03</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -5486,10 +5271,10 @@
         <v>1</v>
       </c>
       <c r="I3">
-        <v>0.02577076969146729</v>
+        <v>0.02721285247802734</v>
       </c>
       <c r="J3">
-        <v>4.56</v>
+        <v>3.06</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -5500,13 +5285,13 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>2.488734456800645</v>
+        <v>2.506071125307391</v>
       </c>
       <c r="D4">
-        <v>2.463927268981934</v>
+        <v>2.433413743972778</v>
       </c>
       <c r="E4">
-        <v>22.38</v>
+        <v>23.28</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -5515,10 +5300,10 @@
         <v>1</v>
       </c>
       <c r="I4">
-        <v>0.01363547639846802</v>
+        <v>0.01340575566291809</v>
       </c>
       <c r="J4">
-        <v>28.76</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -5529,13 +5314,13 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>2.087993145950379</v>
+        <v>2.128093008072145</v>
       </c>
       <c r="D5">
-        <v>2.262986183166504</v>
+        <v>2.261234760284424</v>
       </c>
       <c r="E5">
-        <v>26.5</v>
+        <v>25.51</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -5544,10 +5329,10 @@
         <v>2</v>
       </c>
       <c r="I5">
-        <v>0.02311861753463745</v>
+        <v>0.0233499098777771</v>
       </c>
       <c r="J5">
-        <v>6.1</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -5558,13 +5343,13 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.863458327708706</v>
+        <v>1.898227218658693</v>
       </c>
       <c r="D6">
-        <v>2.228397130966187</v>
+        <v>2.207294464111328</v>
       </c>
       <c r="E6">
-        <v>25.66</v>
+        <v>26.67</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -5573,10 +5358,10 @@
         <v>2</v>
       </c>
       <c r="I6">
-        <v>0.01095198442935944</v>
+        <v>0.01091904356479645</v>
       </c>
       <c r="J6">
-        <v>38.66</v>
+        <v>40.76</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -5587,13 +5372,13 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.685118207047062</v>
+        <v>1.726987641665243</v>
       </c>
       <c r="D7">
-        <v>2.135745763778687</v>
+        <v>2.049006223678589</v>
       </c>
       <c r="E7">
-        <v>28.19</v>
+        <v>29.31</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -5602,10 +5387,10 @@
         <v>3</v>
       </c>
       <c r="I7">
-        <v>0.02144391918182373</v>
+        <v>0.02216127653121948</v>
       </c>
       <c r="J7">
-        <v>9.42</v>
+        <v>7.46</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -5616,13 +5401,13 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.538433097062572</v>
+        <v>1.585829684811254</v>
       </c>
       <c r="D8">
-        <v>2.03537917137146</v>
+        <v>2.21701979637146</v>
       </c>
       <c r="E8">
-        <v>29.92</v>
+        <v>27.4</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -5631,10 +5416,10 @@
         <v>3</v>
       </c>
       <c r="I8">
-        <v>0.009995356965065002</v>
+        <v>0.01018436257839203</v>
       </c>
       <c r="J8">
-        <v>43.58</v>
+        <v>43.56</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -5645,13 +5430,13 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.418874626198123</v>
+        <v>1.458726032126334</v>
       </c>
       <c r="D9">
-        <v>2.02617335319519</v>
+        <v>2.029186010360718</v>
       </c>
       <c r="E9">
-        <v>31.64</v>
+        <v>29.57</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -5660,10 +5445,10 @@
         <v>4</v>
       </c>
       <c r="I9">
-        <v>0.02317319183349609</v>
+        <v>0.02162250308990479</v>
       </c>
       <c r="J9">
-        <v>6.48</v>
+        <v>8.619999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -5674,13 +5459,13 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.312187403440475</v>
+        <v>1.353669411713077</v>
       </c>
       <c r="D10">
-        <v>2.046819686889648</v>
+        <v>2.23015284538269</v>
       </c>
       <c r="E10">
-        <v>31.65</v>
+        <v>29.05</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -5689,10 +5474,10 @@
         <v>4</v>
       </c>
       <c r="I10">
-        <v>0.009688778448104859</v>
+        <v>0.009862410616874694</v>
       </c>
       <c r="J10">
-        <v>44.84</v>
+        <v>44.72</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -5703,13 +5488,13 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.205889083685413</v>
+        <v>1.259398169094516</v>
       </c>
       <c r="D11">
-        <v>2.261279582977295</v>
+        <v>2.087721824645996</v>
       </c>
       <c r="E11">
-        <v>29.74</v>
+        <v>29.34</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -5718,10 +5503,10 @@
         <v>5</v>
       </c>
       <c r="I11">
-        <v>0.02202000970840454</v>
+        <v>0.02157022132873535</v>
       </c>
       <c r="J11">
-        <v>9.98</v>
+        <v>9.16</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -5732,13 +5517,13 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.118082388754814</v>
+        <v>1.157676957307323</v>
       </c>
       <c r="D12">
-        <v>2.215226173400879</v>
+        <v>2.265721082687378</v>
       </c>
       <c r="E12">
-        <v>29.71</v>
+        <v>27.72</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -5747,10 +5532,10 @@
         <v>5</v>
       </c>
       <c r="I12">
-        <v>0.009533304023742676</v>
+        <v>0.009021846437454224</v>
       </c>
       <c r="J12">
-        <v>46.4</v>
+        <v>49.46</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -5761,13 +5546,13 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.020953006802067</v>
+        <v>1.056846495597593</v>
       </c>
       <c r="D13">
-        <v>2.154270887374878</v>
+        <v>2.132439374923706</v>
       </c>
       <c r="E13">
-        <v>30.77</v>
+        <v>30.13</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -5776,10 +5561,10 @@
         <v>6</v>
       </c>
       <c r="I13">
-        <v>0.02126680326461792</v>
+        <v>0.02314047431945801</v>
       </c>
       <c r="J13">
-        <v>10.24</v>
+        <v>8.42</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -5790,13 +5575,13 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9332552148449805</v>
+        <v>0.9780599960396367</v>
       </c>
       <c r="D14">
-        <v>2.12514591217041</v>
+        <v>2.032453298568726</v>
       </c>
       <c r="E14">
-        <v>32.36</v>
+        <v>30.82</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -5805,10 +5590,10 @@
         <v>6</v>
       </c>
       <c r="I14">
-        <v>0.009066132855415344</v>
+        <v>0.009828689694404601</v>
       </c>
       <c r="J14">
-        <v>49.6</v>
+        <v>46.38</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -5819,13 +5604,13 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.8456798301589105</v>
+        <v>0.8830095519942622</v>
       </c>
       <c r="D15">
-        <v>2.255695581436157</v>
+        <v>2.073712110519409</v>
       </c>
       <c r="E15">
-        <v>30.76</v>
+        <v>31.9</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -5834,10 +5619,10 @@
         <v>7</v>
       </c>
       <c r="I15">
-        <v>0.02092488231658935</v>
+        <v>0.02104346904754639</v>
       </c>
       <c r="J15">
-        <v>13.1</v>
+        <v>9.02</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -5848,13 +5633,13 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.7841575261085264</v>
+        <v>0.7968376105831515</v>
       </c>
       <c r="D16">
-        <v>2.179706573486328</v>
+        <v>2.5357666015625</v>
       </c>
       <c r="E16">
-        <v>33.18</v>
+        <v>28.57</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -5863,10 +5648,10 @@
         <v>7</v>
       </c>
       <c r="I16">
-        <v>0.008938743305206298</v>
+        <v>0.00901866466999054</v>
       </c>
       <c r="J16">
-        <v>50.18</v>
+        <v>50.12</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -5877,13 +5662,13 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.7034030751355232</v>
+        <v>0.7262095869068177</v>
       </c>
       <c r="D17">
-        <v>2.622523069381714</v>
+        <v>2.288249254226685</v>
       </c>
       <c r="E17">
-        <v>29.32</v>
+        <v>30.73</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -5892,10 +5677,10 @@
         <v>8</v>
       </c>
       <c r="I17">
-        <v>0.02154393339157104</v>
+        <v>0.02209698619842529</v>
       </c>
       <c r="J17">
-        <v>12.06</v>
+        <v>11.48</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -5906,13 +5691,13 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.6388729904447833</v>
+        <v>0.6582025654854313</v>
       </c>
       <c r="D18">
-        <v>2.407354831695557</v>
+        <v>2.341253757476807</v>
       </c>
       <c r="E18">
-        <v>30.49</v>
+        <v>31.42</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -5921,10 +5706,10 @@
         <v>8</v>
       </c>
       <c r="I18">
-        <v>0.008797356462478638</v>
+        <v>0.01004684729576111</v>
       </c>
       <c r="J18">
-        <v>51.24</v>
+        <v>46.62</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -5935,13 +5720,13 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.5738377544668413</v>
+        <v>0.6010908340254137</v>
       </c>
       <c r="D19">
-        <v>2.452328205108643</v>
+        <v>2.469676971435547</v>
       </c>
       <c r="E19">
-        <v>30.36</v>
+        <v>30.01</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -5950,10 +5735,10 @@
         <v>9</v>
       </c>
       <c r="I19">
-        <v>0.02162246713638306</v>
+        <v>0.02229483003616333</v>
       </c>
       <c r="J19">
-        <v>12.5</v>
+        <v>10.14</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -5964,13 +5749,13 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.129036776481136</v>
+        <v>1.17454302935831</v>
       </c>
       <c r="D20">
-        <v>1.78693151473999</v>
+        <v>1.757078766822815</v>
       </c>
       <c r="E20">
-        <v>35.31</v>
+        <v>34.56</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -5979,10 +5764,10 @@
         <v>9</v>
       </c>
       <c r="I20">
-        <v>0.01007314672470093</v>
+        <v>0.009253389191627503</v>
       </c>
       <c r="J20">
-        <v>46.98</v>
+        <v>48.54</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -5993,13 +5778,13 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.038010239601135</v>
+        <v>1.088872921562964</v>
       </c>
       <c r="D21">
-        <v>1.784948706626892</v>
+        <v>1.746193051338196</v>
       </c>
       <c r="E21">
-        <v>36.39</v>
+        <v>34.96</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -6008,10 +5793,10 @@
         <v>10</v>
       </c>
       <c r="I21">
-        <v>0.02266403999328613</v>
+        <v>0.02433483066558838</v>
       </c>
       <c r="J21">
-        <v>12.56</v>
+        <v>8.56</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -6022,13 +5807,13 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.998654939474598</v>
+        <v>1.04502493383423</v>
       </c>
       <c r="D22">
-        <v>1.784790992736816</v>
+        <v>1.745965719223022</v>
       </c>
       <c r="E22">
-        <v>35.98</v>
+        <v>34.5</v>
       </c>
       <c r="G22">
         <v>2</v>
@@ -6037,10 +5822,10 @@
         <v>10</v>
       </c>
       <c r="I22">
-        <v>0.0100683224439621</v>
+        <v>0.009891122651100159</v>
       </c>
       <c r="J22">
-        <v>46.86</v>
+        <v>46.88</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -6051,13 +5836,13 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.9506435418321241</v>
+        <v>1.004273940959284</v>
       </c>
       <c r="D23">
-        <v>1.813092827796936</v>
+        <v>1.769790768623352</v>
       </c>
       <c r="E23">
-        <v>35.52</v>
+        <v>34.47</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -6066,10 +5851,10 @@
         <v>11</v>
       </c>
       <c r="I23">
-        <v>0.0237320541381836</v>
+        <v>0.02210038280487061</v>
       </c>
       <c r="J23">
-        <v>10.98</v>
+        <v>10.62</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -6080,13 +5865,13 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.9095182524573419</v>
+        <v>0.9646211093471896</v>
       </c>
       <c r="D24">
-        <v>1.837511301040649</v>
+        <v>1.783083915710449</v>
       </c>
       <c r="E24">
-        <v>35.45</v>
+        <v>35.1</v>
       </c>
       <c r="G24">
         <v>2</v>
@@ -6095,10 +5880,10 @@
         <v>11</v>
       </c>
       <c r="I24">
-        <v>0.00940403904914856</v>
+        <v>0.009483881640434266</v>
       </c>
       <c r="J24">
-        <v>50.56</v>
+        <v>49.64</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -6109,13 +5894,13 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.8755791600673429</v>
+        <v>0.923668683536591</v>
       </c>
       <c r="D25">
-        <v>1.839106202125549</v>
+        <v>1.782837510108948</v>
       </c>
       <c r="E25">
-        <v>35.86</v>
+        <v>34.41</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -6124,10 +5909,10 @@
         <v>12</v>
       </c>
       <c r="I25">
-        <v>0.02256502590179443</v>
+        <v>0.02227152366638184</v>
       </c>
       <c r="J25">
-        <v>13.12</v>
+        <v>10.68</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -6138,13 +5923,13 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>0.8379814259467586</v>
+        <v>0.8883485121111716</v>
       </c>
       <c r="D26">
-        <v>1.866931915283203</v>
+        <v>1.80684757232666</v>
       </c>
       <c r="E26">
-        <v>35.4</v>
+        <v>34.7</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -6153,10 +5938,10 @@
         <v>12</v>
       </c>
       <c r="I26">
-        <v>0.009399395847320557</v>
+        <v>0.009000124025344849</v>
       </c>
       <c r="J26">
-        <v>51.6</v>
+        <v>50.96</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -6167,13 +5952,13 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>0.8029019289439724</v>
+        <v>0.8488382447150445</v>
       </c>
       <c r="D27">
-        <v>1.868637323379517</v>
+        <v>1.835572719573975</v>
       </c>
       <c r="E27">
-        <v>35.39</v>
+        <v>34.23999999999999</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -6182,10 +5967,10 @@
         <v>13</v>
       </c>
       <c r="I27">
-        <v>0.02410722341537476</v>
+        <v>0.02128529944419861</v>
       </c>
       <c r="J27">
-        <v>11.48</v>
+        <v>12.82</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -6196,13 +5981,13 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>0.7608866023440515</v>
+        <v>0.8134250025595388</v>
       </c>
       <c r="D28">
-        <v>1.915093541145325</v>
+        <v>1.850612998008728</v>
       </c>
       <c r="E28">
-        <v>34.96</v>
+        <v>34.33</v>
       </c>
       <c r="G28">
         <v>2</v>
@@ -6211,10 +5996,10 @@
         <v>13</v>
       </c>
       <c r="I28">
-        <v>0.009698429346084595</v>
+        <v>0.009158749556541442</v>
       </c>
       <c r="J28">
-        <v>50.04</v>
+        <v>50.98</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -6225,13 +6010,13 @@
         <v>27</v>
       </c>
       <c r="C29">
-        <v>0.722205049568607</v>
+        <v>0.7808880344513924</v>
       </c>
       <c r="D29">
-        <v>1.94363808631897</v>
+        <v>1.840331315994263</v>
       </c>
       <c r="E29">
-        <v>34.62</v>
+        <v>34.36</v>
       </c>
       <c r="G29">
         <v>1</v>
@@ -6240,10 +6025,10 @@
         <v>14</v>
       </c>
       <c r="I29">
-        <v>0.02314349250793457</v>
+        <v>0.02535922737121582</v>
       </c>
       <c r="J29">
-        <v>14.38</v>
+        <v>10.16</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -6254,13 +6039,13 @@
         <v>28</v>
       </c>
       <c r="C30">
-        <v>0.6867135265661825</v>
+        <v>0.7363482559880903</v>
       </c>
       <c r="D30">
-        <v>1.982296943664551</v>
+        <v>1.899808287620544</v>
       </c>
       <c r="E30">
-        <v>34.49</v>
+        <v>33.71</v>
       </c>
       <c r="G30">
         <v>2</v>
@@ -6269,10 +6054,10 @@
         <v>14</v>
       </c>
       <c r="I30">
-        <v>0.009592910647392273</v>
+        <v>0.01113296518325806</v>
       </c>
       <c r="J30">
-        <v>51.98</v>
+        <v>46.98</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -6283,13 +6068,13 @@
         <v>29</v>
       </c>
       <c r="C31">
-        <v>0.6507713136173063</v>
+        <v>0.7013390751615647</v>
       </c>
       <c r="D31">
-        <v>1.964935541152954</v>
+        <v>1.896778702735901</v>
       </c>
       <c r="E31">
-        <v>34.67</v>
+        <v>34.6</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -6298,10 +6083,10 @@
         <v>15</v>
       </c>
       <c r="I31">
-        <v>0.02618817510604858</v>
+        <v>0.02425217628479004</v>
       </c>
       <c r="J31">
-        <v>13.06</v>
+        <v>11.1</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -6312,13 +6097,13 @@
         <v>30</v>
       </c>
       <c r="C32">
-        <v>0.6161644143923637</v>
+        <v>0.6713676928512512</v>
       </c>
       <c r="D32">
-        <v>2.01474666595459</v>
+        <v>1.91061544418335</v>
       </c>
       <c r="E32">
-        <v>33.91</v>
+        <v>33.97</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -6327,10 +6112,10 @@
         <v>15</v>
       </c>
       <c r="I32">
-        <v>0.01166010732650757</v>
+        <v>0.01006503019332886</v>
       </c>
       <c r="J32">
-        <v>45.58</v>
+        <v>50.36</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -6341,13 +6126,13 @@
         <v>31</v>
       </c>
       <c r="C33">
-        <v>0.9244366879424741</v>
+        <v>0.9732637304452157</v>
       </c>
       <c r="D33">
-        <v>1.770013928413391</v>
+        <v>1.733988881111145</v>
       </c>
       <c r="E33">
-        <v>36.19</v>
+        <v>34.88</v>
       </c>
       <c r="G33">
         <v>1</v>
@@ -6356,10 +6141,10 @@
         <v>16</v>
       </c>
       <c r="I33">
-        <v>0.02522197341918945</v>
+        <v>0.02314287662506103</v>
       </c>
       <c r="J33">
-        <v>11.5</v>
+        <v>13.04</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -6370,13 +6155,13 @@
         <v>32</v>
       </c>
       <c r="C34">
-        <v>0.9089311140198861</v>
+        <v>0.9599944170444242</v>
       </c>
       <c r="D34">
-        <v>1.777309417724609</v>
+        <v>1.740025877952576</v>
       </c>
       <c r="E34">
-        <v>36.26000000000001</v>
+        <v>34.85</v>
       </c>
       <c r="G34">
         <v>2</v>
@@ -6385,10 +6170,10 @@
         <v>16</v>
       </c>
       <c r="I34">
-        <v>0.0104175580739975</v>
+        <v>0.01064864718914032</v>
       </c>
       <c r="J34">
-        <v>49.48</v>
+        <v>49.8</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -6399,13 +6184,13 @@
         <v>33</v>
       </c>
       <c r="C35">
-        <v>0.899255879463688</v>
+        <v>0.9513289880368018</v>
       </c>
       <c r="D35">
-        <v>1.788087487220764</v>
+        <v>1.741094589233398</v>
       </c>
       <c r="E35">
-        <v>36.11</v>
+        <v>34.91</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -6414,10 +6199,10 @@
         <v>17</v>
       </c>
       <c r="I35">
-        <v>0.02420032835006714</v>
+        <v>0.0248678014755249</v>
       </c>
       <c r="J35">
-        <v>13.16</v>
+        <v>11.56</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -6428,13 +6213,13 @@
         <v>34</v>
       </c>
       <c r="C36">
-        <v>0.8892207905169456</v>
+        <v>0.9416631008348157</v>
       </c>
       <c r="D36">
-        <v>1.7922523021698</v>
+        <v>1.747419118881226</v>
       </c>
       <c r="E36">
-        <v>36.26</v>
+        <v>35</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -6443,10 +6228,10 @@
         <v>17</v>
       </c>
       <c r="I36">
-        <v>0.01129425539970398</v>
+        <v>0.01068347723484039</v>
       </c>
       <c r="J36">
-        <v>47.56</v>
+        <v>48.46</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -6457,13 +6242,13 @@
         <v>35</v>
       </c>
       <c r="C37">
-        <v>0.8811225429657967</v>
+        <v>0.9302623271942139</v>
       </c>
       <c r="D37">
-        <v>1.795134782791138</v>
+        <v>1.7489253282547</v>
       </c>
       <c r="E37">
-        <v>36.33</v>
+        <v>35.03</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -6472,10 +6257,10 @@
         <v>18</v>
       </c>
       <c r="I37">
-        <v>0.01958752455711365</v>
+        <v>0.01915419864654541</v>
       </c>
       <c r="J37">
-        <v>14.06</v>
+        <v>13.08</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -6486,13 +6271,13 @@
         <v>36</v>
       </c>
       <c r="C38">
-        <v>0.8730895187585584</v>
+        <v>0.9242544380887863</v>
       </c>
       <c r="D38">
-        <v>1.79754364490509</v>
+        <v>1.751819729804993</v>
       </c>
       <c r="E38">
-        <v>35.96</v>
+        <v>35.05</v>
       </c>
       <c r="G38">
         <v>2</v>
@@ -6501,10 +6286,10 @@
         <v>18</v>
       </c>
       <c r="I38">
-        <v>0.007634770536422729</v>
+        <v>0.007732296872138977</v>
       </c>
       <c r="J38">
-        <v>56.56</v>
+        <v>56.04</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -6515,13 +6300,13 @@
         <v>37</v>
       </c>
       <c r="C39">
-        <v>0.860496937267242</v>
+        <v>0.9128830543448848</v>
       </c>
       <c r="D39">
-        <v>1.805264711380005</v>
+        <v>1.749021172523499</v>
       </c>
       <c r="E39">
-        <v>36</v>
+        <v>35.1</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -6530,10 +6315,10 @@
         <v>19</v>
       </c>
       <c r="I39">
-        <v>0.01909321384429932</v>
+        <v>0.01907377243041992</v>
       </c>
       <c r="J39">
-        <v>16.12</v>
+        <v>13.06</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -6544,13 +6329,13 @@
         <v>38</v>
       </c>
       <c r="C40">
-        <v>0.8521492577368214</v>
+        <v>0.899194078099343</v>
       </c>
       <c r="D40">
-        <v>1.806407570838928</v>
+        <v>1.756535649299622</v>
       </c>
       <c r="E40">
-        <v>36.04</v>
+        <v>35.11</v>
       </c>
       <c r="G40">
         <v>2</v>
@@ -6559,10 +6344,10 @@
         <v>19</v>
       </c>
       <c r="I40">
-        <v>0.007689973711967469</v>
+        <v>0.007650355672836303</v>
       </c>
       <c r="J40">
-        <v>56.66</v>
+        <v>56.86</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -6573,13 +6358,13 @@
         <v>39</v>
       </c>
       <c r="C41">
-        <v>0.8419362950709558</v>
+        <v>0.8934889882802963</v>
       </c>
       <c r="D41">
-        <v>1.80989944934845</v>
+        <v>1.759073734283447</v>
       </c>
       <c r="E41">
-        <v>35.98</v>
+        <v>34.86</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -6588,10 +6373,10 @@
         <v>20</v>
       </c>
       <c r="I41">
-        <v>0.0191097119808197</v>
+        <v>0.0191713408946991</v>
       </c>
       <c r="J41">
-        <v>15.7</v>
+        <v>12.76</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -6602,13 +6387,13 @@
         <v>40</v>
       </c>
       <c r="C42">
-        <v>0.8348783600714899</v>
+        <v>0.8835601244241961</v>
       </c>
       <c r="D42">
-        <v>1.816946148872375</v>
+        <v>1.761907696723938</v>
       </c>
       <c r="E42">
-        <v>35.93</v>
+        <v>35.01</v>
       </c>
       <c r="G42">
         <v>2</v>
@@ -6617,10 +6402,10 @@
         <v>20</v>
       </c>
       <c r="I42">
-        <v>0.007766061973571777</v>
+        <v>0.007678006291389466</v>
       </c>
       <c r="J42">
-        <v>56.26</v>
+        <v>56.24</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -6631,13 +6416,13 @@
         <v>41</v>
       </c>
       <c r="C43">
-        <v>0.8236927438166833</v>
+        <v>0.8754102015687574</v>
       </c>
       <c r="D43">
-        <v>1.818239212036133</v>
+        <v>1.77029824256897</v>
       </c>
       <c r="E43">
-        <v>35.85</v>
+        <v>34.96</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -6646,10 +6431,10 @@
         <v>21</v>
       </c>
       <c r="I43">
-        <v>0.01951899342536926</v>
+        <v>0.01949244771003723</v>
       </c>
       <c r="J43">
-        <v>15.32</v>
+        <v>12.86</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -6660,13 +6445,13 @@
         <v>42</v>
       </c>
       <c r="C44">
-        <v>0.9032221378818635</v>
+        <v>0.9559107052703057</v>
       </c>
       <c r="D44">
-        <v>1.774182677268982</v>
+        <v>1.735432028770447</v>
       </c>
       <c r="E44">
-        <v>36.23</v>
+        <v>34.99</v>
       </c>
       <c r="G44">
         <v>2</v>
@@ -6675,10 +6460,10 @@
         <v>21</v>
       </c>
       <c r="I44">
-        <v>0.007841546654701232</v>
+        <v>0.007773403024673462</v>
       </c>
       <c r="J44">
-        <v>55.72</v>
+        <v>56.08</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -6689,13 +6474,13 @@
         <v>43</v>
       </c>
       <c r="C45">
-        <v>0.9023101079848505</v>
+        <v>0.9518458535594325</v>
       </c>
       <c r="D45">
-        <v>1.775783896446228</v>
+        <v>1.736360311508179</v>
       </c>
       <c r="E45">
-        <v>36.2</v>
+        <v>35.06</v>
       </c>
       <c r="G45">
         <v>1</v>
@@ -6704,10 +6489,10 @@
         <v>22</v>
       </c>
       <c r="I45">
-        <v>0.02001808905601501</v>
+        <v>0.01947182722091675</v>
       </c>
       <c r="J45">
-        <v>14.68</v>
+        <v>13.74</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -6718,13 +6503,13 @@
         <v>44</v>
       </c>
       <c r="C46">
-        <v>0.8992077458289361</v>
+        <v>0.9498920719469747</v>
       </c>
       <c r="D46">
-        <v>1.776294231414795</v>
+        <v>1.738399624824524</v>
       </c>
       <c r="E46">
-        <v>36.2</v>
+        <v>35.07</v>
       </c>
       <c r="G46">
         <v>2</v>
@@ -6733,10 +6518,10 @@
         <v>22</v>
       </c>
       <c r="I46">
-        <v>0.007891240406036377</v>
+        <v>0.007841210246086121</v>
       </c>
       <c r="J46">
-        <v>56.22</v>
+        <v>56.46</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -6747,13 +6532,13 @@
         <v>45</v>
       </c>
       <c r="C47">
-        <v>0.8965271668088052</v>
+        <v>0.9455603019845101</v>
       </c>
       <c r="D47">
-        <v>1.775759696960449</v>
+        <v>1.737476468086243</v>
       </c>
       <c r="E47">
-        <v>36.41</v>
+        <v>34.96</v>
       </c>
       <c r="G47">
         <v>1</v>
@@ -6762,10 +6547,10 @@
         <v>23</v>
       </c>
       <c r="I47">
-        <v>0.01958869204521179</v>
+        <v>0.02002173948287964</v>
       </c>
       <c r="J47">
-        <v>16.1</v>
+        <v>12.3</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -6776,13 +6561,13 @@
         <v>46</v>
       </c>
       <c r="C48">
-        <v>0.8961481682715877</v>
+        <v>0.9467562884092331</v>
       </c>
       <c r="D48">
-        <v>1.777124166488647</v>
+        <v>1.738994359970093</v>
       </c>
       <c r="E48">
-        <v>36.25</v>
+        <v>34.82</v>
       </c>
       <c r="G48">
         <v>2</v>
@@ -6791,10 +6576,10 @@
         <v>23</v>
       </c>
       <c r="I48">
-        <v>0.007984341335296631</v>
+        <v>0.007885745906829835</v>
       </c>
       <c r="J48">
-        <v>55.62</v>
+        <v>56.52</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -6805,13 +6590,13 @@
         <v>47</v>
       </c>
       <c r="C49">
-        <v>0.8915901597469084</v>
+        <v>0.9419316995528436</v>
       </c>
       <c r="D49">
-        <v>1.779432535171509</v>
+        <v>1.742265224456787</v>
       </c>
       <c r="E49">
-        <v>36.33</v>
+        <v>35.08</v>
       </c>
       <c r="G49">
         <v>1</v>
@@ -6820,10 +6605,10 @@
         <v>24</v>
       </c>
       <c r="I49">
-        <v>0.02003545041084289</v>
+        <v>0.01991947479248047</v>
       </c>
       <c r="J49">
-        <v>15.74</v>
+        <v>13.26</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -6834,13 +6619,13 @@
         <v>48</v>
       </c>
       <c r="C50">
-        <v>0.8905838641428179</v>
+        <v>0.9411597737381535</v>
       </c>
       <c r="D50">
-        <v>1.780619382858276</v>
+        <v>1.741958260536194</v>
       </c>
       <c r="E50">
-        <v>36.32</v>
+        <v>34.98</v>
       </c>
       <c r="G50">
         <v>2</v>
@@ -6849,10 +6634,10 @@
         <v>24</v>
       </c>
       <c r="I50">
-        <v>0.008040003418922425</v>
+        <v>0.007901218533515931</v>
       </c>
       <c r="J50">
-        <v>55.06</v>
+        <v>56.14</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -6863,13 +6648,13 @@
         <v>49</v>
       </c>
       <c r="C51">
-        <v>0.8889193794419689</v>
+        <v>0.9375081845829564</v>
       </c>
       <c r="D51">
-        <v>1.784351468086243</v>
+        <v>1.740779399871826</v>
       </c>
       <c r="E51">
-        <v>36.18</v>
+        <v>34.94</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -6878,10 +6663,10 @@
         <v>25</v>
       </c>
       <c r="I51">
-        <v>0.02018790807723999</v>
+        <v>0.02022264103889465</v>
       </c>
       <c r="J51">
-        <v>15.34</v>
+        <v>12.68</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -6892,13 +6677,13 @@
         <v>50</v>
       </c>
       <c r="C52">
-        <v>0.8853189690459159</v>
+        <v>0.9356763218679736</v>
       </c>
       <c r="D52">
-        <v>1.784019112586975</v>
+        <v>1.739634990692139</v>
       </c>
       <c r="E52">
-        <v>36.28</v>
+        <v>35.06</v>
       </c>
       <c r="G52">
         <v>2</v>
@@ -6907,10 +6692,10 @@
         <v>25</v>
       </c>
       <c r="I52">
-        <v>0.008069597053527833</v>
+        <v>0.00810045976638794</v>
       </c>
       <c r="J52">
-        <v>55.44</v>
+        <v>55.8</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -6921,13 +6706,13 @@
         <v>51</v>
       </c>
       <c r="C53">
-        <v>0.8825737680158308</v>
+        <v>0.9356344976732808</v>
       </c>
       <c r="D53">
-        <v>1.782713890075684</v>
+        <v>1.738923668861389</v>
       </c>
       <c r="E53">
-        <v>36.12</v>
+        <v>35.02</v>
       </c>
       <c r="G53">
         <v>1</v>
@@ -6936,10 +6721,10 @@
         <v>26</v>
       </c>
       <c r="I53">
-        <v>0.02059469742774963</v>
+        <v>0.02020803713798523</v>
       </c>
       <c r="J53">
-        <v>15.12</v>
+        <v>12.94</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -6950,13 +6735,13 @@
         <v>52</v>
       </c>
       <c r="C54">
-        <v>0.9048553190885051</v>
+        <v>0.9544316347568266</v>
       </c>
       <c r="D54">
-        <v>1.774297714233398</v>
+        <v>1.735371947288513</v>
       </c>
       <c r="E54">
-        <v>36.31</v>
+        <v>34.91</v>
       </c>
       <c r="G54">
         <v>2</v>
@@ -6965,10 +6750,10 @@
         <v>26</v>
       </c>
       <c r="I54">
-        <v>0.008239612674713135</v>
+        <v>0.008137223529815675</v>
       </c>
       <c r="J54">
-        <v>54.8</v>
+        <v>55.72</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -6979,13 +6764,13 @@
         <v>53</v>
       </c>
       <c r="C55">
-        <v>0.9031643506980711</v>
+        <v>0.9525094806186615</v>
       </c>
       <c r="D55">
-        <v>1.77060329914093</v>
+        <v>1.735918045043945</v>
       </c>
       <c r="E55">
-        <v>36.21</v>
+        <v>35.06</v>
       </c>
       <c r="G55">
         <v>1</v>
@@ -6994,10 +6779,10 @@
         <v>27</v>
       </c>
       <c r="I55">
-        <v>0.02108084955215454</v>
+        <v>0.02014123373031616</v>
       </c>
       <c r="J55">
-        <v>14.54</v>
+        <v>13.46</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -7008,13 +6793,13 @@
         <v>54</v>
       </c>
       <c r="C56">
-        <v>0.902589930161353</v>
+        <v>0.9536048577677819</v>
       </c>
       <c r="D56">
-        <v>1.769364833831787</v>
+        <v>1.740211248397827</v>
       </c>
       <c r="E56">
-        <v>36.26</v>
+        <v>35.08</v>
       </c>
       <c r="G56">
         <v>2</v>
@@ -7023,10 +6808,10 @@
         <v>27</v>
       </c>
       <c r="I56">
-        <v>0.008312875652313232</v>
+        <v>0.008169547462463379</v>
       </c>
       <c r="J56">
-        <v>54.7</v>
+        <v>55.26</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -7037,13 +6822,13 @@
         <v>55</v>
       </c>
       <c r="C57">
-        <v>0.9015128833632315</v>
+        <v>0.9512895811950007</v>
       </c>
       <c r="D57">
-        <v>1.772867798805237</v>
+        <v>1.738575339317322</v>
       </c>
       <c r="E57">
-        <v>36.27</v>
+        <v>34.98</v>
       </c>
       <c r="G57">
         <v>1</v>
@@ -7052,10 +6837,10 @@
         <v>28</v>
       </c>
       <c r="I57">
-        <v>0.020848592710495</v>
+        <v>0.02058373727798462</v>
       </c>
       <c r="J57">
-        <v>15.2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -7066,13 +6851,13 @@
         <v>56</v>
       </c>
       <c r="C58">
-        <v>0.8995028926480201</v>
+        <v>0.9518432540278281</v>
       </c>
       <c r="D58">
-        <v>1.770215272903442</v>
+        <v>1.735741257667542</v>
       </c>
       <c r="E58">
-        <v>36.36</v>
+        <v>35.04</v>
       </c>
       <c r="G58">
         <v>2</v>
@@ -7081,10 +6866,10 @@
         <v>28</v>
       </c>
       <c r="I58">
-        <v>0.008525051641464233</v>
+        <v>0.008394182419776916</v>
       </c>
       <c r="J58">
-        <v>53.78</v>
+        <v>54.42</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -7095,13 +6880,13 @@
         <v>57</v>
       </c>
       <c r="C59">
-        <v>0.8991462573889764</v>
+        <v>0.9521070771640346</v>
       </c>
       <c r="D59">
-        <v>1.773113608360291</v>
+        <v>1.73878002166748</v>
       </c>
       <c r="E59">
-        <v>36.37</v>
+        <v>34.98</v>
       </c>
       <c r="G59">
         <v>1</v>
@@ -7110,10 +6895,10 @@
         <v>29</v>
       </c>
       <c r="I59">
-        <v>0.02117054929733276</v>
+        <v>0.02026711630821228</v>
       </c>
       <c r="J59">
-        <v>14.76</v>
+        <v>13.96</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -7124,13 +6909,13 @@
         <v>58</v>
       </c>
       <c r="C60">
-        <v>0.9008095365378165</v>
+        <v>0.9523650071313304</v>
       </c>
       <c r="D60">
-        <v>1.773771286010742</v>
+        <v>1.736246228218079</v>
       </c>
       <c r="E60">
-        <v>36.34</v>
+        <v>35.05</v>
       </c>
       <c r="G60">
         <v>2</v>
@@ -7139,10 +6924,10 @@
         <v>29</v>
       </c>
       <c r="I60">
-        <v>0.008594466114044189</v>
+        <v>0.008459558701515197</v>
       </c>
       <c r="J60">
-        <v>54.58</v>
+        <v>55.24</v>
       </c>
     </row>
     <row r="61" spans="1:10">
@@ -7153,13 +6938,13 @@
         <v>59</v>
       </c>
       <c r="C61">
-        <v>0.8996065706014633</v>
+        <v>0.9512915024834294</v>
       </c>
       <c r="D61">
-        <v>1.773200154304504</v>
+        <v>1.73984968662262</v>
       </c>
       <c r="E61">
-        <v>36.3</v>
+        <v>34.95</v>
       </c>
       <c r="G61">
         <v>1</v>
@@ -7168,10 +6953,10 @@
         <v>30</v>
       </c>
       <c r="I61">
-        <v>0.02137798562049866</v>
+        <v>0.0207684730052948</v>
       </c>
       <c r="J61">
-        <v>14.38</v>
+        <v>12.74</v>
       </c>
     </row>
     <row r="62" spans="1:10">
@@ -7182,13 +6967,13 @@
         <v>60</v>
       </c>
       <c r="C62">
-        <v>0.9000094792535228</v>
+        <v>0.9484076317279569</v>
       </c>
       <c r="D62">
-        <v>1.773165464401245</v>
+        <v>1.738297581672668</v>
       </c>
       <c r="E62">
-        <v>36.19</v>
+        <v>35.01</v>
       </c>
       <c r="G62">
         <v>2</v>
@@ -7197,10 +6982,10 @@
         <v>30</v>
       </c>
       <c r="I62">
-        <v>0.008770121359825134</v>
+        <v>0.008394621753692627</v>
       </c>
       <c r="J62">
-        <v>53.44</v>
+        <v>55.2</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -7211,13 +6996,13 @@
         <v>61</v>
       </c>
       <c r="C63">
-        <v>0.900672348756944</v>
+        <v>0.9476474509123833</v>
       </c>
       <c r="D63">
-        <v>1.77362859249115</v>
+        <v>1.737844824790955</v>
       </c>
       <c r="E63">
-        <v>36.3</v>
+        <v>35.04</v>
       </c>
       <c r="G63">
         <v>1</v>
@@ -7226,10 +7011,10 @@
         <v>31</v>
       </c>
       <c r="I63">
-        <v>0.01928260998725891</v>
+        <v>0.01915391807556152</v>
       </c>
       <c r="J63">
-        <v>15.78</v>
+        <v>13.04</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -7240,13 +7025,13 @@
         <v>62</v>
       </c>
       <c r="C64">
-        <v>0.9000215866873341</v>
+        <v>0.9557592167008307</v>
       </c>
       <c r="D64">
-        <v>1.773848652839661</v>
+        <v>1.736051201820374</v>
       </c>
       <c r="E64">
-        <v>36.27</v>
+        <v>35</v>
       </c>
       <c r="G64">
         <v>2</v>
@@ -7255,10 +7040,10 @@
         <v>31</v>
       </c>
       <c r="I64">
-        <v>0.007638921499252319</v>
+        <v>0.007617022228240967</v>
       </c>
       <c r="J64">
-        <v>56.6</v>
+        <v>56.72</v>
       </c>
     </row>
     <row r="65" spans="1:10">
@@ -7269,13 +7054,13 @@
         <v>63</v>
       </c>
       <c r="C65">
-        <v>0.8964597025225239</v>
+        <v>0.9567088388627575</v>
       </c>
       <c r="D65">
-        <v>1.773557901382446</v>
+        <v>1.735605835914612</v>
       </c>
       <c r="E65">
-        <v>36.25</v>
+        <v>35.1</v>
       </c>
       <c r="G65">
         <v>1</v>
@@ -7284,10 +7069,10 @@
         <v>32</v>
       </c>
       <c r="I65">
-        <v>0.01932859668731689</v>
+        <v>0.01922352452278137</v>
       </c>
       <c r="J65">
-        <v>15.82</v>
+        <v>12.98</v>
       </c>
     </row>
     <row r="66" spans="1:10">
@@ -7298,13 +7083,13 @@
         <v>64</v>
       </c>
       <c r="C66">
-        <v>0.8973488677893916</v>
+        <v>0.9522626621107901</v>
       </c>
       <c r="D66">
-        <v>1.775537014007568</v>
+        <v>1.7368483543396</v>
       </c>
       <c r="E66">
-        <v>36.1</v>
+        <v>35.04</v>
       </c>
       <c r="G66">
         <v>2</v>
@@ -7313,10 +7098,10 @@
         <v>32</v>
       </c>
       <c r="I66">
-        <v>0.007646724724769592</v>
+        <v>0.007625812363624572</v>
       </c>
       <c r="J66">
-        <v>56.7</v>
+        <v>56.72</v>
       </c>
     </row>
     <row r="67" spans="1:10">
@@ -7327,13 +7112,13 @@
         <v>65</v>
       </c>
       <c r="C67">
-        <v>0.9034708723906548</v>
+        <v>0.9551064535494773</v>
       </c>
       <c r="D67">
-        <v>1.771347165107727</v>
+        <v>1.734675645828247</v>
       </c>
       <c r="E67">
-        <v>36.29</v>
+        <v>35.02</v>
       </c>
       <c r="G67">
         <v>1</v>
@@ -7342,10 +7127,10 @@
         <v>33</v>
       </c>
       <c r="I67">
-        <v>0.01949971899986267</v>
+        <v>0.01926334500312805</v>
       </c>
       <c r="J67">
-        <v>15.44</v>
+        <v>13.16</v>
       </c>
     </row>
     <row r="68" spans="1:10">
@@ -7356,13 +7141,13 @@
         <v>66</v>
       </c>
       <c r="C68">
-        <v>0.9006508314801801</v>
+        <v>0.9521159923845722</v>
       </c>
       <c r="D68">
-        <v>1.771270513534546</v>
+        <v>1.734452962875366</v>
       </c>
       <c r="E68">
-        <v>36.22</v>
+        <v>34.95</v>
       </c>
       <c r="G68">
         <v>2</v>
@@ -7371,10 +7156,10 @@
         <v>33</v>
       </c>
       <c r="I68">
-        <v>0.007692746019363404</v>
+        <v>0.007635037016868591</v>
       </c>
       <c r="J68">
-        <v>56.78</v>
+        <v>56.66</v>
       </c>
     </row>
     <row r="69" spans="1:10">
@@ -7385,13 +7170,13 @@
         <v>67</v>
       </c>
       <c r="C69">
-        <v>0.8988104726999037</v>
+        <v>0.9553774335692006</v>
       </c>
       <c r="D69">
-        <v>1.773618459701538</v>
+        <v>1.733721256256104</v>
       </c>
       <c r="E69">
-        <v>36.34</v>
+        <v>35.04</v>
       </c>
       <c r="G69">
         <v>1</v>
@@ -7400,10 +7185,10 @@
         <v>34</v>
       </c>
       <c r="I69">
-        <v>0.01944373922348023</v>
+        <v>0.01920482931137085</v>
       </c>
       <c r="J69">
-        <v>15.66</v>
+        <v>13.04</v>
       </c>
     </row>
     <row r="70" spans="1:10">
@@ -7414,13 +7199,13 @@
         <v>68</v>
       </c>
       <c r="C70">
-        <v>0.9002441590832125</v>
+        <v>0.9531503406263167</v>
       </c>
       <c r="D70">
-        <v>1.774505019187927</v>
+        <v>1.734521508216858</v>
       </c>
       <c r="E70">
-        <v>36.5</v>
+        <v>35.05</v>
       </c>
       <c r="G70">
         <v>2</v>
@@ -7429,10 +7214,10 @@
         <v>34</v>
       </c>
       <c r="I70">
-        <v>0.007708952236175537</v>
+        <v>0.007667395234107971</v>
       </c>
       <c r="J70">
-        <v>56.86</v>
+        <v>56.96</v>
       </c>
     </row>
     <row r="71" spans="1:10">
@@ -7443,13 +7228,13 @@
         <v>69</v>
       </c>
       <c r="C71">
-        <v>0.9019745972848707</v>
+        <v>0.9504153118018182</v>
       </c>
       <c r="D71">
-        <v>1.770896553993225</v>
+        <v>1.735472440719604</v>
       </c>
       <c r="E71">
-        <v>36.36</v>
+        <v>35.11</v>
       </c>
       <c r="G71">
         <v>1</v>
@@ -7458,10 +7243,10 @@
         <v>35</v>
       </c>
       <c r="I71">
-        <v>0.01940655856132507</v>
+        <v>0.01928644199371338</v>
       </c>
       <c r="J71">
-        <v>15.96</v>
+        <v>13.42</v>
       </c>
     </row>
     <row r="72" spans="1:10">
@@ -7472,13 +7257,13 @@
         <v>70</v>
       </c>
       <c r="C72">
-        <v>0.9022680900750621</v>
+        <v>0.9535134660620843</v>
       </c>
       <c r="D72">
-        <v>1.773985266685486</v>
+        <v>1.73649263381958</v>
       </c>
       <c r="E72">
-        <v>36.23</v>
+        <v>35.08</v>
       </c>
       <c r="G72">
         <v>2</v>
@@ -7487,10 +7272,10 @@
         <v>35</v>
       </c>
       <c r="I72">
-        <v>0.007749517893791199</v>
+        <v>0.007673839139938354</v>
       </c>
       <c r="J72">
-        <v>56.7</v>
+        <v>56.64</v>
       </c>
     </row>
     <row r="73" spans="1:10">
@@ -7501,13 +7286,13 @@
         <v>71</v>
       </c>
       <c r="C73">
-        <v>0.9015821131967729</v>
+        <v>0.9523335301106975</v>
       </c>
       <c r="D73">
-        <v>1.772144436836243</v>
+        <v>1.736780881881714</v>
       </c>
       <c r="E73">
-        <v>36.31</v>
+        <v>35.01</v>
       </c>
       <c r="G73">
         <v>1</v>
@@ -7516,10 +7301,10 @@
         <v>36</v>
       </c>
       <c r="I73">
-        <v>0.01951805386543274</v>
+        <v>0.01930402064323425</v>
       </c>
       <c r="J73">
-        <v>15.64</v>
+        <v>13.22</v>
       </c>
     </row>
     <row r="74" spans="1:10">
@@ -7530,13 +7315,13 @@
         <v>72</v>
       </c>
       <c r="C74">
-        <v>0.9016176130502455</v>
+        <v>0.9530609557705541</v>
       </c>
       <c r="D74">
-        <v>1.770444631576538</v>
+        <v>1.736679434776306</v>
       </c>
       <c r="E74">
-        <v>36.23</v>
+        <v>35.09</v>
       </c>
       <c r="G74">
         <v>2</v>
@@ -7545,10 +7330,10 @@
         <v>36</v>
       </c>
       <c r="I74">
-        <v>0.007728017139434815</v>
+        <v>0.007681906628608704</v>
       </c>
       <c r="J74">
-        <v>56.28</v>
+        <v>56.88</v>
       </c>
     </row>
     <row r="75" spans="1:10">
@@ -7559,13 +7344,13 @@
         <v>73</v>
       </c>
       <c r="C75">
-        <v>0.9011262049598079</v>
+        <v>0.9533182666186364</v>
       </c>
       <c r="D75">
-        <v>1.771721959114075</v>
+        <v>1.735460519790649</v>
       </c>
       <c r="E75">
-        <v>36.19</v>
+        <v>35.09</v>
       </c>
       <c r="G75">
         <v>1</v>
@@ -7574,10 +7359,10 @@
         <v>37</v>
       </c>
       <c r="I75">
-        <v>0.01946396951675415</v>
+        <v>0.01928131437301636</v>
       </c>
       <c r="J75">
-        <v>15.88</v>
+        <v>13.3</v>
       </c>
     </row>
     <row r="76" spans="1:10">
@@ -7588,13 +7373,13 @@
         <v>74</v>
       </c>
       <c r="C76">
-        <v>0.9020512825058352</v>
+        <v>0.9536862469488575</v>
       </c>
       <c r="D76">
-        <v>1.775983214378357</v>
+        <v>1.73773980140686</v>
       </c>
       <c r="E76">
-        <v>36.36</v>
+        <v>34.95</v>
       </c>
       <c r="G76">
         <v>2</v>
@@ -7603,10 +7388,10 @@
         <v>37</v>
       </c>
       <c r="I76">
-        <v>0.007766570997238159</v>
+        <v>0.007700915026664734</v>
       </c>
       <c r="J76">
-        <v>56.12</v>
+        <v>56.9</v>
       </c>
     </row>
     <row r="77" spans="1:10">
@@ -7617,13 +7402,13 @@
         <v>75</v>
       </c>
       <c r="C77">
-        <v>0.9034804024042622</v>
+        <v>0.9516106771845971</v>
       </c>
       <c r="D77">
-        <v>1.772435188293457</v>
+        <v>1.733481407165527</v>
       </c>
       <c r="E77">
-        <v>36.11</v>
+        <v>35.04</v>
       </c>
       <c r="G77">
         <v>1</v>
@@ -7632,10 +7417,10 @@
         <v>38</v>
       </c>
       <c r="I77">
-        <v>0.01953311138153076</v>
+        <v>0.0193960684299469</v>
       </c>
       <c r="J77">
-        <v>15.7</v>
+        <v>13.3</v>
       </c>
     </row>
     <row r="78" spans="1:10">
@@ -7646,13 +7431,13 @@
         <v>76</v>
       </c>
       <c r="C78">
-        <v>0.9004754154912887</v>
+        <v>0.9514410015075437</v>
       </c>
       <c r="D78">
-        <v>1.77361524105072</v>
+        <v>1.738039493560791</v>
       </c>
       <c r="E78">
-        <v>36.35</v>
+        <v>35.06</v>
       </c>
       <c r="G78">
         <v>2</v>
@@ -7661,10 +7446,10 @@
         <v>38</v>
       </c>
       <c r="I78">
-        <v>0.007768195676803589</v>
+        <v>0.007715777683258057</v>
       </c>
       <c r="J78">
-        <v>56.38</v>
+        <v>56.92</v>
       </c>
     </row>
     <row r="79" spans="1:10">
@@ -7675,13 +7460,13 @@
         <v>77</v>
       </c>
       <c r="C79">
-        <v>0.9021085034455022</v>
+        <v>0.9546379663290516</v>
       </c>
       <c r="D79">
-        <v>1.770982384681702</v>
+        <v>1.735831499099731</v>
       </c>
       <c r="E79">
-        <v>36.18</v>
+        <v>35.05</v>
       </c>
       <c r="G79">
         <v>1</v>
@@ -7690,10 +7475,10 @@
         <v>39</v>
       </c>
       <c r="I79">
-        <v>0.01963810839653015</v>
+        <v>0.0194150128364563</v>
       </c>
       <c r="J79">
-        <v>15.54</v>
+        <v>13.24</v>
       </c>
     </row>
     <row r="80" spans="1:10">
@@ -7704,13 +7489,13 @@
         <v>78</v>
       </c>
       <c r="C80">
-        <v>0.9034732186025188</v>
+        <v>0.9500841791591337</v>
       </c>
       <c r="D80">
-        <v>1.775784015655518</v>
+        <v>1.735132575035095</v>
       </c>
       <c r="E80">
-        <v>36.43</v>
+        <v>35.15</v>
       </c>
       <c r="G80">
         <v>2</v>
@@ -7719,10 +7504,10 @@
         <v>39</v>
       </c>
       <c r="I80">
-        <v>0.007789199328422546</v>
+        <v>0.007717589998245239</v>
       </c>
       <c r="J80">
-        <v>56.42</v>
+        <v>56.48</v>
       </c>
     </row>
     <row r="81" spans="1:10">
@@ -7733,13 +7518,13 @@
         <v>79</v>
       </c>
       <c r="C81">
-        <v>0.9025190943671811</v>
+        <v>0.9514523052400158</v>
       </c>
       <c r="D81">
-        <v>1.772137641906738</v>
+        <v>1.736972332000732</v>
       </c>
       <c r="E81">
-        <v>36.3</v>
+        <v>35.18</v>
       </c>
       <c r="G81">
         <v>1</v>
@@ -7748,10 +7533,10 @@
         <v>40</v>
       </c>
       <c r="I81">
-        <v>0.01973587789535522</v>
+        <v>0.01946969423294067</v>
       </c>
       <c r="J81">
-        <v>15.62</v>
+        <v>13.16</v>
       </c>
     </row>
     <row r="82" spans="1:10">
@@ -7762,13 +7547,13 @@
         <v>80</v>
       </c>
       <c r="C82">
-        <v>0.8994466037519516</v>
+        <v>0.9518322084219225</v>
       </c>
       <c r="D82">
-        <v>1.772741913795471</v>
+        <v>1.734270453453064</v>
       </c>
       <c r="E82">
-        <v>36.23</v>
+        <v>34.95</v>
       </c>
       <c r="G82">
         <v>2</v>
@@ -7777,10 +7562,10 @@
         <v>40</v>
       </c>
       <c r="I82">
-        <v>0.007820741271972657</v>
+        <v>0.007736337542533875</v>
       </c>
       <c r="J82">
-        <v>56.24</v>
+        <v>56.86</v>
       </c>
     </row>
     <row r="83" spans="1:10">
@@ -7791,13 +7576,13 @@
         <v>81</v>
       </c>
       <c r="C83">
-        <v>0.9014935406946367</v>
+        <v>0.9516610190753014</v>
       </c>
       <c r="D83">
-        <v>1.772067070007324</v>
+        <v>1.735465049743652</v>
       </c>
       <c r="E83">
-        <v>36.4</v>
+        <v>35.06</v>
       </c>
       <c r="G83">
         <v>1</v>
@@ -7806,10 +7591,10 @@
         <v>41</v>
       </c>
       <c r="I83">
-        <v>0.01963031535148621</v>
+        <v>0.01945911417007446</v>
       </c>
       <c r="J83">
-        <v>15.8</v>
+        <v>13.38</v>
       </c>
     </row>
     <row r="84" spans="1:10">
@@ -7820,13 +7605,13 @@
         <v>82</v>
       </c>
       <c r="C84">
-        <v>0.9045070150206166</v>
+        <v>0.9499236470268618</v>
       </c>
       <c r="D84">
-        <v>1.773425817489624</v>
+        <v>1.736540794372559</v>
       </c>
       <c r="E84">
-        <v>36.23</v>
+        <v>35.14</v>
       </c>
       <c r="G84">
         <v>2</v>
@@ -7835,10 +7620,10 @@
         <v>41</v>
       </c>
       <c r="I84">
-        <v>0.007857941770553588</v>
+        <v>0.007778250908851624</v>
       </c>
       <c r="J84">
-        <v>55.9</v>
+        <v>56.54</v>
       </c>
     </row>
     <row r="85" spans="1:10">
@@ -7849,13 +7634,13 @@
         <v>83</v>
       </c>
       <c r="C85">
-        <v>0.9008634994106908</v>
+        <v>0.9503131701100257</v>
       </c>
       <c r="D85">
-        <v>1.771869301795959</v>
+        <v>1.734662055969238</v>
       </c>
       <c r="E85">
-        <v>36.37</v>
+        <v>35.01</v>
       </c>
       <c r="G85">
         <v>1</v>
@@ -7864,10 +7649,10 @@
         <v>42</v>
       </c>
       <c r="I85">
-        <v>0.01926847887039184</v>
+        <v>0.0191905529499054</v>
       </c>
       <c r="J85">
-        <v>15.68</v>
+        <v>13.08</v>
       </c>
     </row>
     <row r="86" spans="1:10">
@@ -7878,13 +7663,13 @@
         <v>84</v>
       </c>
       <c r="C86">
-        <v>0.8999847447679888</v>
+        <v>0.9491725962969565</v>
       </c>
       <c r="D86">
-        <v>1.77586841583252</v>
+        <v>1.735737800598145</v>
       </c>
       <c r="E86">
-        <v>36.19</v>
+        <v>34.95</v>
       </c>
       <c r="G86">
         <v>2</v>
@@ -7893,10 +7678,10 @@
         <v>42</v>
       </c>
       <c r="I86">
-        <v>0.007645427656173706</v>
+        <v>0.007613942146301269</v>
       </c>
       <c r="J86">
-        <v>56.78</v>
+        <v>56.9</v>
       </c>
     </row>
     <row r="87" spans="1:10">
@@ -7907,13 +7692,13 @@
         <v>85</v>
       </c>
       <c r="C87">
-        <v>0.9009237308656016</v>
+        <v>0.9504422208955211</v>
       </c>
       <c r="D87">
-        <v>1.771429657936096</v>
+        <v>1.736340880393982</v>
       </c>
       <c r="E87">
-        <v>36.13</v>
+        <v>34.98</v>
       </c>
       <c r="G87">
         <v>1</v>
@@ -7922,10 +7707,10 @@
         <v>43</v>
       </c>
       <c r="I87">
-        <v>0.01931162791252136</v>
+        <v>0.01920127944946289</v>
       </c>
       <c r="J87">
-        <v>15.78</v>
+        <v>13.02</v>
       </c>
     </row>
     <row r="88" spans="1:10">
@@ -7936,13 +7721,13 @@
         <v>86</v>
       </c>
       <c r="C88">
-        <v>0.9034176983179585</v>
+        <v>0.9526195795305313</v>
       </c>
       <c r="D88">
-        <v>1.772615075111389</v>
+        <v>1.738839864730835</v>
       </c>
       <c r="E88">
-        <v>36.27</v>
+        <v>35.13</v>
       </c>
       <c r="G88">
         <v>2</v>
@@ -7951,10 +7736,10 @@
         <v>43</v>
       </c>
       <c r="I88">
-        <v>0.007654598760604858</v>
+        <v>0.007606148076057434</v>
       </c>
       <c r="J88">
-        <v>56.62</v>
+        <v>57.1</v>
       </c>
     </row>
     <row r="89" spans="1:10">
@@ -7965,13 +7750,13 @@
         <v>87</v>
       </c>
       <c r="C89">
-        <v>0.9003826663378747</v>
+        <v>0.9509310794453467</v>
       </c>
       <c r="D89">
-        <v>1.771838665008545</v>
+        <v>1.736047029495239</v>
       </c>
       <c r="E89">
-        <v>36.33</v>
+        <v>34.95</v>
       </c>
       <c r="G89">
         <v>1</v>
@@ -7980,10 +7765,10 @@
         <v>44</v>
       </c>
       <c r="I89">
-        <v>0.01927271118164062</v>
+        <v>0.01916695990562439</v>
       </c>
       <c r="J89">
-        <v>15.86</v>
+        <v>13.06</v>
       </c>
     </row>
     <row r="90" spans="1:10">
@@ -7994,13 +7779,13 @@
         <v>88</v>
       </c>
       <c r="C90">
-        <v>0.9025429891001794</v>
+        <v>0.9520508598896765</v>
       </c>
       <c r="D90">
-        <v>1.774305939674377</v>
+        <v>1.736499428749084</v>
       </c>
       <c r="E90">
-        <v>36.33</v>
+        <v>34.92</v>
       </c>
       <c r="G90">
         <v>2</v>
@@ -8009,10 +7794,10 @@
         <v>44</v>
       </c>
       <c r="I90">
-        <v>0.007662186050415039</v>
+        <v>0.007626222658157348</v>
       </c>
       <c r="J90">
-        <v>56.54</v>
+        <v>57.08</v>
       </c>
     </row>
     <row r="91" spans="1:10">
@@ -8023,13 +7808,13 @@
         <v>89</v>
       </c>
       <c r="C91">
-        <v>0.9013878078229965</v>
+        <v>0.9535386456597236</v>
       </c>
       <c r="D91">
-        <v>1.771206259727478</v>
+        <v>1.739508628845215</v>
       </c>
       <c r="E91">
-        <v>36.44</v>
+        <v>35.1</v>
       </c>
       <c r="G91">
         <v>1</v>
@@ -8038,10 +7823,10 @@
         <v>45</v>
       </c>
       <c r="I91">
-        <v>0.01933479647636414</v>
+        <v>0.01918509984016419</v>
       </c>
       <c r="J91">
-        <v>15.78</v>
+        <v>13.06</v>
       </c>
     </row>
     <row r="92" spans="1:10">
@@ -8052,13 +7837,13 @@
         <v>90</v>
       </c>
       <c r="C92">
-        <v>0.9037853714919859</v>
+        <v>0.9537558690194161</v>
       </c>
       <c r="D92">
-        <v>1.772778272628784</v>
+        <v>1.736443638801575</v>
       </c>
       <c r="E92">
-        <v>36.37</v>
+        <v>35.03</v>
       </c>
       <c r="G92">
         <v>2</v>
@@ -8067,10 +7852,10 @@
         <v>45</v>
       </c>
       <c r="I92">
-        <v>0.007666528105735779</v>
+        <v>0.007615725898742676</v>
       </c>
       <c r="J92">
-        <v>57.04</v>
+        <v>56.86</v>
       </c>
     </row>
     <row r="93" spans="1:10">
@@ -8081,13 +7866,13 @@
         <v>91</v>
       </c>
       <c r="C93">
-        <v>0.9030766890894982</v>
+        <v>0.950702313934603</v>
       </c>
       <c r="D93">
-        <v>1.773913383483887</v>
+        <v>1.734991788864136</v>
       </c>
       <c r="E93">
-        <v>36.12</v>
+        <v>35.05</v>
       </c>
       <c r="G93">
         <v>1</v>
@@ -8096,10 +7881,10 @@
         <v>46</v>
       </c>
       <c r="I93">
-        <v>0.01933880753517151</v>
+        <v>0.01919505686759949</v>
       </c>
       <c r="J93">
-        <v>15.68</v>
+        <v>12.88</v>
       </c>
     </row>
     <row r="94" spans="1:10">
@@ -8110,13 +7895,13 @@
         <v>92</v>
       </c>
       <c r="C94">
-        <v>0.9002541462259908</v>
+        <v>0.9531665112703077</v>
       </c>
       <c r="D94">
-        <v>1.772382974624634</v>
+        <v>1.737746596336365</v>
       </c>
       <c r="E94">
-        <v>36.34</v>
+        <v>35.02</v>
       </c>
       <c r="G94">
         <v>2</v>
@@ -8125,10 +7910,10 @@
         <v>46</v>
       </c>
       <c r="I94">
-        <v>0.007661526036262512</v>
+        <v>0.007633502101898193</v>
       </c>
       <c r="J94">
-        <v>56.82</v>
+        <v>56.76</v>
       </c>
     </row>
     <row r="95" spans="1:10">
@@ -8139,13 +7924,13 @@
         <v>93</v>
       </c>
       <c r="C95">
-        <v>0.9011240337164171</v>
+        <v>0.9514490808210065</v>
       </c>
       <c r="D95">
-        <v>1.772825956344604</v>
+        <v>1.736933350563049</v>
       </c>
       <c r="E95">
-        <v>36.12</v>
+        <v>35.06</v>
       </c>
       <c r="G95">
         <v>1</v>
@@ -8154,10 +7939,10 @@
         <v>47</v>
       </c>
       <c r="I95">
-        <v>0.01929548110961914</v>
+        <v>0.01921268563270569</v>
       </c>
       <c r="J95">
-        <v>15.84</v>
+        <v>13.18</v>
       </c>
     </row>
     <row r="96" spans="1:10">
@@ -8168,13 +7953,13 @@
         <v>94</v>
       </c>
       <c r="C96">
-        <v>0.8997878691842479</v>
+        <v>0.95303251954817</v>
       </c>
       <c r="D96">
-        <v>1.77455198764801</v>
+        <v>1.735862016677856</v>
       </c>
       <c r="E96">
-        <v>36.16</v>
+        <v>35.05</v>
       </c>
       <c r="G96">
         <v>2</v>
@@ -8183,13 +7968,28 @@
         <v>47</v>
       </c>
       <c r="I96">
-        <v>0.007672413086891174</v>
+        <v>0.007636511635780334</v>
       </c>
       <c r="J96">
-        <v>56.82</v>
-      </c>
-    </row>
-    <row r="97" spans="7:10">
+        <v>56.98</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
+      <c r="A97">
+        <v>2</v>
+      </c>
+      <c r="B97">
+        <v>95</v>
+      </c>
+      <c r="C97">
+        <v>0.9527869440855519</v>
+      </c>
+      <c r="D97">
+        <v>1.734028339385986</v>
+      </c>
+      <c r="E97">
+        <v>35.1</v>
+      </c>
       <c r="G97">
         <v>1</v>
       </c>
@@ -8197,13 +7997,28 @@
         <v>48</v>
       </c>
       <c r="I97">
-        <v>0.01936972513198853</v>
+        <v>0.01921969494819641</v>
       </c>
       <c r="J97">
-        <v>15.76</v>
-      </c>
-    </row>
-    <row r="98" spans="7:10">
+        <v>13.1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
+      <c r="A98">
+        <v>2</v>
+      </c>
+      <c r="B98">
+        <v>96</v>
+      </c>
+      <c r="C98">
+        <v>0.9519650892865273</v>
+      </c>
+      <c r="D98">
+        <v>1.736599326133728</v>
+      </c>
+      <c r="E98">
+        <v>35.04</v>
+      </c>
       <c r="G98">
         <v>2</v>
       </c>
@@ -8211,13 +8026,28 @@
         <v>48</v>
       </c>
       <c r="I98">
-        <v>0.007672239995002747</v>
+        <v>0.007637499189376831</v>
       </c>
       <c r="J98">
-        <v>56.88</v>
-      </c>
-    </row>
-    <row r="99" spans="7:10">
+        <v>56.86</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
+      <c r="A99">
+        <v>2</v>
+      </c>
+      <c r="B99">
+        <v>97</v>
+      </c>
+      <c r="C99">
+        <v>0.9532362722581432</v>
+      </c>
+      <c r="D99">
+        <v>1.735525369644165</v>
+      </c>
+      <c r="E99">
+        <v>35.03</v>
+      </c>
       <c r="G99">
         <v>1</v>
       </c>
@@ -8225,13 +8055,28 @@
         <v>49</v>
       </c>
       <c r="I99">
-        <v>0.01939473295211792</v>
+        <v>0.01919119863510132</v>
       </c>
       <c r="J99">
-        <v>15.68</v>
-      </c>
-    </row>
-    <row r="100" spans="7:10">
+        <v>13.04</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
+      <c r="A100">
+        <v>2</v>
+      </c>
+      <c r="B100">
+        <v>98</v>
+      </c>
+      <c r="C100">
+        <v>0.9510713676291127</v>
+      </c>
+      <c r="D100">
+        <v>1.737496137619019</v>
+      </c>
+      <c r="E100">
+        <v>35.1</v>
+      </c>
       <c r="G100">
         <v>2</v>
       </c>
@@ -8239,13 +8084,28 @@
         <v>49</v>
       </c>
       <c r="I100">
-        <v>0.00766898045539856</v>
+        <v>0.007632613039016724</v>
       </c>
       <c r="J100">
-        <v>56.68</v>
-      </c>
-    </row>
-    <row r="101" spans="7:10">
+        <v>56.84</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
+      <c r="A101">
+        <v>2</v>
+      </c>
+      <c r="B101">
+        <v>99</v>
+      </c>
+      <c r="C101">
+        <v>0.950983390212059</v>
+      </c>
+      <c r="D101">
+        <v>1.735546469688416</v>
+      </c>
+      <c r="E101">
+        <v>35.12</v>
+      </c>
       <c r="G101">
         <v>1</v>
       </c>
@@ -8253,13 +8113,28 @@
         <v>50</v>
       </c>
       <c r="I101">
-        <v>0.01940387563705444</v>
+        <v>0.01923229818344116</v>
       </c>
       <c r="J101">
-        <v>15.66</v>
-      </c>
-    </row>
-    <row r="102" spans="7:10">
+        <v>13.16</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
+      <c r="A102">
+        <v>2</v>
+      </c>
+      <c r="B102">
+        <v>100</v>
+      </c>
+      <c r="C102">
+        <v>0.9524511348816657</v>
+      </c>
+      <c r="D102">
+        <v>1.735406637191772</v>
+      </c>
+      <c r="E102">
+        <v>35.01</v>
+      </c>
       <c r="G102">
         <v>2</v>
       </c>
@@ -8267,13 +8142,28 @@
         <v>50</v>
       </c>
       <c r="I102">
-        <v>0.007674843978881836</v>
+        <v>0.007634436368942261</v>
       </c>
       <c r="J102">
-        <v>56.9</v>
-      </c>
-    </row>
-    <row r="103" spans="7:10">
+        <v>56.96</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
+      <c r="A103">
+        <v>2</v>
+      </c>
+      <c r="B103">
+        <v>101</v>
+      </c>
+      <c r="C103">
+        <v>0.9527913524258521</v>
+      </c>
+      <c r="D103">
+        <v>1.73582398891449</v>
+      </c>
+      <c r="E103">
+        <v>35.09</v>
+      </c>
       <c r="G103">
         <v>1</v>
       </c>
@@ -8281,13 +8171,28 @@
         <v>51</v>
       </c>
       <c r="I103">
-        <v>0.01936660900115967</v>
+        <v>0.01919587812423706</v>
       </c>
       <c r="J103">
-        <v>15.78</v>
-      </c>
-    </row>
-    <row r="104" spans="7:10">
+        <v>13.02</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
+      <c r="A104">
+        <v>2</v>
+      </c>
+      <c r="B104">
+        <v>102</v>
+      </c>
+      <c r="C104">
+        <v>0.951434941541764</v>
+      </c>
+      <c r="D104">
+        <v>1.737205624580383</v>
+      </c>
+      <c r="E104">
+        <v>35.06</v>
+      </c>
       <c r="G104">
         <v>2</v>
       </c>
@@ -8295,13 +8200,28 @@
         <v>51</v>
       </c>
       <c r="I104">
-        <v>0.007682549738883973</v>
+        <v>0.007644017815589905</v>
       </c>
       <c r="J104">
-        <v>56.46</v>
-      </c>
-    </row>
-    <row r="105" spans="7:10">
+        <v>57.02</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
+      <c r="A105">
+        <v>2</v>
+      </c>
+      <c r="B105">
+        <v>103</v>
+      </c>
+      <c r="C105">
+        <v>0.9514452118066049</v>
+      </c>
+      <c r="D105">
+        <v>1.733404517173767</v>
+      </c>
+      <c r="E105">
+        <v>35.1</v>
+      </c>
       <c r="G105">
         <v>1</v>
       </c>
@@ -8309,13 +8229,28 @@
         <v>52</v>
       </c>
       <c r="I105">
-        <v>0.01928933458328247</v>
+        <v>0.0191172360420227</v>
       </c>
       <c r="J105">
-        <v>15.88</v>
-      </c>
-    </row>
-    <row r="106" spans="7:10">
+        <v>13.04</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
+      <c r="A106">
+        <v>2</v>
+      </c>
+      <c r="B106">
+        <v>104</v>
+      </c>
+      <c r="C106">
+        <v>0.9513501246129313</v>
+      </c>
+      <c r="D106">
+        <v>1.73568594455719</v>
+      </c>
+      <c r="E106">
+        <v>35.05</v>
+      </c>
       <c r="G106">
         <v>2</v>
       </c>
@@ -8323,13 +8258,28 @@
         <v>52</v>
       </c>
       <c r="I106">
-        <v>0.007648033905029297</v>
+        <v>0.007624292278289795</v>
       </c>
       <c r="J106">
-        <v>56.74</v>
-      </c>
-    </row>
-    <row r="107" spans="7:10">
+        <v>56.78</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
+      <c r="A107">
+        <v>2</v>
+      </c>
+      <c r="B107">
+        <v>105</v>
+      </c>
+      <c r="C107">
+        <v>0.9529624278506925</v>
+      </c>
+      <c r="D107">
+        <v>1.735990762710571</v>
+      </c>
+      <c r="E107">
+        <v>34.97</v>
+      </c>
       <c r="G107">
         <v>1</v>
       </c>
@@ -8337,13 +8287,28 @@
         <v>53</v>
       </c>
       <c r="I107">
-        <v>0.01928055768013</v>
+        <v>0.01918229403495789</v>
       </c>
       <c r="J107">
-        <v>15.82</v>
-      </c>
-    </row>
-    <row r="108" spans="7:10">
+        <v>13.08</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
+      <c r="A108">
+        <v>2</v>
+      </c>
+      <c r="B108">
+        <v>106</v>
+      </c>
+      <c r="C108">
+        <v>0.9527405759980602</v>
+      </c>
+      <c r="D108">
+        <v>1.736401557922363</v>
+      </c>
+      <c r="E108">
+        <v>35.02</v>
+      </c>
       <c r="G108">
         <v>2</v>
       </c>
@@ -8351,13 +8316,28 @@
         <v>53</v>
       </c>
       <c r="I108">
-        <v>0.007652942466735839</v>
+        <v>0.007604376554489136</v>
       </c>
       <c r="J108">
-        <v>56.6</v>
-      </c>
-    </row>
-    <row r="109" spans="7:10">
+        <v>57.04</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
+      <c r="A109">
+        <v>2</v>
+      </c>
+      <c r="B109">
+        <v>107</v>
+      </c>
+      <c r="C109">
+        <v>0.9517407503820234</v>
+      </c>
+      <c r="D109">
+        <v>1.737413763999939</v>
+      </c>
+      <c r="E109">
+        <v>35</v>
+      </c>
       <c r="G109">
         <v>1</v>
       </c>
@@ -8365,13 +8345,28 @@
         <v>54</v>
       </c>
       <c r="I109">
-        <v>0.01931269817352295</v>
+        <v>0.0191816897392273</v>
       </c>
       <c r="J109">
-        <v>15.76</v>
-      </c>
-    </row>
-    <row r="110" spans="7:10">
+        <v>13.32</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
+      <c r="A110">
+        <v>2</v>
+      </c>
+      <c r="B110">
+        <v>108</v>
+      </c>
+      <c r="C110">
+        <v>0.9523747447998293</v>
+      </c>
+      <c r="D110">
+        <v>1.734695196151733</v>
+      </c>
+      <c r="E110">
+        <v>35.03</v>
+      </c>
       <c r="G110">
         <v>2</v>
       </c>
@@ -8379,13 +8374,28 @@
         <v>54</v>
       </c>
       <c r="I110">
-        <v>0.007644385457038879</v>
+        <v>0.007619499969482421</v>
       </c>
       <c r="J110">
-        <v>56.76</v>
-      </c>
-    </row>
-    <row r="111" spans="7:10">
+        <v>56.84</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
+      <c r="A111">
+        <v>2</v>
+      </c>
+      <c r="B111">
+        <v>109</v>
+      </c>
+      <c r="C111">
+        <v>0.9496808398154474</v>
+      </c>
+      <c r="D111">
+        <v>1.734941124916077</v>
+      </c>
+      <c r="E111">
+        <v>35.07</v>
+      </c>
       <c r="G111">
         <v>1</v>
       </c>
@@ -8393,13 +8403,28 @@
         <v>55</v>
       </c>
       <c r="I111">
-        <v>0.01926485381126404</v>
+        <v>0.01919455418586731</v>
       </c>
       <c r="J111">
-        <v>15.88</v>
-      </c>
-    </row>
-    <row r="112" spans="7:10">
+        <v>13.06</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
+      <c r="A112">
+        <v>2</v>
+      </c>
+      <c r="B112">
+        <v>110</v>
+      </c>
+      <c r="C112">
+        <v>0.9523156073785597</v>
+      </c>
+      <c r="D112">
+        <v>1.736469984054565</v>
+      </c>
+      <c r="E112">
+        <v>35.08</v>
+      </c>
       <c r="G112">
         <v>2</v>
       </c>
@@ -8407,13 +8432,28 @@
         <v>55</v>
       </c>
       <c r="I112">
-        <v>0.007649470973014831</v>
+        <v>0.007617221975326538</v>
       </c>
       <c r="J112">
-        <v>56.66</v>
-      </c>
-    </row>
-    <row r="113" spans="7:10">
+        <v>56.9</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
+      <c r="A113">
+        <v>2</v>
+      </c>
+      <c r="B113">
+        <v>111</v>
+      </c>
+      <c r="C113">
+        <v>0.9506602585315704</v>
+      </c>
+      <c r="D113">
+        <v>1.735586285591125</v>
+      </c>
+      <c r="E113">
+        <v>34.94</v>
+      </c>
       <c r="G113">
         <v>1</v>
       </c>
@@ -8421,13 +8461,28 @@
         <v>56</v>
       </c>
       <c r="I113">
-        <v>0.01924701218605042</v>
+        <v>0.01917048511505127</v>
       </c>
       <c r="J113">
-        <v>15.78</v>
-      </c>
-    </row>
-    <row r="114" spans="7:10">
+        <v>13.08</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
+      <c r="A114">
+        <v>2</v>
+      </c>
+      <c r="B114">
+        <v>112</v>
+      </c>
+      <c r="C114">
+        <v>0.9531443907368568</v>
+      </c>
+      <c r="D114">
+        <v>1.734581589698792</v>
+      </c>
+      <c r="E114">
+        <v>34.93</v>
+      </c>
       <c r="G114">
         <v>2</v>
       </c>
@@ -8435,13 +8490,28 @@
         <v>56</v>
       </c>
       <c r="I114">
-        <v>0.007646265864372254</v>
+        <v>0.007620873236656189</v>
       </c>
       <c r="J114">
-        <v>56.94</v>
-      </c>
-    </row>
-    <row r="115" spans="7:10">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
+      <c r="A115">
+        <v>2</v>
+      </c>
+      <c r="B115">
+        <v>113</v>
+      </c>
+      <c r="C115">
+        <v>0.9510565236691506</v>
+      </c>
+      <c r="D115">
+        <v>1.735818982124329</v>
+      </c>
+      <c r="E115">
+        <v>35.05</v>
+      </c>
       <c r="G115">
         <v>1</v>
       </c>
@@ -8449,13 +8519,13 @@
         <v>57</v>
       </c>
       <c r="I115">
-        <v>0.01927098822593689</v>
+        <v>0.0191845148563385</v>
       </c>
       <c r="J115">
-        <v>15.94</v>
-      </c>
-    </row>
-    <row r="116" spans="7:10">
+        <v>12.92</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="G116">
         <v>2</v>
       </c>
@@ -8463,13 +8533,13 @@
         <v>57</v>
       </c>
       <c r="I116">
-        <v>0.007659594392776489</v>
+        <v>0.007624514245986938</v>
       </c>
       <c r="J116">
-        <v>56.8</v>
-      </c>
-    </row>
-    <row r="117" spans="7:10">
+        <v>57.04</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="G117">
         <v>1</v>
       </c>
@@ -8477,13 +8547,13 @@
         <v>58</v>
       </c>
       <c r="I117">
-        <v>0.01928675260543823</v>
+        <v>0.01919829082489014</v>
       </c>
       <c r="J117">
-        <v>15.94</v>
-      </c>
-    </row>
-    <row r="118" spans="7:10">
+        <v>13.16</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="G118">
         <v>2</v>
       </c>
@@ -8491,13 +8561,13 @@
         <v>58</v>
       </c>
       <c r="I118">
-        <v>0.007657860612869263</v>
+        <v>0.007610566210746766</v>
       </c>
       <c r="J118">
-        <v>56.74</v>
-      </c>
-    </row>
-    <row r="119" spans="7:10">
+        <v>56.94</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="G119">
         <v>1</v>
       </c>
@@ -8505,13 +8575,13 @@
         <v>59</v>
       </c>
       <c r="I119">
-        <v>0.01928310894966126</v>
+        <v>0.01917396011352539</v>
       </c>
       <c r="J119">
-        <v>15.8</v>
-      </c>
-    </row>
-    <row r="120" spans="7:10">
+        <v>13.14</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
       <c r="G120">
         <v>2</v>
       </c>
@@ -8519,13 +8589,13 @@
         <v>59</v>
       </c>
       <c r="I120">
-        <v>0.007648550152778625</v>
+        <v>0.007619531035423279</v>
       </c>
       <c r="J120">
-        <v>56.8</v>
-      </c>
-    </row>
-    <row r="121" spans="7:10">
+        <v>56.76</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
       <c r="G121">
         <v>1</v>
       </c>
@@ -8533,13 +8603,13 @@
         <v>60</v>
       </c>
       <c r="I121">
-        <v>0.01926608037948608</v>
+        <v>0.01916382794380188</v>
       </c>
       <c r="J121">
-        <v>15.74</v>
-      </c>
-    </row>
-    <row r="122" spans="7:10">
+        <v>13.12</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
       <c r="G122">
         <v>2</v>
       </c>
@@ -8547,13 +8617,13 @@
         <v>60</v>
       </c>
       <c r="I122">
-        <v>0.007645914793014527</v>
+        <v>0.007609493660926819</v>
       </c>
       <c r="J122">
-        <v>56.64</v>
-      </c>
-    </row>
-    <row r="123" spans="7:10">
+        <v>56.9</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
       <c r="G123">
         <v>1</v>
       </c>
@@ -8561,13 +8631,13 @@
         <v>61</v>
       </c>
       <c r="I123">
-        <v>0.01923648872375488</v>
+        <v>0.01921384763717651</v>
       </c>
       <c r="J123">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="124" spans="7:10">
+        <v>13.18</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
       <c r="G124">
         <v>2</v>
       </c>
@@ -8575,13 +8645,13 @@
         <v>61</v>
       </c>
       <c r="I124">
-        <v>0.007657240295410156</v>
+        <v>0.007614612650871277</v>
       </c>
       <c r="J124">
-        <v>56.6</v>
-      </c>
-    </row>
-    <row r="125" spans="7:10">
+        <v>56.9</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
       <c r="G125">
         <v>1</v>
       </c>
@@ -8589,13 +8659,13 @@
         <v>62</v>
       </c>
       <c r="I125">
-        <v>0.01926357851028442</v>
+        <v>0.01914214520454407</v>
       </c>
       <c r="J125">
-        <v>15.86</v>
-      </c>
-    </row>
-    <row r="126" spans="7:10">
+        <v>13.04</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
       <c r="G126">
         <v>2</v>
       </c>
@@ -8603,13 +8673,13 @@
         <v>62</v>
       </c>
       <c r="I126">
-        <v>0.007651251006126404</v>
+        <v>0.007612490773200989</v>
       </c>
       <c r="J126">
-        <v>56.68</v>
-      </c>
-    </row>
-    <row r="127" spans="7:10">
+        <v>56.96</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
       <c r="G127">
         <v>1</v>
       </c>
@@ -8617,13 +8687,13 @@
         <v>63</v>
       </c>
       <c r="I127">
-        <v>0.01928375473022461</v>
+        <v>0.01917888569831848</v>
       </c>
       <c r="J127">
-        <v>15.74</v>
-      </c>
-    </row>
-    <row r="128" spans="7:10">
+        <v>13.1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
       <c r="G128">
         <v>2</v>
       </c>
@@ -8631,10 +8701,10 @@
         <v>63</v>
       </c>
       <c r="I128">
-        <v>0.007643589687347412</v>
+        <v>0.007612619376182556</v>
       </c>
       <c r="J128">
-        <v>56.76</v>
+        <v>57.1</v>
       </c>
     </row>
     <row r="129" spans="7:10">
@@ -8645,10 +8715,10 @@
         <v>64</v>
       </c>
       <c r="I129">
-        <v>0.0193086727142334</v>
+        <v>0.01914601292610169</v>
       </c>
       <c r="J129">
-        <v>15.56</v>
+        <v>13.24</v>
       </c>
     </row>
     <row r="130" spans="7:10">
@@ -8659,10 +8729,10 @@
         <v>64</v>
       </c>
       <c r="I130">
-        <v>0.007645013856887818</v>
+        <v>0.007612704300880432</v>
       </c>
       <c r="J130">
-        <v>56.64</v>
+        <v>56.84</v>
       </c>
     </row>
     <row r="131" spans="7:10">
@@ -8673,10 +8743,10 @@
         <v>65</v>
       </c>
       <c r="I131">
-        <v>0.01927827949523926</v>
+        <v>0.01916506953239441</v>
       </c>
       <c r="J131">
-        <v>15.72</v>
+        <v>13.08</v>
       </c>
     </row>
     <row r="132" spans="7:10">
@@ -8687,10 +8757,10 @@
         <v>65</v>
       </c>
       <c r="I132">
-        <v>0.007647046327590942</v>
+        <v>0.007611172795295715</v>
       </c>
       <c r="J132">
-        <v>56.86</v>
+        <v>56.96</v>
       </c>
     </row>
     <row r="133" spans="7:10">
@@ -8701,10 +8771,10 @@
         <v>66</v>
       </c>
       <c r="I133">
-        <v>0.01927884373664856</v>
+        <v>0.01911555757522583</v>
       </c>
       <c r="J133">
-        <v>15.76</v>
+        <v>13.1</v>
       </c>
     </row>
     <row r="134" spans="7:10">
@@ -8715,10 +8785,10 @@
         <v>66</v>
       </c>
       <c r="I134">
-        <v>0.007648056697845459</v>
+        <v>0.007622532033920288</v>
       </c>
       <c r="J134">
-        <v>56.68</v>
+        <v>56.8</v>
       </c>
     </row>
     <row r="135" spans="7:10">
@@ -8729,10 +8799,10 @@
         <v>67</v>
       </c>
       <c r="I135">
-        <v>0.01930323519706726</v>
+        <v>0.01914724063873291</v>
       </c>
       <c r="J135">
-        <v>15.86</v>
+        <v>13.06</v>
       </c>
     </row>
     <row r="136" spans="7:10">
@@ -8743,10 +8813,10 @@
         <v>67</v>
       </c>
       <c r="I136">
-        <v>0.0076552894115448</v>
+        <v>0.007614843440055847</v>
       </c>
       <c r="J136">
-        <v>56.82</v>
+        <v>57.02</v>
       </c>
     </row>
     <row r="137" spans="7:10">
@@ -8757,10 +8827,10 @@
         <v>68</v>
       </c>
       <c r="I137">
-        <v>0.01927618999481201</v>
+        <v>0.01911966466903687</v>
       </c>
       <c r="J137">
-        <v>15.94</v>
+        <v>13.12</v>
       </c>
     </row>
     <row r="138" spans="7:10">
@@ -8771,10 +8841,10 @@
         <v>68</v>
       </c>
       <c r="I138">
-        <v>0.007652769517898559</v>
+        <v>0.007620487999916077</v>
       </c>
       <c r="J138">
-        <v>57.06</v>
+        <v>56.98</v>
       </c>
     </row>
     <row r="139" spans="7:10">
@@ -8785,10 +8855,10 @@
         <v>69</v>
       </c>
       <c r="I139">
-        <v>0.01928177208900452</v>
+        <v>0.01918250761032105</v>
       </c>
       <c r="J139">
-        <v>15.84</v>
+        <v>13.1</v>
       </c>
     </row>
     <row r="140" spans="7:10">
@@ -8799,10 +8869,10 @@
         <v>69</v>
       </c>
       <c r="I140">
-        <v>0.007649408507347107</v>
+        <v>0.007614652419090271</v>
       </c>
       <c r="J140">
-        <v>56.88</v>
+        <v>57.12</v>
       </c>
     </row>
     <row r="141" spans="7:10">
@@ -8813,10 +8883,10 @@
         <v>70</v>
       </c>
       <c r="I141">
-        <v>0.01925349459648132</v>
+        <v>0.01916164917945862</v>
       </c>
       <c r="J141">
-        <v>15.8</v>
+        <v>13.06</v>
       </c>
     </row>
     <row r="142" spans="7:10">
@@ -8827,10 +8897,10 @@
         <v>70</v>
       </c>
       <c r="I142">
-        <v>0.007654650783538819</v>
+        <v>0.007616856956481934</v>
       </c>
       <c r="J142">
-        <v>56.66</v>
+        <v>57.1</v>
       </c>
     </row>
     <row r="143" spans="7:10">
@@ -8841,10 +8911,10 @@
         <v>71</v>
       </c>
       <c r="I143">
-        <v>0.01926161088943482</v>
+        <v>0.01916096534729004</v>
       </c>
       <c r="J143">
-        <v>15.9</v>
+        <v>13.1</v>
       </c>
     </row>
     <row r="144" spans="7:10">
@@ -8855,10 +8925,10 @@
         <v>71</v>
       </c>
       <c r="I144">
-        <v>0.007646318912506104</v>
+        <v>0.007617209458351135</v>
       </c>
       <c r="J144">
-        <v>56.72</v>
+        <v>56.92</v>
       </c>
     </row>
     <row r="145" spans="7:10">
@@ -8869,10 +8939,10 @@
         <v>72</v>
       </c>
       <c r="I145">
-        <v>0.01932722067832947</v>
+        <v>0.01917904992103577</v>
       </c>
       <c r="J145">
-        <v>15.74</v>
+        <v>13.18</v>
       </c>
     </row>
     <row r="146" spans="7:10">
@@ -8883,10 +8953,10 @@
         <v>72</v>
       </c>
       <c r="I146">
-        <v>0.007650527572631836</v>
+        <v>0.007613512372970581</v>
       </c>
       <c r="J146">
-        <v>56.72</v>
+        <v>57</v>
       </c>
     </row>
     <row r="147" spans="7:10">
@@ -8897,10 +8967,10 @@
         <v>73</v>
       </c>
       <c r="I147">
-        <v>0.01925890531539917</v>
+        <v>0.01919611792564392</v>
       </c>
       <c r="J147">
-        <v>15.8</v>
+        <v>12.98</v>
       </c>
     </row>
     <row r="148" spans="7:10">
@@ -8911,10 +8981,10 @@
         <v>73</v>
       </c>
       <c r="I148">
-        <v>0.007650393962860108</v>
+        <v>0.007614976811408996</v>
       </c>
       <c r="J148">
-        <v>56.58</v>
+        <v>57.2</v>
       </c>
     </row>
     <row r="149" spans="7:10">
@@ -8925,10 +8995,10 @@
         <v>74</v>
       </c>
       <c r="I149">
-        <v>0.01925526976585388</v>
+        <v>0.01914734196662903</v>
       </c>
       <c r="J149">
-        <v>15.9</v>
+        <v>12.96</v>
       </c>
     </row>
     <row r="150" spans="7:10">
@@ -8939,10 +9009,10 @@
         <v>74</v>
       </c>
       <c r="I150">
-        <v>0.007653636455535889</v>
+        <v>0.007622593140602112</v>
       </c>
       <c r="J150">
-        <v>56.82</v>
+        <v>56.94</v>
       </c>
     </row>
     <row r="151" spans="7:10">
@@ -8953,10 +9023,10 @@
         <v>75</v>
       </c>
       <c r="I151">
-        <v>0.01929275965690613</v>
+        <v>0.01908589653968811</v>
       </c>
       <c r="J151">
-        <v>15.68</v>
+        <v>13.24</v>
       </c>
     </row>
     <row r="152" spans="7:10">
@@ -8967,10 +9037,10 @@
         <v>75</v>
       </c>
       <c r="I152">
-        <v>0.007658522677421569</v>
+        <v>0.007618850111961365</v>
       </c>
       <c r="J152">
-        <v>56.54</v>
+        <v>56.84</v>
       </c>
     </row>
     <row r="153" spans="7:10">
@@ -8981,10 +9051,10 @@
         <v>76</v>
       </c>
       <c r="I153">
-        <v>0.0192906448841095</v>
+        <v>0.01914546227455139</v>
       </c>
       <c r="J153">
-        <v>15.82</v>
+        <v>13.2</v>
       </c>
     </row>
     <row r="154" spans="7:10">
@@ -8995,10 +9065,10 @@
         <v>76</v>
       </c>
       <c r="I154">
-        <v>0.007646393918991089</v>
+        <v>0.007616719436645508</v>
       </c>
       <c r="J154">
-        <v>56.88</v>
+        <v>56.92</v>
       </c>
     </row>
     <row r="155" spans="7:10">
@@ -9009,10 +9079,10 @@
         <v>77</v>
       </c>
       <c r="I155">
-        <v>0.01928524212837219</v>
+        <v>0.01918430304527283</v>
       </c>
       <c r="J155">
-        <v>15.74</v>
+        <v>13.12</v>
       </c>
     </row>
     <row r="156" spans="7:10">
@@ -9023,10 +9093,10 @@
         <v>77</v>
       </c>
       <c r="I156">
-        <v>0.007662617373466491</v>
+        <v>0.007607574915885925</v>
       </c>
       <c r="J156">
-        <v>56.62</v>
+        <v>56.98</v>
       </c>
     </row>
     <row r="157" spans="7:10">
@@ -9037,10 +9107,10 @@
         <v>78</v>
       </c>
       <c r="I157">
-        <v>0.01930151815414429</v>
+        <v>0.01916408500671387</v>
       </c>
       <c r="J157">
-        <v>15.94</v>
+        <v>13.16</v>
       </c>
     </row>
     <row r="158" spans="7:10">
@@ -9051,10 +9121,10 @@
         <v>78</v>
       </c>
       <c r="I158">
-        <v>0.0076535977602005</v>
+        <v>0.007613072943687439</v>
       </c>
       <c r="J158">
-        <v>56.92</v>
+        <v>57.14</v>
       </c>
     </row>
     <row r="159" spans="7:10">
@@ -9065,10 +9135,10 @@
         <v>79</v>
       </c>
       <c r="I159">
-        <v>0.01919791359901428</v>
+        <v>0.0191594455242157</v>
       </c>
       <c r="J159">
-        <v>15.9</v>
+        <v>13.24</v>
       </c>
     </row>
     <row r="160" spans="7:10">
@@ -9079,10 +9149,10 @@
         <v>79</v>
       </c>
       <c r="I160">
-        <v>0.007662171030044556</v>
+        <v>0.007613833069801331</v>
       </c>
       <c r="J160">
-        <v>56.7</v>
+        <v>57.12</v>
       </c>
     </row>
     <row r="161" spans="7:10">
@@ -9093,10 +9163,10 @@
         <v>80</v>
       </c>
       <c r="I161">
-        <v>0.01923713331222534</v>
+        <v>0.01918497080802917</v>
       </c>
       <c r="J161">
-        <v>15.72</v>
+        <v>13.1</v>
       </c>
     </row>
     <row r="162" spans="7:10">
@@ -9107,10 +9177,10 @@
         <v>80</v>
       </c>
       <c r="I162">
-        <v>0.007651029586791992</v>
+        <v>0.00761782283782959</v>
       </c>
       <c r="J162">
-        <v>56.74</v>
+        <v>56.8</v>
       </c>
     </row>
     <row r="163" spans="7:10">
@@ -9121,10 +9191,10 @@
         <v>81</v>
       </c>
       <c r="I163">
-        <v>0.01927905735969544</v>
+        <v>0.01917143697738647</v>
       </c>
       <c r="J163">
-        <v>15.98</v>
+        <v>13.08</v>
       </c>
     </row>
     <row r="164" spans="7:10">
@@ -9135,10 +9205,10 @@
         <v>81</v>
       </c>
       <c r="I164">
-        <v>0.007657217502593994</v>
+        <v>0.007613187885284423</v>
       </c>
       <c r="J164">
-        <v>56.82</v>
+        <v>57.04</v>
       </c>
     </row>
     <row r="165" spans="7:10">
@@ -9149,10 +9219,10 @@
         <v>82</v>
       </c>
       <c r="I165">
-        <v>0.01929081044197083</v>
+        <v>0.01917259035110474</v>
       </c>
       <c r="J165">
-        <v>15.84</v>
+        <v>13.16</v>
       </c>
     </row>
     <row r="166" spans="7:10">
@@ -9163,10 +9233,10 @@
         <v>82</v>
       </c>
       <c r="I166">
-        <v>0.007656359648704529</v>
+        <v>0.007609441280364991</v>
       </c>
       <c r="J166">
-        <v>56.62</v>
+        <v>57.12</v>
       </c>
     </row>
     <row r="167" spans="7:10">
@@ -9177,10 +9247,10 @@
         <v>83</v>
       </c>
       <c r="I167">
-        <v>0.01930634160041809</v>
+        <v>0.01915418882369995</v>
       </c>
       <c r="J167">
-        <v>15.9</v>
+        <v>13.16</v>
       </c>
     </row>
     <row r="168" spans="7:10">
@@ -9191,10 +9261,10 @@
         <v>83</v>
       </c>
       <c r="I168">
-        <v>0.007649413776397705</v>
+        <v>0.007617236995697022</v>
       </c>
       <c r="J168">
-        <v>56.84</v>
+        <v>56.86</v>
       </c>
     </row>
     <row r="169" spans="7:10">
@@ -9205,10 +9275,10 @@
         <v>84</v>
       </c>
       <c r="I169">
-        <v>0.01928501262664795</v>
+        <v>0.0191570417881012</v>
       </c>
       <c r="J169">
-        <v>15.74</v>
+        <v>13.04</v>
       </c>
     </row>
     <row r="170" spans="7:10">
@@ -9219,10 +9289,10 @@
         <v>84</v>
       </c>
       <c r="I170">
-        <v>0.007654711294174194</v>
+        <v>0.007619013833999634</v>
       </c>
       <c r="J170">
-        <v>56.64</v>
+        <v>56.86</v>
       </c>
     </row>
     <row r="171" spans="7:10">
@@ -9233,10 +9303,10 @@
         <v>85</v>
       </c>
       <c r="I171">
-        <v>0.01925748314857483</v>
+        <v>0.01917837076187134</v>
       </c>
       <c r="J171">
-        <v>15.74</v>
+        <v>13.06</v>
       </c>
     </row>
     <row r="172" spans="7:10">
@@ -9247,10 +9317,10 @@
         <v>85</v>
       </c>
       <c r="I172">
-        <v>0.007653634476661682</v>
+        <v>0.007616390252113342</v>
       </c>
       <c r="J172">
-        <v>56.52</v>
+        <v>56.9</v>
       </c>
     </row>
     <row r="173" spans="7:10">
@@ -9261,10 +9331,10 @@
         <v>86</v>
       </c>
       <c r="I173">
-        <v>0.01932808785438538</v>
+        <v>0.01916208505630493</v>
       </c>
       <c r="J173">
-        <v>15.72</v>
+        <v>13.16</v>
       </c>
     </row>
     <row r="174" spans="7:10">
@@ -9275,10 +9345,10 @@
         <v>86</v>
       </c>
       <c r="I174">
-        <v>0.007639805626869202</v>
+        <v>0.007609340763092041</v>
       </c>
       <c r="J174">
-        <v>56.82</v>
+        <v>57.1</v>
       </c>
     </row>
     <row r="175" spans="7:10">
@@ -9289,10 +9359,10 @@
         <v>87</v>
       </c>
       <c r="I175">
-        <v>0.01924260063171387</v>
+        <v>0.01916833200454712</v>
       </c>
       <c r="J175">
-        <v>15.84</v>
+        <v>12.92</v>
       </c>
     </row>
     <row r="176" spans="7:10">
@@ -9303,10 +9373,10 @@
         <v>87</v>
       </c>
       <c r="I176">
-        <v>0.007652041935920715</v>
+        <v>0.007609171772003174</v>
       </c>
       <c r="J176">
-        <v>56.82</v>
+        <v>56.98</v>
       </c>
     </row>
     <row r="177" spans="7:10">
@@ -9317,10 +9387,10 @@
         <v>88</v>
       </c>
       <c r="I177">
-        <v>0.01929619789123535</v>
+        <v>0.01912559151649475</v>
       </c>
       <c r="J177">
-        <v>15.74</v>
+        <v>13.12</v>
       </c>
     </row>
     <row r="178" spans="7:10">
@@ -9331,10 +9401,10 @@
         <v>88</v>
       </c>
       <c r="I178">
-        <v>0.00765119514465332</v>
+        <v>0.007621774864196777</v>
       </c>
       <c r="J178">
-        <v>56.92</v>
+        <v>56.72</v>
       </c>
     </row>
     <row r="179" spans="7:10">
@@ -9345,10 +9415,10 @@
         <v>89</v>
       </c>
       <c r="I179">
-        <v>0.01928076014518738</v>
+        <v>0.01917515029907227</v>
       </c>
       <c r="J179">
-        <v>15.96</v>
+        <v>13.06</v>
       </c>
     </row>
     <row r="180" spans="7:10">
@@ -9359,10 +9429,10 @@
         <v>89</v>
       </c>
       <c r="I180">
-        <v>0.007647635054588318</v>
+        <v>0.007619906115531922</v>
       </c>
       <c r="J180">
-        <v>56.92</v>
+        <v>57.14</v>
       </c>
     </row>
     <row r="181" spans="7:10">
@@ -9373,10 +9443,10 @@
         <v>90</v>
       </c>
       <c r="I181">
-        <v>0.0192796217918396</v>
+        <v>0.01916016154289246</v>
       </c>
       <c r="J181">
-        <v>15.92</v>
+        <v>13.1</v>
       </c>
     </row>
     <row r="182" spans="7:10">
@@ -9387,10 +9457,10 @@
         <v>90</v>
       </c>
       <c r="I182">
-        <v>0.007652687168121338</v>
+        <v>0.00761026029586792</v>
       </c>
       <c r="J182">
-        <v>56.82</v>
+        <v>56.96</v>
       </c>
     </row>
     <row r="183" spans="7:10">
@@ -9401,10 +9471,10 @@
         <v>91</v>
       </c>
       <c r="I183">
-        <v>0.01932964234352112</v>
+        <v>0.01913599410057068</v>
       </c>
       <c r="J183">
-        <v>15.72</v>
+        <v>13.18</v>
       </c>
     </row>
     <row r="184" spans="7:10">
@@ -9415,10 +9485,10 @@
         <v>91</v>
       </c>
       <c r="I184">
-        <v>0.007654217696189881</v>
+        <v>0.00762158534526825</v>
       </c>
       <c r="J184">
-        <v>56.52</v>
+        <v>56.92</v>
       </c>
     </row>
     <row r="185" spans="7:10">
@@ -9429,10 +9499,10 @@
         <v>92</v>
       </c>
       <c r="I185">
-        <v>0.01924705481529236</v>
+        <v>0.01914078378677368</v>
       </c>
       <c r="J185">
-        <v>15.94</v>
+        <v>13.06</v>
       </c>
     </row>
     <row r="186" spans="7:10">
@@ -9443,10 +9513,10 @@
         <v>92</v>
       </c>
       <c r="I186">
-        <v>0.007660790586471558</v>
+        <v>0.007622958946228027</v>
       </c>
       <c r="J186">
-        <v>56.74</v>
+        <v>56.98</v>
       </c>
     </row>
     <row r="187" spans="7:10">
@@ -9457,10 +9527,10 @@
         <v>93</v>
       </c>
       <c r="I187">
-        <v>0.01933152327537536</v>
+        <v>0.0191751006603241</v>
       </c>
       <c r="J187">
-        <v>15.64</v>
+        <v>13.2</v>
       </c>
     </row>
     <row r="188" spans="7:10">
@@ -9471,10 +9541,10 @@
         <v>93</v>
       </c>
       <c r="I188">
-        <v>0.007648322415351867</v>
+        <v>0.007617345714569092</v>
       </c>
       <c r="J188">
-        <v>56.6</v>
+        <v>56.92</v>
       </c>
     </row>
     <row r="189" spans="7:10">
@@ -9485,10 +9555,10 @@
         <v>94</v>
       </c>
       <c r="I189">
-        <v>0.01931457529067993</v>
+        <v>0.01913208699226379</v>
       </c>
       <c r="J189">
-        <v>15.52</v>
+        <v>13.22</v>
       </c>
     </row>
     <row r="190" spans="7:10">
@@ -9499,10 +9569,542 @@
         <v>94</v>
       </c>
       <c r="I190">
-        <v>0.007654177784919738</v>
+        <v>0.00761425793170929</v>
       </c>
       <c r="J190">
-        <v>56.8</v>
+        <v>56.88</v>
+      </c>
+    </row>
+    <row r="191" spans="7:10">
+      <c r="G191">
+        <v>1</v>
+      </c>
+      <c r="H191">
+        <v>95</v>
+      </c>
+      <c r="I191">
+        <v>0.01911921014785766</v>
+      </c>
+      <c r="J191">
+        <v>13.26</v>
+      </c>
+    </row>
+    <row r="192" spans="7:10">
+      <c r="G192">
+        <v>2</v>
+      </c>
+      <c r="H192">
+        <v>95</v>
+      </c>
+      <c r="I192">
+        <v>0.007614127159118652</v>
+      </c>
+      <c r="J192">
+        <v>56.94</v>
+      </c>
+    </row>
+    <row r="193" spans="7:10">
+      <c r="G193">
+        <v>1</v>
+      </c>
+      <c r="H193">
+        <v>96</v>
+      </c>
+      <c r="I193">
+        <v>0.01912121572494507</v>
+      </c>
+      <c r="J193">
+        <v>13.18</v>
+      </c>
+    </row>
+    <row r="194" spans="7:10">
+      <c r="G194">
+        <v>2</v>
+      </c>
+      <c r="H194">
+        <v>96</v>
+      </c>
+      <c r="I194">
+        <v>0.007616229796409607</v>
+      </c>
+      <c r="J194">
+        <v>56.9</v>
+      </c>
+    </row>
+    <row r="195" spans="7:10">
+      <c r="G195">
+        <v>1</v>
+      </c>
+      <c r="H195">
+        <v>97</v>
+      </c>
+      <c r="I195">
+        <v>0.01915992059707642</v>
+      </c>
+      <c r="J195">
+        <v>13.22</v>
+      </c>
+    </row>
+    <row r="196" spans="7:10">
+      <c r="G196">
+        <v>2</v>
+      </c>
+      <c r="H196">
+        <v>97</v>
+      </c>
+      <c r="I196">
+        <v>0.007613290786743164</v>
+      </c>
+      <c r="J196">
+        <v>56.84</v>
+      </c>
+    </row>
+    <row r="197" spans="7:10">
+      <c r="G197">
+        <v>1</v>
+      </c>
+      <c r="H197">
+        <v>98</v>
+      </c>
+      <c r="I197">
+        <v>0.01919376201629639</v>
+      </c>
+      <c r="J197">
+        <v>13.12</v>
+      </c>
+    </row>
+    <row r="198" spans="7:10">
+      <c r="G198">
+        <v>2</v>
+      </c>
+      <c r="H198">
+        <v>98</v>
+      </c>
+      <c r="I198">
+        <v>0.007611647963523865</v>
+      </c>
+      <c r="J198">
+        <v>57.08</v>
+      </c>
+    </row>
+    <row r="199" spans="7:10">
+      <c r="G199">
+        <v>1</v>
+      </c>
+      <c r="H199">
+        <v>99</v>
+      </c>
+      <c r="I199">
+        <v>0.01919210295677185</v>
+      </c>
+      <c r="J199">
+        <v>13.04</v>
+      </c>
+    </row>
+    <row r="200" spans="7:10">
+      <c r="G200">
+        <v>2</v>
+      </c>
+      <c r="H200">
+        <v>99</v>
+      </c>
+      <c r="I200">
+        <v>0.007615679121017456</v>
+      </c>
+      <c r="J200">
+        <v>57.2</v>
+      </c>
+    </row>
+    <row r="201" spans="7:10">
+      <c r="G201">
+        <v>1</v>
+      </c>
+      <c r="H201">
+        <v>100</v>
+      </c>
+      <c r="I201">
+        <v>0.01917686786651611</v>
+      </c>
+      <c r="J201">
+        <v>13.08</v>
+      </c>
+    </row>
+    <row r="202" spans="7:10">
+      <c r="G202">
+        <v>2</v>
+      </c>
+      <c r="H202">
+        <v>100</v>
+      </c>
+      <c r="I202">
+        <v>0.007610165548324585</v>
+      </c>
+      <c r="J202">
+        <v>56.94</v>
+      </c>
+    </row>
+    <row r="203" spans="7:10">
+      <c r="G203">
+        <v>1</v>
+      </c>
+      <c r="H203">
+        <v>101</v>
+      </c>
+      <c r="I203">
+        <v>0.01917580599784851</v>
+      </c>
+      <c r="J203">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="204" spans="7:10">
+      <c r="G204">
+        <v>2</v>
+      </c>
+      <c r="H204">
+        <v>101</v>
+      </c>
+      <c r="I204">
+        <v>0.00761292462348938</v>
+      </c>
+      <c r="J204">
+        <v>56.98</v>
+      </c>
+    </row>
+    <row r="205" spans="7:10">
+      <c r="G205">
+        <v>1</v>
+      </c>
+      <c r="H205">
+        <v>102</v>
+      </c>
+      <c r="I205">
+        <v>0.01920900626182556</v>
+      </c>
+      <c r="J205">
+        <v>13.08</v>
+      </c>
+    </row>
+    <row r="206" spans="7:10">
+      <c r="G206">
+        <v>2</v>
+      </c>
+      <c r="H206">
+        <v>102</v>
+      </c>
+      <c r="I206">
+        <v>0.0076091801404953</v>
+      </c>
+      <c r="J206">
+        <v>57.04</v>
+      </c>
+    </row>
+    <row r="207" spans="7:10">
+      <c r="G207">
+        <v>1</v>
+      </c>
+      <c r="H207">
+        <v>103</v>
+      </c>
+      <c r="I207">
+        <v>0.01913639178276062</v>
+      </c>
+      <c r="J207">
+        <v>13.08</v>
+      </c>
+    </row>
+    <row r="208" spans="7:10">
+      <c r="G208">
+        <v>2</v>
+      </c>
+      <c r="H208">
+        <v>103</v>
+      </c>
+      <c r="I208">
+        <v>0.007610517001152038</v>
+      </c>
+      <c r="J208">
+        <v>57.12</v>
+      </c>
+    </row>
+    <row r="209" spans="7:10">
+      <c r="G209">
+        <v>1</v>
+      </c>
+      <c r="H209">
+        <v>104</v>
+      </c>
+      <c r="I209">
+        <v>0.01912819314002991</v>
+      </c>
+      <c r="J209">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="210" spans="7:10">
+      <c r="G210">
+        <v>2</v>
+      </c>
+      <c r="H210">
+        <v>104</v>
+      </c>
+      <c r="I210">
+        <v>0.007611037969589234</v>
+      </c>
+      <c r="J210">
+        <v>56.9</v>
+      </c>
+    </row>
+    <row r="211" spans="7:10">
+      <c r="G211">
+        <v>1</v>
+      </c>
+      <c r="H211">
+        <v>105</v>
+      </c>
+      <c r="I211">
+        <v>0.01914931616783142</v>
+      </c>
+      <c r="J211">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="212" spans="7:10">
+      <c r="G212">
+        <v>2</v>
+      </c>
+      <c r="H212">
+        <v>105</v>
+      </c>
+      <c r="I212">
+        <v>0.007616460728645325</v>
+      </c>
+      <c r="J212">
+        <v>56.94</v>
+      </c>
+    </row>
+    <row r="213" spans="7:10">
+      <c r="G213">
+        <v>1</v>
+      </c>
+      <c r="H213">
+        <v>106</v>
+      </c>
+      <c r="I213">
+        <v>0.01917339239120483</v>
+      </c>
+      <c r="J213">
+        <v>13.18</v>
+      </c>
+    </row>
+    <row r="214" spans="7:10">
+      <c r="G214">
+        <v>2</v>
+      </c>
+      <c r="H214">
+        <v>106</v>
+      </c>
+      <c r="I214">
+        <v>0.007611865425109863</v>
+      </c>
+      <c r="J214">
+        <v>56.86</v>
+      </c>
+    </row>
+    <row r="215" spans="7:10">
+      <c r="G215">
+        <v>1</v>
+      </c>
+      <c r="H215">
+        <v>107</v>
+      </c>
+      <c r="I215">
+        <v>0.01914757232666016</v>
+      </c>
+      <c r="J215">
+        <v>13.16</v>
+      </c>
+    </row>
+    <row r="216" spans="7:10">
+      <c r="G216">
+        <v>2</v>
+      </c>
+      <c r="H216">
+        <v>107</v>
+      </c>
+      <c r="I216">
+        <v>0.007611132764816285</v>
+      </c>
+      <c r="J216">
+        <v>56.84</v>
+      </c>
+    </row>
+    <row r="217" spans="7:10">
+      <c r="G217">
+        <v>1</v>
+      </c>
+      <c r="H217">
+        <v>108</v>
+      </c>
+      <c r="I217">
+        <v>0.01915872120857239</v>
+      </c>
+      <c r="J217">
+        <v>13.1</v>
+      </c>
+    </row>
+    <row r="218" spans="7:10">
+      <c r="G218">
+        <v>2</v>
+      </c>
+      <c r="H218">
+        <v>108</v>
+      </c>
+      <c r="I218">
+        <v>0.00760970482826233</v>
+      </c>
+      <c r="J218">
+        <v>56.96</v>
+      </c>
+    </row>
+    <row r="219" spans="7:10">
+      <c r="G219">
+        <v>1</v>
+      </c>
+      <c r="H219">
+        <v>109</v>
+      </c>
+      <c r="I219">
+        <v>0.0191880687713623</v>
+      </c>
+      <c r="J219">
+        <v>13.18</v>
+      </c>
+    </row>
+    <row r="220" spans="7:10">
+      <c r="G220">
+        <v>2</v>
+      </c>
+      <c r="H220">
+        <v>109</v>
+      </c>
+      <c r="I220">
+        <v>0.007615264225006103</v>
+      </c>
+      <c r="J220">
+        <v>56.96</v>
+      </c>
+    </row>
+    <row r="221" spans="7:10">
+      <c r="G221">
+        <v>1</v>
+      </c>
+      <c r="H221">
+        <v>110</v>
+      </c>
+      <c r="I221">
+        <v>0.0192223726272583</v>
+      </c>
+      <c r="J221">
+        <v>13.06</v>
+      </c>
+    </row>
+    <row r="222" spans="7:10">
+      <c r="G222">
+        <v>2</v>
+      </c>
+      <c r="H222">
+        <v>110</v>
+      </c>
+      <c r="I222">
+        <v>0.007605699467658996</v>
+      </c>
+      <c r="J222">
+        <v>57.1</v>
+      </c>
+    </row>
+    <row r="223" spans="7:10">
+      <c r="G223">
+        <v>1</v>
+      </c>
+      <c r="H223">
+        <v>111</v>
+      </c>
+      <c r="I223">
+        <v>0.01915765771865845</v>
+      </c>
+      <c r="J223">
+        <v>13.14</v>
+      </c>
+    </row>
+    <row r="224" spans="7:10">
+      <c r="G224">
+        <v>2</v>
+      </c>
+      <c r="H224">
+        <v>111</v>
+      </c>
+      <c r="I224">
+        <v>0.00761906704902649</v>
+      </c>
+      <c r="J224">
+        <v>56.74</v>
+      </c>
+    </row>
+    <row r="225" spans="7:10">
+      <c r="G225">
+        <v>1</v>
+      </c>
+      <c r="H225">
+        <v>112</v>
+      </c>
+      <c r="I225">
+        <v>0.01913704466819763</v>
+      </c>
+      <c r="J225">
+        <v>13.02</v>
+      </c>
+    </row>
+    <row r="226" spans="7:10">
+      <c r="G226">
+        <v>2</v>
+      </c>
+      <c r="H226">
+        <v>112</v>
+      </c>
+      <c r="I226">
+        <v>0.007619916319847107</v>
+      </c>
+      <c r="J226">
+        <v>56.84</v>
+      </c>
+    </row>
+    <row r="227" spans="7:10">
+      <c r="G227">
+        <v>1</v>
+      </c>
+      <c r="H227">
+        <v>113</v>
+      </c>
+      <c r="I227">
+        <v>0.0191447211265564</v>
+      </c>
+      <c r="J227">
+        <v>13.06</v>
+      </c>
+    </row>
+    <row r="228" spans="7:10">
+      <c r="G228">
+        <v>2</v>
+      </c>
+      <c r="H228">
+        <v>113</v>
+      </c>
+      <c r="I228">
+        <v>0.007610935974121094</v>
+      </c>
+      <c r="J228">
+        <v>57.04</v>
       </c>
     </row>
   </sheetData>
